--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>日期</t>
   </si>
@@ -176,7 +176,7 @@
     <t>4.斜体为56天</t>
   </si>
   <si>
-    <t>Bank</t>
+    <t>申卡顺序</t>
   </si>
   <si>
     <r>
@@ -236,7 +236,7 @@
     <t>卡号</t>
   </si>
   <si>
-    <t>全币种国际信用卡（单VISA）</t>
+    <t>全币种国际信用卡（VISA）</t>
   </si>
   <si>
     <t>有</t>
@@ -281,7 +281,7 @@
     <t>IN卡/金卡</t>
   </si>
   <si>
-    <t>无（5分钟出额度）</t>
+    <t>无（柜员提供的二维码，5分钟出额度）</t>
   </si>
   <si>
     <t>龙卡全球支付白金卡</t>
@@ -299,7 +299,7 @@
     <t>龙卡全球热购卡（Master）</t>
   </si>
   <si>
-    <t>同上</t>
+    <t>~</t>
   </si>
   <si>
     <t>金穗QQ联名IC卡/金卡</t>
@@ -326,16 +326,7 @@
     <t>行卡/白金卡（悠系列）</t>
   </si>
   <si>
-    <t>网点</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>精致白金卡降级</t>
     </r>
     <r>
@@ -350,7 +341,10 @@
     </r>
   </si>
   <si>
-    <t>行驶证+收入证明+农行信用卡(40K)</t>
+    <t>网点/降级</t>
+  </si>
+  <si>
+    <t>行驶证+收入证明+农行信用卡（联系人电话）</t>
   </si>
   <si>
     <t>平安银行</t>
@@ -380,7 +374,7 @@
     <t>标准金卡</t>
   </si>
   <si>
-    <t>双证+公积金+收入证明+光大信用卡</t>
+    <t>双证+公积金+收入证明+光大信用卡（一大堆问题）</t>
   </si>
   <si>
     <t>汇德隆卡</t>
@@ -389,7 +383,7 @@
     <t>京东小白卡</t>
   </si>
   <si>
-    <t>无（小白信用98.9，白条15k，金条20k）</t>
+    <t>无（小白信用98.9，白条15k，金条20k）（公司名称）</t>
   </si>
   <si>
     <t>O215</t>
@@ -401,19 +395,34 @@
     <t>礼程卡</t>
   </si>
   <si>
+    <t>网点</t>
+  </si>
+  <si>
+    <t>收入证明+工资流水</t>
+  </si>
+  <si>
     <t>汇丰银行</t>
   </si>
   <si>
-    <t>生活卡</t>
+    <t>生活卡换旅行卡（白金）</t>
+  </si>
+  <si>
+    <t>收入证明（一大堆问题）</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>不让填卡种-</t>
+  </si>
+  <si>
+    <t>房本+收入证明（顺便公鸡贷被拒，原因是查询次数）</t>
   </si>
   <si>
     <t>工商银行</t>
   </si>
   <si>
     <t>宁波银行</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
   </si>
   <si>
     <t>杭联银行</t>
@@ -565,13 +574,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -633,35 +642,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -675,9 +655,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,17 +687,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -703,6 +697,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,27 +732,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,13 +763,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -798,7 +807,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,31 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,139 +987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,17 +1001,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,42 +1070,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,148 +1103,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,13 +1264,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1273,7 +1282,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2219,7 +2228,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2230,7 +2239,7 @@
     <col min="4" max="4" width="5.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -2545,8 +2554,8 @@
       <c r="E9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="5">
-        <v>42984</v>
+      <c r="F9" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>84</v>
@@ -2554,8 +2563,8 @@
       <c r="H9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="5">
-        <v>42997</v>
+      <c r="I9" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="L9">
         <v>3527</v>
@@ -2602,7 +2611,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2670,26 +2679,34 @@
       </c>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="5">
         <v>43000</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <v>43035</v>
+      </c>
+      <c r="L13">
+        <v>8109</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
@@ -2699,7 +2716,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>75</v>
@@ -2708,7 +2725,7 @@
         <v>43003</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>95</v>
@@ -2740,7 +2757,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="5">
-        <v>43006</v>
+        <v>43005</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>98</v>
@@ -2788,7 +2805,7 @@
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
         <v>105</v>
@@ -2813,8 +2830,8 @@
       <c r="E18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="5">
-        <v>43018</v>
+      <c r="F18" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>84</v>
@@ -2822,8 +2839,8 @@
       <c r="H18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="5">
-        <v>43029</v>
+      <c r="I18" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="L18">
         <v>7563</v>
@@ -2846,7 +2863,7 @@
         <v>43018</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
         <v>108</v>
@@ -2878,49 +2895,70 @@
         <v>43031</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43033</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="5">
-        <v>43031</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="H21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43033</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>115</v>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>116</v>
+      <c r="B24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2928,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2936,7 +2974,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2944,7 +2982,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2952,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2960,7 +2998,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2968,7 +3006,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2976,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2984,7 +3022,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2992,7 +3030,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3000,7 +3038,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3008,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="6:6">
@@ -3039,19 +3077,19 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3083,7 +3121,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3097,7 +3135,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3275,64 +3313,64 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="R2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="U2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3554,109 +3592,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>日期</t>
   </si>
@@ -327,6 +327,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>精致白金卡降级</t>
     </r>
     <r>
@@ -464,19 +469,28 @@
     <t>额度</t>
   </si>
   <si>
+    <t>幅度</t>
+  </si>
+  <si>
+    <t>提额原因</t>
+  </si>
+  <si>
     <t>临额</t>
   </si>
   <si>
-    <t>幅度</t>
-  </si>
-  <si>
-    <t>提额原因</t>
+    <t>倍数</t>
+  </si>
+  <si>
+    <t>临额原因</t>
   </si>
   <si>
     <t>提了固额，临额消失</t>
   </si>
   <si>
     <t>第一次25个月正常提</t>
+  </si>
+  <si>
+    <t>双11</t>
   </si>
   <si>
     <t>笔数</t>
@@ -573,14 +587,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -642,16 +655,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -665,106 +731,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +747,52 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,25 +820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,19 +862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +922,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,79 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +1011,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1016,7 +1044,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,32 +1079,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,7 +1092,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,166 +1111,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,10 +1280,16 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1279,10 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1633,7 +1649,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M8:M12"/>
+      <selection activeCell="M8" sqref="M8:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1649,13 +1665,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1666,18 +1682,18 @@
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="14"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>43026</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2">
         <v>25</v>
       </c>
       <c r="E2" s="2"/>
@@ -1687,12 +1703,12 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>43064</v>
       </c>
       <c r="B3" t="s">
@@ -1708,9 +1724,9 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1724,7 +1740,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="L5" t="s">
@@ -1743,7 +1759,7 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="L7" t="s">
         <v>11</v>
       </c>
@@ -1752,8 +1768,8 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="K8" s="16" t="s">
+      <c r="F8" s="14"/>
+      <c r="K8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
@@ -1767,7 +1783,7 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
@@ -1784,10 +1800,10 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
@@ -1798,11 +1814,11 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
@@ -1816,14 +1832,14 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="K12" s="16" t="s">
+      <c r="F12" s="14"/>
+      <c r="K12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L12" t="s">
@@ -1834,9 +1850,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1845,13 +1861,13 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
@@ -1859,25 +1875,25 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="L15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="K16" t="s">
         <v>28</v>
       </c>
@@ -1889,13 +1905,13 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
@@ -1909,16 +1925,16 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
@@ -1929,9 +1945,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -1940,9 +1956,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -1951,9 +1967,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" t="s">
         <v>34</v>
       </c>
@@ -1968,9 +1984,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" t="s">
         <v>35</v>
       </c>
@@ -1981,9 +1997,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" t="s">
         <v>36</v>
       </c>
@@ -1994,15 +2010,15 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L24" t="s">
@@ -2013,13 +2029,13 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="3"/>
@@ -2028,9 +2044,9 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" t="s">
         <v>39</v>
       </c>
@@ -2039,9 +2055,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" t="s">
         <v>40</v>
       </c>
@@ -2056,13 +2072,13 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K28" t="s">
@@ -2076,13 +2092,13 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K29" t="s">
@@ -2096,13 +2112,13 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L30" t="s">
@@ -2110,13 +2126,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="L31" t="s">
@@ -2124,9 +2140,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" t="s">
         <v>45</v>
       </c>
@@ -2135,9 +2151,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" t="s">
         <v>46</v>
       </c>
@@ -2146,9 +2162,9 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" t="s">
         <v>47</v>
       </c>
@@ -2157,58 +2173,58 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2228,7 +2244,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2241,7 +2257,7 @@
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="45.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
@@ -2278,7 +2294,7 @@
       <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K1" t="s">
@@ -2293,10 +2309,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2308,16 +2324,16 @@
       <c r="F2" s="5">
         <v>42227</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="5">
         <v>42241</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>35</v>
       </c>
       <c r="K2">
@@ -2329,8 +2345,8 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2342,7 +2358,7 @@
       <c r="F3" s="5">
         <v>42948</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H3" t="s">
@@ -2362,7 +2378,7 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2374,16 +2390,16 @@
       <c r="F4" s="5">
         <v>42951</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="5">
         <v>42965</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2392,16 +2408,16 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2413,16 +2429,16 @@
       <c r="F5" s="5">
         <v>42951</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>73</v>
       </c>
       <c r="I5" s="5">
         <v>42965</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2436,10 +2452,10 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2451,16 +2467,16 @@
       <c r="F6" s="5">
         <v>42957</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="5">
         <v>42982</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2469,16 +2485,16 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2490,16 +2506,16 @@
       <c r="F7" s="5">
         <v>42965</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="5">
         <v>42980</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2508,16 +2524,16 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2526,16 +2542,16 @@
       <c r="F8" s="5">
         <v>42984</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="5">
         <v>42996</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2544,11 +2560,11 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2557,10 +2573,10 @@
       <c r="F9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -2569,16 +2585,16 @@
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="7"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2587,16 +2603,16 @@
       <c r="F10" s="5">
         <v>42984</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I10" s="5">
         <v>42999</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2605,16 +2621,16 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="7"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2623,16 +2639,16 @@
       <c r="F11" s="5">
         <v>42986</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>88</v>
       </c>
       <c r="I11" s="5">
         <v>43014</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2641,16 +2657,16 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="7"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -2659,16 +2675,16 @@
       <c r="F12" s="5">
         <v>42990</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>90</v>
       </c>
       <c r="I12" s="5">
         <v>43000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="8">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2677,16 +2693,16 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="7"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2695,10 +2711,10 @@
       <c r="F13" s="5">
         <v>43000</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="5">
@@ -2712,7 +2728,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2724,16 +2740,16 @@
       <c r="F14" s="5">
         <v>43003</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="9" t="s">
         <v>95</v>
       </c>
       <c r="I14" s="5">
         <v>43024</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2759,10 +2775,10 @@
       <c r="F15" s="5">
         <v>43005</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>99</v>
       </c>
       <c r="I15" s="5"/>
@@ -2795,7 +2811,7 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2813,7 +2829,7 @@
       <c r="I17" s="5">
         <v>43029</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="8">
         <v>35</v>
       </c>
       <c r="K17">
@@ -2824,7 +2840,7 @@
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>106</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2833,10 +2849,10 @@
       <c r="F18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>84</v>
       </c>
       <c r="I18" s="5" t="s">
@@ -2853,7 +2869,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -2871,7 +2887,7 @@
       <c r="I19" s="5">
         <v>43026</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="8">
         <v>30</v>
       </c>
       <c r="K19">
@@ -2894,7 +2910,7 @@
       <c r="F20" s="5">
         <v>43031</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H20" t="s">
@@ -2918,7 +2934,7 @@
       <c r="F21" s="5">
         <v>43033</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -2929,7 +2945,7 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C22" t="s">
@@ -2949,7 +2965,7 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3061,21 +3077,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C16"/>
+      <selection activeCell="B7" sqref="B7:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="3" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:8">
       <c r="B1" s="5" t="s">
         <v>133</v>
       </c>
@@ -3090,172 +3108,199 @@
       </c>
       <c r="F1" t="s">
         <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>42241</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7">
       <c r="B3" s="5">
         <v>42956</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4"/>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="G3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="5">
         <v>42998</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4"/>
+      <c r="F4">
         <v>62</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="G4">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
         <v>0.4</v>
       </c>
-      <c r="F5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="5">
-        <v>42965</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
+        <v>43032</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <v>2.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
         <v>42965</v>
       </c>
-      <c r="C7">
-        <v>9.7</v>
+      <c r="C7" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5">
-        <v>42980</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42965</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="5">
-        <v>42982</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42980</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5">
-        <v>42996</v>
-      </c>
-      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42982</v>
+      </c>
+      <c r="C10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="5">
-        <v>42999</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42996</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>43000</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42999</v>
+      </c>
+      <c r="C12" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5">
-        <v>43014</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43000</v>
+      </c>
+      <c r="C13" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43014</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="6">
         <v>43024</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="7">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5">
-        <v>43026</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43026</v>
+      </c>
+      <c r="C16" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
-        <v>43030</v>
-      </c>
-      <c r="C16">
+      <c r="B17" s="6">
+        <v>43029</v>
+      </c>
+      <c r="C17" s="7">
         <v>35</v>
       </c>
     </row>
@@ -3313,64 +3358,64 @@
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
         <v>134</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
         <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
         <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="S2" t="s">
         <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3592,109 +3637,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Increase" sheetId="4" r:id="rId3"/>
     <sheet name="Account" sheetId="6" r:id="rId4"/>
     <sheet name="POS" sheetId="5" r:id="rId5"/>
+    <sheet name="signature" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>日期</t>
   </si>
@@ -330,6 +331,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>精致白金卡降级</t>
@@ -581,6 +583,120 @@
   </si>
   <si>
     <t>上海市惠思慧酒店</t>
+  </si>
+  <si>
+    <t>下卡顺序</t>
+  </si>
+  <si>
+    <t>卡种</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>黑羊</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>CGB</t>
+  </si>
+  <si>
+    <t>聪明金</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>爱驾</t>
+  </si>
+  <si>
+    <t>BOCOM</t>
+  </si>
+  <si>
+    <t>标准金</t>
+  </si>
+  <si>
+    <t>CMBC</t>
+  </si>
+  <si>
+    <t>IN金</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>全球支付白</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>QQ金</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>龙腾白</t>
+  </si>
+  <si>
+    <t>ECITIC</t>
+  </si>
+  <si>
+    <t>i白</t>
+  </si>
+  <si>
+    <t>BOSH</t>
+  </si>
+  <si>
+    <t>降级普卡</t>
+  </si>
+  <si>
+    <t>HXB</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
+    <t>CZB</t>
+  </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>行悠白</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>保险金</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>PSBC</t>
+  </si>
+  <si>
+    <t>鼎雅白</t>
+  </si>
+  <si>
+    <t>CITI</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>旅行卡</t>
+  </si>
+  <si>
+    <t>BOHZ</t>
+  </si>
+  <si>
+    <t>不让选</t>
   </si>
 </sst>
 </file>
@@ -602,6 +718,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -662,28 +784,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +816,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -714,10 +882,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,41 +904,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,35 +918,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -820,19 +936,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,25 +990,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,79 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,37 +1104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1127,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1031,20 +1191,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,39 +1227,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,138 +1247,147 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1271,28 +1396,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1301,25 +1420,25 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1768,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M29"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1665,50 +1784,50 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="16"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>43026</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="12">
+      <c r="A3" s="13">
         <v>43064</v>
       </c>
       <c r="B3" t="s">
@@ -1717,16 +1836,16 @@
       <c r="C3">
         <v>24</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="16"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1740,7 +1859,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="L5" t="s">
@@ -1759,7 +1878,7 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="15"/>
       <c r="L7" t="s">
         <v>11</v>
       </c>
@@ -1768,8 +1887,8 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="K8" s="17" t="s">
+      <c r="F8" s="15"/>
+      <c r="K8" s="18" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
@@ -1783,7 +1902,7 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
@@ -1800,10 +1919,10 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
@@ -1814,11 +1933,11 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
@@ -1832,14 +1951,14 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="K12" s="17" t="s">
+      <c r="F12" s="15"/>
+      <c r="K12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L12" t="s">
@@ -1850,9 +1969,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1861,13 +1980,13 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
@@ -1875,25 +1994,25 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="15"/>
       <c r="L15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="K16" t="s">
         <v>28</v>
       </c>
@@ -1905,13 +2024,13 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
@@ -1925,16 +2044,16 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
@@ -1945,9 +2064,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -1956,9 +2075,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -1967,16 +2086,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="L21" t="s">
@@ -1984,41 +2103,41 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="L22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="L23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="K24" s="8" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="K24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L24" t="s">
@@ -2029,24 +2148,24 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
       <c r="L25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" t="s">
         <v>39</v>
       </c>
@@ -2055,9 +2174,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" t="s">
         <v>40</v>
       </c>
@@ -2072,13 +2191,13 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K28" t="s">
@@ -2092,13 +2211,13 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K29" t="s">
@@ -2112,13 +2231,13 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="20" t="s">
         <v>21</v>
       </c>
       <c r="L30" t="s">
@@ -2126,13 +2245,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="20" t="s">
         <v>18</v>
       </c>
       <c r="L31" t="s">
@@ -2140,9 +2259,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" t="s">
         <v>45</v>
       </c>
@@ -2151,9 +2270,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" t="s">
         <v>46</v>
       </c>
@@ -2162,9 +2281,9 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" t="s">
         <v>47</v>
       </c>
@@ -2173,58 +2292,58 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2243,8 +2362,8 @@
   <sheetPr/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="$A17:$XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2252,34 +2371,34 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="45.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="7" customWidth="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
     <col min="16" max="16" width="15.625" customWidth="1"/>
     <col min="17" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="7" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F1" t="s">
@@ -2294,7 +2413,7 @@
       <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>60</v>
       </c>
       <c r="K1" t="s">
@@ -2309,31 +2428,31 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>42227</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>42241</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>35</v>
       </c>
       <c r="K2">
@@ -2345,26 +2464,26 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>42948</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>42956</v>
       </c>
       <c r="L3">
@@ -2375,31 +2494,31 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>42951</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>42965</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2408,37 +2527,37 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>42951</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>42965</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2452,31 +2571,31 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="7">
         <v>42957</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>42982</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2485,37 +2604,37 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="9"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="7">
         <v>42965</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>42980</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="9">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2524,34 +2643,34 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>42984</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>42996</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2560,59 +2679,59 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="9"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="9"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>42984</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="7">
         <v>42999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2621,34 +2740,34 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="9"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>42986</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="7">
         <v>43014</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="9">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2657,34 +2776,34 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>42990</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>43000</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="9">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2693,31 +2812,31 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="9"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>43000</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="7">
         <v>43035</v>
       </c>
       <c r="L13">
@@ -2728,28 +2847,28 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>43003</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="7">
         <v>43024</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="9">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2769,19 +2888,19 @@
       <c r="C15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="7">
         <v>43005</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
@@ -2793,7 +2912,7 @@
       <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="7">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
@@ -2802,7 +2921,7 @@
       <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
@@ -2811,13 +2930,13 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
@@ -2826,10 +2945,10 @@
       <c r="H17" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="7">
         <v>43029</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="9">
         <v>35</v>
       </c>
       <c r="K17">
@@ -2840,22 +2959,22 @@
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L18">
@@ -2869,13 +2988,13 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="7">
         <v>43018</v>
       </c>
       <c r="G19" t="s">
@@ -2884,10 +3003,10 @@
       <c r="H19" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="7">
         <v>43026</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="9">
         <v>30</v>
       </c>
       <c r="K19">
@@ -2907,16 +3026,16 @@
       <c r="C20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="7">
         <v>43031</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>112</v>
       </c>
       <c r="H20" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
@@ -2928,13 +3047,13 @@
       <c r="C21" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>43033</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -2945,13 +3064,13 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>43033</v>
       </c>
       <c r="G22" t="s">
@@ -2965,7 +3084,7 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3066,7 +3185,7 @@
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="5"/>
+      <c r="F53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3085,7 +3204,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
@@ -3094,7 +3213,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C1" t="s">
@@ -3117,21 +3236,21 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>42241</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>42956</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="6"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -3140,10 +3259,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>42998</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -3155,13 +3274,13 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
@@ -3169,10 +3288,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>43032</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -3184,101 +3303,101 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>42965</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>42965</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>9.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>42980</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>42982</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>42996</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>42999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>43000</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>43014</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>43024</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3286,10 +3405,10 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>43026</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>30</v>
       </c>
     </row>
@@ -3297,10 +3416,10 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>43029</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>35</v>
       </c>
     </row>
@@ -3325,36 +3444,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>42948</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>42979</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>43009</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>43040</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="1">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
         <v>43070</v>
       </c>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
@@ -3419,13 +3538,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>0.96</v>
       </c>
       <c r="D3">
@@ -3437,7 +3556,7 @@
       <c r="F3">
         <v>41</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>0.74</v>
       </c>
       <c r="H3">
@@ -3448,13 +3567,13 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>0.05</v>
       </c>
       <c r="H4">
@@ -3466,7 +3585,7 @@
       <c r="J4">
         <v>25</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>0.56</v>
       </c>
       <c r="L4">
@@ -3477,13 +3596,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>0.84</v>
       </c>
       <c r="H5">
@@ -3494,13 +3613,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>0.14</v>
       </c>
       <c r="H6">
@@ -3511,13 +3630,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F7">
         <v>35</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>0.11</v>
       </c>
       <c r="H7">
@@ -3528,13 +3647,13 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J8">
         <v>23</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>0.56</v>
       </c>
       <c r="L8">
@@ -3545,13 +3664,13 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>0.25</v>
       </c>
       <c r="L9">
@@ -3562,13 +3681,13 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>0.05</v>
       </c>
       <c r="L10">
@@ -3579,13 +3698,13 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>0.01</v>
       </c>
       <c r="L11">
@@ -3596,7 +3715,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3746,4 +3865,388 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5">
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="2">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B1:F18">
+    <sortCondition ref="E1" descending="1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -704,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -777,13 +777,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -798,35 +791,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,28 +836,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -875,7 +852,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,6 +869,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,18 +905,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,97 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +954,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1050,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,43 +1080,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,11 +1132,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,24 +1187,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1185,15 +1198,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,17 +1217,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,153 +1235,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1399,16 +1396,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1784,50 +1781,50 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>43026</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>43064</v>
       </c>
       <c r="B3" t="s">
@@ -1836,16 +1833,16 @@
       <c r="C3">
         <v>24</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="16"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -1859,7 +1856,7 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="L5" t="s">
@@ -1878,7 +1875,7 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="L7" t="s">
         <v>11</v>
       </c>
@@ -1887,8 +1884,8 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="K8" s="18" t="s">
+      <c r="F8" s="14"/>
+      <c r="K8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
@@ -1902,7 +1899,7 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
@@ -1919,10 +1916,10 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
@@ -1933,11 +1930,11 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="10"/>
+      <c r="D11" s="9"/>
       <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
@@ -1951,14 +1948,14 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="K12" s="18" t="s">
+      <c r="F12" s="14"/>
+      <c r="K12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="L12" t="s">
@@ -1969,9 +1966,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1980,13 +1977,13 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
@@ -1994,25 +1991,25 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14"/>
       <c r="L15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
       <c r="K16" t="s">
         <v>28</v>
       </c>
@@ -2024,13 +2021,13 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
@@ -2044,16 +2041,16 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
@@ -2064,9 +2061,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" t="s">
         <v>32</v>
       </c>
@@ -2075,9 +2072,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" t="s">
         <v>33</v>
       </c>
@@ -2086,16 +2083,16 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L21" t="s">
@@ -2103,41 +2100,41 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="L22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
       <c r="L23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="K24" s="9" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="K24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L24" t="s">
@@ -2148,24 +2145,24 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="1"/>
       <c r="L25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" t="s">
         <v>39</v>
       </c>
@@ -2174,9 +2171,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" t="s">
         <v>40</v>
       </c>
@@ -2191,13 +2188,13 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>28</v>
       </c>
       <c r="K28" t="s">
@@ -2211,13 +2208,13 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="K29" t="s">
@@ -2231,13 +2228,13 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L30" t="s">
@@ -2245,13 +2242,13 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="L31" t="s">
@@ -2259,9 +2256,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" t="s">
         <v>45</v>
       </c>
@@ -2270,9 +2267,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" t="s">
         <v>46</v>
       </c>
@@ -2281,9 +2278,9 @@
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" t="s">
         <v>47</v>
       </c>
@@ -2292,58 +2289,58 @@
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="3:5">
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2371,34 +2368,34 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="45.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="8" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="6" customWidth="1"/>
     <col min="15" max="15" width="6.625" customWidth="1"/>
     <col min="16" max="16" width="15.625" customWidth="1"/>
     <col min="17" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="6" customWidth="1"/>
     <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F1" t="s">
@@ -2413,7 +2410,7 @@
       <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>60</v>
       </c>
       <c r="K1" t="s">
@@ -2428,31 +2425,31 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>42227</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>42241</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>35</v>
       </c>
       <c r="K2">
@@ -2464,26 +2461,26 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>42948</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>42956</v>
       </c>
       <c r="L3">
@@ -2494,31 +2491,31 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>42951</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>42965</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>40</v>
       </c>
       <c r="K4">
@@ -2527,37 +2524,37 @@
       <c r="L4">
         <v>9862</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>42951</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>42965</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>9.7</v>
       </c>
       <c r="K5">
@@ -2571,31 +2568,31 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>42957</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>42982</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>10</v>
       </c>
       <c r="K6">
@@ -2604,37 +2601,37 @@
       <c r="L6">
         <v>4774</v>
       </c>
-      <c r="S6" s="10"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>42965</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>42980</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>15</v>
       </c>
       <c r="K7">
@@ -2643,34 +2640,34 @@
       <c r="L7">
         <v>4481</v>
       </c>
-      <c r="S7" s="10"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>42984</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>42996</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
       <c r="K8">
@@ -2679,59 +2676,59 @@
       <c r="L8">
         <v>3523</v>
       </c>
-      <c r="S8" s="10"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="L9">
         <v>3527</v>
       </c>
-      <c r="S9" s="10"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>42984</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>42999</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>40</v>
       </c>
       <c r="K10">
@@ -2740,34 +2737,34 @@
       <c r="L10">
         <v>6804</v>
       </c>
-      <c r="S10" s="10"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>42986</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>43014</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>20</v>
       </c>
       <c r="K11">
@@ -2776,34 +2773,34 @@
       <c r="L11">
         <v>1259</v>
       </c>
-      <c r="S11" s="10"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>42990</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>43000</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>50</v>
       </c>
       <c r="K12">
@@ -2812,31 +2809,31 @@
       <c r="L12">
         <v>3190</v>
       </c>
-      <c r="S12" s="10"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>43000</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>43035</v>
       </c>
       <c r="L13">
@@ -2847,28 +2844,28 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>43003</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>43024</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14">
@@ -2888,19 +2885,19 @@
       <c r="C15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>43005</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
@@ -2912,7 +2909,7 @@
       <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
@@ -2921,7 +2918,7 @@
       <c r="H16" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
@@ -2930,13 +2927,13 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
@@ -2945,10 +2942,10 @@
       <c r="H17" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>43029</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>35</v>
       </c>
       <c r="K17">
@@ -2959,22 +2956,22 @@
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>84</v>
       </c>
       <c r="L18">
@@ -2988,13 +2985,13 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>43018</v>
       </c>
       <c r="G19" t="s">
@@ -3003,10 +3000,10 @@
       <c r="H19" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>43026</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>30</v>
       </c>
       <c r="K19">
@@ -3026,16 +3023,16 @@
       <c r="C20" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>43031</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H20" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
@@ -3047,13 +3044,13 @@
       <c r="C21" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>43033</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H21" t="s">
@@ -3064,13 +3061,13 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>43033</v>
       </c>
       <c r="G22" t="s">
@@ -3084,7 +3081,7 @@
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3185,7 +3182,7 @@
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="7"/>
+      <c r="F53" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3204,7 +3201,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
@@ -3213,7 +3210,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C1" t="s">
@@ -3236,21 +3233,21 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>42241</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>42956</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -3259,10 +3256,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>42998</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -3274,13 +3271,13 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
@@ -3288,10 +3285,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>43032</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -3303,101 +3300,101 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>42965</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>42965</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>42980</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>42982</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>42996</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>42999</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>43000</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>43014</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>43024</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
     </row>
@@ -3405,10 +3402,10 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>43026</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3416,10 +3413,10 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>43029</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>35</v>
       </c>
     </row>
@@ -3444,36 +3441,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>42948</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3">
         <v>42979</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="3">
         <v>43009</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="3">
         <v>43040</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3">
         <v>43070</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
@@ -3538,13 +3535,13 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.96</v>
       </c>
       <c r="D3">
@@ -3556,7 +3553,7 @@
       <c r="F3">
         <v>41</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.74</v>
       </c>
       <c r="H3">
@@ -3567,13 +3564,13 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.05</v>
       </c>
       <c r="H4">
@@ -3585,7 +3582,7 @@
       <c r="J4">
         <v>25</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.56</v>
       </c>
       <c r="L4">
@@ -3596,13 +3593,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.84</v>
       </c>
       <c r="H5">
@@ -3613,13 +3610,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.14</v>
       </c>
       <c r="H6">
@@ -3630,13 +3627,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F7">
         <v>35</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.11</v>
       </c>
       <c r="H7">
@@ -3647,13 +3644,13 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J8">
         <v>23</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.56</v>
       </c>
       <c r="L8">
@@ -3664,13 +3661,13 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.25</v>
       </c>
       <c r="L9">
@@ -3681,13 +3678,13 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0.05</v>
       </c>
       <c r="L10">
@@ -3698,13 +3695,13 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>0.01</v>
       </c>
       <c r="L11">
@@ -3715,7 +3712,7 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3872,7 +3869,7 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -3904,13 +3901,13 @@
       <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>35</v>
       </c>
       <c r="F2" t="s">
@@ -3924,13 +3921,13 @@
       <c r="B3" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>40</v>
       </c>
       <c r="F3" t="s">
@@ -3944,13 +3941,13 @@
       <c r="B4" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" t="s">
@@ -3964,13 +3961,13 @@
       <c r="B5" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" t="s">
@@ -3984,13 +3981,13 @@
       <c r="B6" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>15</v>
       </c>
       <c r="F6" t="s">
@@ -4004,13 +4001,13 @@
       <c r="B7" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" t="s">
@@ -4024,13 +4021,13 @@
       <c r="B8" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>40</v>
       </c>
       <c r="F8" t="s">
@@ -4044,13 +4041,13 @@
       <c r="B9" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" t="s">
@@ -4064,13 +4061,13 @@
       <c r="B10" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>20</v>
       </c>
       <c r="F10" t="s">
@@ -4084,13 +4081,13 @@
       <c r="B11" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" t="s">
@@ -4107,10 +4104,10 @@
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>30</v>
       </c>
       <c r="F12" t="s">
@@ -4127,10 +4124,10 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>35</v>
       </c>
       <c r="F13" t="s">
@@ -4144,10 +4141,10 @@
       <c r="B14" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E14" s="1">
@@ -4187,7 +4184,7 @@
       <c r="D16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4204,7 +4201,7 @@
       <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4238,7 +4235,7 @@
       <c r="D19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>203</v>
       </c>
     </row>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="19635" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -704,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -785,6 +785,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -798,23 +890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -822,7 +899,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,86 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,73 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +1014,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,67 +1116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,11 +1130,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,15 +1150,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,21 +1170,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1198,6 +1180,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,164 +1227,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,16 +1396,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2359,8 +2359,8 @@
   <sheetPr/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3869,8 +3869,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="12630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -600,22 +600,46 @@
     <t>K</t>
   </si>
   <si>
+    <t>HXB</t>
+  </si>
+  <si>
+    <t>小白</t>
+  </si>
+  <si>
     <t>CGB</t>
   </si>
   <si>
     <t>聪明金</t>
   </si>
   <si>
+    <t>CZB</t>
+  </si>
+  <si>
+    <t>标准金</t>
+  </si>
+  <si>
     <t>BOC</t>
   </si>
   <si>
     <t>爱驾</t>
   </si>
   <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>行悠白</t>
+  </si>
+  <si>
     <t>BOCOM</t>
   </si>
   <si>
-    <t>标准金</t>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>保险金</t>
+  </si>
+  <si>
+    <t>ing</t>
   </si>
   <si>
     <t>CMBC</t>
@@ -624,24 +648,45 @@
     <t>IN金</t>
   </si>
   <si>
+    <t>PSBC</t>
+  </si>
+  <si>
+    <t>鼎雅白</t>
+  </si>
+  <si>
     <t>CCB</t>
   </si>
   <si>
     <t>全球支付白</t>
   </si>
   <si>
+    <t>CITI</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
     <t>QQ金</t>
   </si>
   <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>旅行卡</t>
+  </si>
+  <si>
     <t>CEB</t>
   </si>
   <si>
     <t>龙腾白</t>
   </si>
   <si>
+    <t>BOHZ</t>
+  </si>
+  <si>
+    <t>不让选</t>
+  </si>
+  <si>
     <t>ECITIC</t>
   </si>
   <si>
@@ -652,51 +697,6 @@
   </si>
   <si>
     <t>降级普卡</t>
-  </si>
-  <si>
-    <t>HXB</t>
-  </si>
-  <si>
-    <t>小白</t>
-  </si>
-  <si>
-    <t>CZB</t>
-  </si>
-  <si>
-    <t>CIB</t>
-  </si>
-  <si>
-    <t>行悠白</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
-    <t>保险金</t>
-  </si>
-  <si>
-    <t>ing</t>
-  </si>
-  <si>
-    <t>PSBC</t>
-  </si>
-  <si>
-    <t>鼎雅白</t>
-  </si>
-  <si>
-    <t>CITI</t>
-  </si>
-  <si>
-    <t>HSBC</t>
-  </si>
-  <si>
-    <t>旅行卡</t>
-  </si>
-  <si>
-    <t>BOHZ</t>
-  </si>
-  <si>
-    <t>不让选</t>
   </si>
 </sst>
 </file>
@@ -704,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -777,7 +777,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,14 +785,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,7 +822,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,21 +856,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,6 +883,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -890,31 +913,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,19 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,19 +978,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,13 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,25 +1038,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,31 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,19 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,16 +1130,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1184,22 +1204,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,168 +1227,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,16 +1396,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2359,7 +2359,7 @@
   <sheetPr/>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3867,23 +3867,27 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="12" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5">
+    <row r="1" spans="3:11">
       <c r="C1" s="1" t="s">
         <v>173</v>
       </c>
@@ -3893,8 +3897,17 @@
       <c r="E1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3913,19 +3926,37 @@
       <c r="F2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="1">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -3933,19 +3964,37 @@
       <c r="F3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="1">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
@@ -3953,13 +4002,31 @@
       <c r="F4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="1">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -3973,19 +4040,34 @@
       <c r="F5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
@@ -3993,19 +4075,34 @@
       <c r="F6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -4013,19 +4110,34 @@
       <c r="F7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>
@@ -4033,25 +4145,55 @@
       <c r="F8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>177</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4059,13 +4201,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -4079,13 +4221,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -4094,155 +4236,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="1">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" s="1">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B1:F18">
-    <sortCondition ref="E1" descending="1"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="12630" activeTab="5"/>
+    <workbookView windowWidth="19095" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Increase" sheetId="4" r:id="rId3"/>
     <sheet name="Account" sheetId="6" r:id="rId4"/>
     <sheet name="POS" sheetId="5" r:id="rId5"/>
-    <sheet name="signature" sheetId="7" r:id="rId6"/>
+    <sheet name="Signature" sheetId="7" r:id="rId6"/>
+    <sheet name="Capital" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>日期</t>
   </si>
@@ -30,6 +31,9 @@
     <t>账单日</t>
   </si>
   <si>
+    <t>免息期</t>
+  </si>
+  <si>
     <t>起刷日</t>
   </si>
   <si>
@@ -39,31 +43,40 @@
     <t>建设银行</t>
   </si>
   <si>
+    <t>2-&gt;25</t>
+  </si>
+  <si>
+    <t>免息73天</t>
+  </si>
+  <si>
+    <t>1日</t>
+  </si>
+  <si>
+    <t>2日</t>
+  </si>
+  <si>
+    <t>广发银行</t>
+  </si>
+  <si>
+    <t>3日</t>
+  </si>
+  <si>
+    <t>4日</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
+  </si>
+  <si>
+    <t>6日</t>
+  </si>
+  <si>
     <t>光大银行</t>
   </si>
   <si>
-    <t>1日</t>
-  </si>
-  <si>
-    <t>2日</t>
-  </si>
-  <si>
-    <t>广发银行</t>
-  </si>
-  <si>
-    <t>3日</t>
-  </si>
-  <si>
-    <t>4日</t>
-  </si>
-  <si>
-    <t>5日</t>
-  </si>
-  <si>
-    <t>浙商银行</t>
-  </si>
-  <si>
-    <t>6日</t>
+    <t>兴业银行</t>
   </si>
   <si>
     <t>招商银行</t>
@@ -162,9 +175,6 @@
     <t>30日</t>
   </si>
   <si>
-    <t>31日</t>
-  </si>
-  <si>
     <t>1.红色为贷款</t>
   </si>
   <si>
@@ -180,34 +190,7 @@
     <t>申卡顺序</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡种（推倒加</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>粗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>卡种（推倒加粗）</t>
   </si>
   <si>
     <t>征信</t>
@@ -228,6 +211,9 @@
     <t>开卡日期</t>
   </si>
   <si>
+    <t>头尾</t>
+  </si>
+  <si>
     <t>当前额度</t>
   </si>
   <si>
@@ -321,31 +307,13 @@
     <t>公积金（芝麻信用781，先面签，后下卡）</t>
   </si>
   <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
     <t>行卡/白金卡（悠系列）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>精致白金卡降级</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准普卡</t>
-    </r>
+    <t>双证+收入证明（巨慢）</t>
+  </si>
+  <si>
+    <t>精致白金卡降级标准普卡</t>
   </si>
   <si>
     <t>网点/降级</t>
@@ -411,7 +379,10 @@
     <t>汇丰银行</t>
   </si>
   <si>
-    <t>生活卡换旅行卡（白金）</t>
+    <t>生活卡换旅行卡</t>
+  </si>
+  <si>
+    <t>网点/失败</t>
   </si>
   <si>
     <t>收入证明（一大堆问题）</t>
@@ -426,45 +397,93 @@
     <t>房本+收入证明（顺便公鸡贷被拒，原因是查询次数）</t>
   </si>
   <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>标准白金卡/标准信用卡</t>
+  </si>
+  <si>
     <t>工商银行</t>
   </si>
   <si>
+    <t>南京银行</t>
+  </si>
+  <si>
+    <t>银联（白）金卡</t>
+  </si>
+  <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>聚宝金卡</t>
+  </si>
+  <si>
+    <t>温州银行</t>
+  </si>
+  <si>
+    <t>银泰联名卡</t>
+  </si>
+  <si>
+    <t>台州银行</t>
+  </si>
+  <si>
+    <t>大唐（白）金卡</t>
+  </si>
+  <si>
     <t>宁波银行</t>
   </si>
   <si>
+    <t>汇通金卡</t>
+  </si>
+  <si>
+    <t>渤海银行</t>
+  </si>
+  <si>
+    <t>（白）金卡</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>恒星卡/白金卡</t>
+  </si>
+  <si>
+    <t>东亚银行</t>
+  </si>
+  <si>
+    <t>携程白金卡</t>
+  </si>
+  <si>
     <t>杭联银行</t>
   </si>
   <si>
-    <t>南京银行</t>
-  </si>
-  <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>渤海银行</t>
-  </si>
-  <si>
-    <t>台州银行</t>
+    <t>信用卡</t>
+  </si>
+  <si>
+    <t>上海农商</t>
   </si>
   <si>
     <t>郑州银行</t>
   </si>
   <si>
-    <t>东亚银行</t>
-  </si>
-  <si>
-    <t>温州银行</t>
+    <t>深发银行</t>
+  </si>
+  <si>
+    <t>恒生银行</t>
   </si>
   <si>
     <t>浦发银行</t>
   </si>
   <si>
+    <t>AE白</t>
+  </si>
+  <si>
     <t>渣打银行</t>
   </si>
   <si>
+    <t>臻程卡</t>
+  </si>
+  <si>
     <t>提额日期(加粗为下卡)</t>
   </si>
   <si>
@@ -693,40 +712,36 @@
     <t>i白</t>
   </si>
   <si>
+    <t>BOBJ</t>
+  </si>
+  <si>
     <t>BOSH</t>
   </si>
   <si>
     <t>降级普卡</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+  </si>
+  <si>
+    <t>Capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="28">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -770,9 +785,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,15 +828,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,16 +874,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,29 +905,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -883,8 +941,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,42 +951,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,31 +966,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,97 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,19 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,8 +1114,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1130,37 +1172,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,6 +1212,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1204,17 +1241,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,18 +1260,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,144 +1304,189 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1396,19 +1498,28 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1417,25 +1528,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1762,10 +1858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1781,566 +1877,564 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="15"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12">
+      <c r="A2" s="30">
         <v>43026</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="12">
-        <v>43064</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="A3" s="30"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="5:12">
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="5:12">
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="5:12">
       <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="K8" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M8">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="5:14">
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9">
         <v>35</v>
       </c>
+      <c r="N9">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="9"/>
+      <c r="D11" s="23"/>
       <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="K12" s="17" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
       <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="L15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
       <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="K24" s="8" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="K24" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="9"/>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M27">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M28">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M29">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L34" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>48</v>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>49</v>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>50</v>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2357,10 +2451,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2368,801 +2462,941 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="9" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
     <col min="8" max="8" width="45.625" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.625" customWidth="1"/>
-    <col min="16" max="16" width="15.625" customWidth="1"/>
-    <col min="17" max="17" width="8.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="6.625" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="21">
         <v>42227</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="G2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="21">
         <v>42241</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="28">
+        <f>DATEDIF(F2,I2,"d")</f>
+        <v>14</v>
+      </c>
+      <c r="K2" s="10">
         <v>35</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>7427</v>
       </c>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="21">
         <v>42948</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>70</v>
+      <c r="G3" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="6">
+        <v>73</v>
+      </c>
+      <c r="I3" s="21">
         <v>42956</v>
       </c>
-      <c r="L3">
+      <c r="J3" s="28">
+        <f>DATEDIF(F3,I3,"d")</f>
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>1425</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="21">
         <v>42951</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="G4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="21">
         <v>42965</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="28">
+        <f t="shared" ref="J4:J19" si="0">DATEDIF(F4,I4,"d")</f>
+        <v>14</v>
+      </c>
+      <c r="K4" s="10">
         <v>40</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>40</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9862</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="T4" s="23"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21">
         <v>42951</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="21">
         <v>42965</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="28">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K5" s="10">
         <v>9.7</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>9.7</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2344</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="21">
+        <v>42957</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="6">
-        <v>42957</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="21">
         <v>42982</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K6" s="10">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>4774</v>
       </c>
-      <c r="S6" s="9"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="21">
         <v>42965</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="21">
         <v>42980</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="28">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="10">
         <v>15</v>
       </c>
       <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
         <v>4481</v>
       </c>
-      <c r="S7" s="9"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="23"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="21">
         <v>42984</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="21">
         <v>42996</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="10">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3523</v>
       </c>
-      <c r="S8" s="9"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9">
+      <c r="T8" s="23"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="M9">
         <v>3527</v>
       </c>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="21">
+        <v>42984</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="6">
-        <v>42984</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="21">
         <v>42999</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K10" s="10">
         <v>40</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>40</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6804</v>
       </c>
-      <c r="S10" s="9"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="23"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="21">
+        <v>42986</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="21">
+        <v>43014</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K11" s="10">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42986</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="6">
-        <v>43014</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
         <v>1259</v>
       </c>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="23"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="21">
         <v>42990</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="G12" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="21">
         <v>43000</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="10">
         <v>50</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3190</v>
       </c>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="21">
         <v>43000</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="G13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="21">
         <v>43035</v>
       </c>
+      <c r="J13" s="28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K13" s="10">
+        <v>41</v>
+      </c>
       <c r="L13">
+        <v>41</v>
+      </c>
+      <c r="M13">
         <v>8109</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="21">
         <v>43003</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="G14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="21">
         <v>43024</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="28">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K14" s="10">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>7693</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="6">
+        <v>101</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="21">
         <v>43005</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="G15" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="6">
+        <v>105</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="21">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:12">
+        <v>107</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="21">
         <v>43018</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="6">
+        <v>109</v>
+      </c>
+      <c r="I17" s="21">
         <v>43029</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K17" s="10">
         <v>35</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>35</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2339</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18">
+    <row r="18" spans="3:13">
+      <c r="C18" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="M18">
         <v>7563</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="6">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="21">
         <v>43018</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="6">
+        <v>112</v>
+      </c>
+      <c r="I19" s="21">
         <v>43026</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K19" s="10">
         <v>30</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="M19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="6">
+        <v>115</v>
+      </c>
+      <c r="F20" s="21">
         <v>43031</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>112</v>
+      <c r="G20" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="6">
+        <v>118</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="25">
         <v>43033</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H21" t="s">
-        <v>116</v>
+      <c r="G21" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>117</v>
+      <c r="B22" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="6">
+        <v>123</v>
+      </c>
+      <c r="F22" s="21">
         <v>43033</v>
       </c>
       <c r="G22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>120</v>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>27</v>
-      </c>
       <c r="B31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3170,7 +3404,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3178,11 +3412,49 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="6"/>
+      <c r="F53" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3201,7 +3473,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="4" width="4.625" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
@@ -3210,44 +3482,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="6" t="s">
-        <v>133</v>
+      <c r="B1" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="22">
         <v>42241</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="6">
+      <c r="B3" s="21">
         <v>42956</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="20"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -3256,10 +3528,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="6">
+      <c r="B4" s="21">
         <v>42998</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="20"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -3267,28 +3539,28 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6">
+      <c r="B5" s="21">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="20">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="6">
+      <c r="B6" s="21">
         <v>43032</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="20"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -3296,127 +3568,127 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="22">
         <v>42965</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="22">
         <v>42965</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>9.7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="22">
         <v>42980</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="22">
         <v>42982</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="22">
         <v>42996</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="22">
         <v>42999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="22">
         <v>43000</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43014</v>
+      </c>
+      <c r="C14" s="10">
         <v>20</v>
       </c>
-      <c r="B14" s="7">
-        <v>43014</v>
-      </c>
-      <c r="C14" s="8">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="22">
         <v>43024</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="7">
+        <v>21</v>
+      </c>
+      <c r="B16" s="22">
         <v>43026</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22">
         <v>43029</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <v>35</v>
       </c>
     </row>
@@ -3441,107 +3713,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="3">
+      <c r="B1" s="18">
         <v>42948</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="18">
         <v>42979</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="18">
         <v>43009</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="18">
         <v>43040</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="3">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18">
         <v>43070</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="Q2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="R2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="S2" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
+      <c r="A3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="20">
         <v>0.96</v>
       </c>
       <c r="D3">
@@ -3553,7 +3825,7 @@
       <c r="F3">
         <v>41</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="20">
         <v>0.74</v>
       </c>
       <c r="H3">
@@ -3564,13 +3836,13 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="20">
         <v>0.05</v>
       </c>
       <c r="H4">
@@ -3582,7 +3854,7 @@
       <c r="J4">
         <v>25</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="20">
         <v>0.56</v>
       </c>
       <c r="L4">
@@ -3593,13 +3865,13 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="20">
         <v>0.84</v>
       </c>
       <c r="H5">
@@ -3610,13 +3882,13 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="A6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="20">
         <v>0.14</v>
       </c>
       <c r="H6">
@@ -3627,13 +3899,13 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F7">
         <v>35</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="20">
         <v>0.11</v>
       </c>
       <c r="H7">
@@ -3644,13 +3916,13 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="J8">
         <v>23</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="20">
         <v>0.56</v>
       </c>
       <c r="L8">
@@ -3661,13 +3933,13 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="A9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="20">
         <v>0.25</v>
       </c>
       <c r="L9">
@@ -3678,13 +3950,13 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="20">
         <v>0.05</v>
       </c>
       <c r="L10">
@@ -3695,13 +3967,13 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="A11" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="20">
         <v>0.01</v>
       </c>
       <c r="L11">
@@ -3712,13 +3984,13 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
+      <c r="A12" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +4012,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3753,109 +4025,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3869,16 +4141,16 @@
   <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="9" customWidth="1"/>
     <col min="5" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="7.125" customWidth="1"/>
@@ -3888,23 +4160,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="C1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
+      <c r="C1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3912,37 +4184,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="1">
+        <v>196</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="1">
+        <v>199</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="9">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3950,37 +4222,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="1">
+        <v>201</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" s="1">
+        <v>203</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="9">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3988,37 +4260,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="1">
+        <v>205</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K4" s="1">
+        <v>207</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="9">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4026,34 +4298,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="1">
+        <v>209</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>191</v>
+        <v>210</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4061,34 +4333,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="1">
+        <v>213</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4096,34 +4368,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="1">
+        <v>217</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>191</v>
+        <v>219</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4131,34 +4403,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1">
+        <v>220</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>191</v>
+        <v>222</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4166,75 +4438,3799 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="1">
+        <v>224</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>226</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
       <c r="F10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P212"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:6">
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="6:6">
+      <c r="F2" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <f>C3+D3+E3+F2</f>
+        <v>238</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <f>C4+D4+E4+F3</f>
+        <v>238</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F10" si="0">C5+D5+E5+F4</f>
+        <v>238</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>-35</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="O7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>-40</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F42" si="1">C11+D11+E11+F10</f>
+        <v>260</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F17" s="2">
+        <f>C17+D17+E17+F16</f>
+        <v>328</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18"/>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="P22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>-40</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="O23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="P24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25"/>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26"/>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="P27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="O29" s="12"/>
+      <c r="P29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="O30" s="12"/>
+      <c r="P30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="P31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="P32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="P33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="P36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="O37" s="5"/>
+      <c r="P37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-41</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-35</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="O39" s="7"/>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="O41" s="5"/>
+      <c r="P41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="I42" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="P42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F74" si="2">C43+D43+E43+F42</f>
+        <v>253</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="I44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="P44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="O45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="O46" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="O47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48"/>
+      <c r="P48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>19</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="P51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>20</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="P52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>21</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="O53" s="10"/>
+      <c r="P53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="P54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>23</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="I55" t="s">
+        <v>43</v>
+      </c>
+      <c r="J55"/>
+      <c r="P55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="I56" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56"/>
+      <c r="O56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O58" t="s">
+        <v>24</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I59" t="s">
+        <v>47</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="O59" s="12"/>
+      <c r="P59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="O60" s="12"/>
+      <c r="P60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1">
+        <v>29</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I61" t="s">
+        <v>49</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="P61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="I62" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="P62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="P63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="P64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="P65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="2">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="P66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="2">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
+        <v>-35</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="4"/>
+      <c r="O67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="2">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <v>50</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="2">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>30</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <v>-40</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="2">
+        <v>3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>20</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="2">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2">
+        <v>-3</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="4"/>
+      <c r="O71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="2">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2">
+        <v>35</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2">
+        <v>12</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" t="s">
+        <v>30</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="P74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="2">
+        <v>3</v>
+      </c>
+      <c r="B75" s="2">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
+        <f t="shared" ref="F75:F106" si="3">C75+D75+E75+F74</f>
+        <v>295</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="4"/>
+      <c r="P75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="2">
+        <v>3</v>
+      </c>
+      <c r="B76" s="2">
+        <v>14</v>
+      </c>
+      <c r="C76" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2">
+        <v>-10</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="2">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78"/>
+      <c r="P78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="2">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" t="s">
+        <v>37</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="P79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="2">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="P80" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="2">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="P81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="2">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
+        <v>20</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="2">
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
+        <v>21</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>-40</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" t="s">
+        <v>41</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="O83" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="2">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
+        <v>22</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" t="s">
+        <v>42</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="P84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="2">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85"/>
+      <c r="P85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="2">
+        <v>3</v>
+      </c>
+      <c r="B86" s="2">
+        <v>24</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86"/>
+      <c r="P86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="2">
+        <v>3</v>
+      </c>
+      <c r="B87" s="2">
+        <v>25</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" t="s">
+        <v>45</v>
+      </c>
+      <c r="J87" s="4"/>
+      <c r="P87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="2">
+        <v>3</v>
+      </c>
+      <c r="B88" s="2">
+        <v>26</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" s="4"/>
+      <c r="P88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="2">
+        <v>3</v>
+      </c>
+      <c r="B89" s="2">
+        <v>27</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" t="s">
+        <v>47</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="O89" s="12"/>
+      <c r="P89" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="2">
+        <v>3</v>
+      </c>
+      <c r="B90" s="2">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" t="s">
+        <v>48</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="O90" s="12"/>
+      <c r="P90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="2">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2">
+        <v>29</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" t="s">
+        <v>49</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="P91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="2">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
+        <v>30</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="P92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+      <c r="I93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="P93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1">
+        <v>40</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="F94" s="1">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+      <c r="P95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="F96" s="1">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="P96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="F97" s="1">
+        <f t="shared" si="3"/>
+        <v>338</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="O97" s="5"/>
+      <c r="P97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1">
+        <v>-41</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-35</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" s="13"/>
+      <c r="N98" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98" t="s">
+        <v>19</v>
+      </c>
+      <c r="P98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="F99" s="1">
+        <f t="shared" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="I99" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="13"/>
+      <c r="O99" s="7"/>
+      <c r="P99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>8</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1">
+        <v>-9</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="13"/>
+      <c r="O100" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="F101" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" s="14"/>
+      <c r="O101" s="5"/>
+      <c r="P101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>10</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="I102" t="s">
+        <v>28</v>
+      </c>
+      <c r="J102" s="15"/>
+      <c r="P102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1">
+        <v>4</v>
+      </c>
+      <c r="B103" s="1">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="F103" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="I103" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" s="13"/>
+      <c r="P103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1">
+        <v>4</v>
+      </c>
+      <c r="B104" s="1">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="I104" t="s">
+        <v>30</v>
+      </c>
+      <c r="J104" s="14"/>
+      <c r="P104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1">
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1">
+        <v>-15</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="I105" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="14"/>
+      <c r="O105" t="s">
+        <v>32</v>
+      </c>
+      <c r="P105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1">
+        <v>14</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1">
+        <v>-10</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="I106" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="3"/>
+      <c r="O106" t="s">
+        <v>6</v>
+      </c>
+      <c r="P106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1">
+        <v>4</v>
+      </c>
+      <c r="B107" s="1">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1">
+        <f t="shared" ref="F107:F138" si="4">C107+D107+E107+F106</f>
+        <v>228</v>
+      </c>
+      <c r="I107" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="13"/>
+      <c r="P107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1">
+        <v>4</v>
+      </c>
+      <c r="B108" s="1">
+        <v>16</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="I108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108"/>
+      <c r="P108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1">
+        <v>41</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="F109" s="1">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="I109" t="s">
+        <v>37</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1">
+        <v>18</v>
+      </c>
+      <c r="C110" s="1">
+        <v>35</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9</v>
+      </c>
+      <c r="F110" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I110" t="s">
+        <v>38</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="F111" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I111" t="s">
+        <v>39</v>
+      </c>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="P111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>20</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I112" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="P112" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1">
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I113" t="s">
+        <v>41</v>
+      </c>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="O113" s="10"/>
+      <c r="P113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="F114" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="P114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1">
+        <v>4</v>
+      </c>
+      <c r="B115" s="1">
+        <v>23</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="I115" t="s">
+        <v>43</v>
+      </c>
+      <c r="J115"/>
+      <c r="P115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1">
+        <v>24</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="I116" t="s">
+        <v>44</v>
+      </c>
+      <c r="J116"/>
+      <c r="O116" t="s">
+        <v>17</v>
+      </c>
+      <c r="P116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1">
+        <v>4</v>
+      </c>
+      <c r="B117" s="1">
+        <v>25</v>
+      </c>
+      <c r="C117" s="1">
+        <v>15</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1">
+        <v>-30</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="I117" t="s">
+        <v>45</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" t="s">
+        <v>21</v>
+      </c>
+      <c r="P117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1">
+        <v>4</v>
+      </c>
+      <c r="B118" s="1">
+        <v>26</v>
+      </c>
+      <c r="C118" s="1">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1">
+        <v>-20</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="I118" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O118" t="s">
+        <v>24</v>
+      </c>
+      <c r="P118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
+      <c r="A119" s="1">
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <v>27</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="O119" s="12"/>
+      <c r="P119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="1">
+        <v>4</v>
+      </c>
+      <c r="B120" s="1">
+        <v>28</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="I120" t="s">
+        <v>48</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="O120" s="12"/>
+      <c r="P120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" s="1">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1">
+        <v>29</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="I121" t="s">
+        <v>49</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="P121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
+      <c r="A122" s="1">
+        <v>4</v>
+      </c>
+      <c r="B122" s="1">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="I122" t="s">
+        <v>50</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="P122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124"/>
+      <c r="J124" s="16"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126"/>
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127"/>
+      <c r="J127" s="4"/>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128"/>
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129"/>
+      <c r="J129" s="4"/>
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130"/>
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131"/>
+      <c r="J131" s="4"/>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136"/>
+      <c r="J136" s="16"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137"/>
+      <c r="J137" s="4"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139"/>
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="O143" s="10"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147"/>
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148"/>
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="O149" s="12"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="O150" s="12"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="154" spans="10:10">
+      <c r="J154" s="16"/>
+    </row>
+    <row r="156" spans="10:10">
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="10:15">
+      <c r="J157" s="4"/>
+      <c r="O157" s="5"/>
+    </row>
+    <row r="158" spans="10:10">
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="10:15">
+      <c r="J159" s="4"/>
+      <c r="O159" s="7"/>
+    </row>
+    <row r="160" spans="10:10">
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="10:15">
+      <c r="J161" s="4"/>
+      <c r="O161" s="5"/>
+    </row>
+    <row r="163" spans="10:10">
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="10:10">
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="10:10">
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="10:10">
+      <c r="J166" s="16"/>
+    </row>
+    <row r="167" spans="10:15">
+      <c r="J167" s="4"/>
+      <c r="O167" s="7"/>
+    </row>
+    <row r="169" spans="10:10">
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="10:11">
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" spans="10:11">
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" spans="10:11">
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" spans="10:15">
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="O173" s="10"/>
+    </row>
+    <row r="174" spans="10:11">
+      <c r="J174" s="10"/>
+      <c r="K174" s="9"/>
+    </row>
+    <row r="177" spans="10:10">
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="10:10">
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="12"/>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="12"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>日期</t>
   </si>
@@ -274,9 +274,6 @@
     <t>龙卡全球支付白金卡</t>
   </si>
   <si>
-    <t>不确定</t>
-  </si>
-  <si>
     <t>网点/成功</t>
   </si>
   <si>
@@ -331,13 +328,13 @@
     <t>网申</t>
   </si>
   <si>
-    <t>无（行驶证，大堂经理手机操作）</t>
+    <t>无（行驶证，大堂经理手机操作）（5个问题）</t>
   </si>
   <si>
     <t>邮储银行</t>
   </si>
   <si>
-    <t>鼎雅白金卡</t>
+    <t>鼎雅白金卡-银联</t>
   </si>
   <si>
     <t>上门</t>
@@ -346,6 +343,9 @@
     <t>双证+公积金+工牌</t>
   </si>
   <si>
+    <t>鼎雅白金卡-万事达</t>
+  </si>
+  <si>
     <t>标准金卡</t>
   </si>
   <si>
@@ -370,30 +370,30 @@
     <t>礼程卡</t>
   </si>
   <si>
+    <t>网点/失败</t>
+  </si>
+  <si>
+    <t>收入证明+工资流水</t>
+  </si>
+  <si>
+    <t>汇丰银行</t>
+  </si>
+  <si>
+    <t>旅行卡</t>
+  </si>
+  <si>
+    <t>收入证明（一大堆问题）</t>
+  </si>
+  <si>
+    <t>杭州银行</t>
+  </si>
+  <si>
+    <t>不让填卡种-</t>
+  </si>
+  <si>
     <t>网点</t>
   </si>
   <si>
-    <t>收入证明+工资流水</t>
-  </si>
-  <si>
-    <t>汇丰银行</t>
-  </si>
-  <si>
-    <t>生活卡换旅行卡</t>
-  </si>
-  <si>
-    <t>网点/失败</t>
-  </si>
-  <si>
-    <t>收入证明（一大堆问题）</t>
-  </si>
-  <si>
-    <t>杭州银行</t>
-  </si>
-  <si>
-    <t>不让填卡种-</t>
-  </si>
-  <si>
     <t>房本+收入证明（顺便公鸡贷被拒，原因是查询次数）</t>
   </si>
   <si>
@@ -469,9 +469,6 @@
     <t>深发银行</t>
   </si>
   <si>
-    <t>恒生银行</t>
-  </si>
-  <si>
     <t>浦发银行</t>
   </si>
   <si>
@@ -652,6 +649,18 @@
     <t>BOCOM</t>
   </si>
   <si>
+    <t>PSBC</t>
+  </si>
+  <si>
+    <t>鼎雅白</t>
+  </si>
+  <si>
+    <t>CMBC</t>
+  </si>
+  <si>
+    <t>IN金</t>
+  </si>
+  <si>
     <t>PAB</t>
   </si>
   <si>
@@ -661,18 +670,6 @@
     <t>ing</t>
   </si>
   <si>
-    <t>CMBC</t>
-  </si>
-  <si>
-    <t>IN金</t>
-  </si>
-  <si>
-    <t>PSBC</t>
-  </si>
-  <si>
-    <t>鼎雅白</t>
-  </si>
-  <si>
     <t>CCB</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
     <t>CITI</t>
   </si>
   <si>
+    <t>拒</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>HSBC</t>
-  </si>
-  <si>
-    <t>旅行卡</t>
   </si>
   <si>
     <t>CEB</t>
@@ -732,13 +729,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -814,24 +811,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -843,7 +878,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,25 +900,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -888,11 +915,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,19 +932,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -932,30 +953,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -966,19 +963,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,174 +1155,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1188,10 +1185,58 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,17 +1256,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,44 +1284,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1289,152 +1295,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,7 +1474,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1477,49 +1483,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1860,8 +1884,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1877,7 +1901,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1886,26 +1910,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="30">
+      <c r="A2" s="36">
         <v>43026</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1914,31 +1938,29 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="30"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="A3" s="36"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2032,7 +2054,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="23"/>
+      <c r="D11" s="28"/>
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -2050,9 +2072,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" t="s">
         <v>26</v>
       </c>
@@ -2068,9 +2090,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" t="s">
         <v>28</v>
       </c>
@@ -2079,9 +2101,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -2093,9 +2115,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" t="s">
         <v>30</v>
       </c>
@@ -2105,9 +2127,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" t="s">
         <v>31</v>
       </c>
@@ -2123,9 +2145,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" t="s">
         <v>33</v>
       </c>
@@ -2143,9 +2165,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -2163,9 +2185,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" t="s">
         <v>36</v>
       </c>
@@ -2174,9 +2196,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" t="s">
         <v>37</v>
       </c>
@@ -2188,9 +2210,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" t="s">
         <v>38</v>
       </c>
@@ -2205,9 +2227,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" t="s">
         <v>39</v>
       </c>
@@ -2218,9 +2240,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" t="s">
         <v>40</v>
       </c>
@@ -2231,9 +2253,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
@@ -2250,9 +2272,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" t="s">
         <v>42</v>
       </c>
@@ -2265,9 +2287,9 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" t="s">
         <v>43</v>
       </c>
@@ -2276,9 +2298,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" t="s">
         <v>44</v>
       </c>
@@ -2293,9 +2315,9 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" t="s">
         <v>45</v>
       </c>
@@ -2313,9 +2335,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" t="s">
         <v>46</v>
       </c>
@@ -2333,9 +2355,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" t="s">
         <v>47</v>
       </c>
@@ -2347,9 +2369,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" t="s">
         <v>48</v>
       </c>
@@ -2361,9 +2383,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" t="s">
         <v>49</v>
       </c>
@@ -2372,9 +2394,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" t="s">
         <v>50</v>
       </c>
@@ -2383,58 +2405,58 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="3:5">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2454,7 +2476,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2472,11 +2494,11 @@
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="25" customWidth="1"/>
     <col min="16" max="16" width="6.625" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="21" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="25" customWidth="1"/>
     <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2508,7 +2530,7 @@
       <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="32" t="s">
         <v>64</v>
       </c>
       <c r="L1" t="s">
@@ -2535,19 +2557,19 @@
       <c r="E2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="25">
         <v>42227</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="33">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2573,19 +2595,19 @@
       <c r="E3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="25">
         <v>42948</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>74</v>
       </c>
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="33">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -2609,20 +2631,20 @@
       <c r="E4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="25">
         <v>42951</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="28">
-        <f t="shared" ref="J4:J19" si="0">DATEDIF(F4,I4,"d")</f>
+      <c r="J4" s="33">
+        <f t="shared" ref="J4:J21" si="0">DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
       <c r="K4" s="10">
@@ -2634,7 +2656,7 @@
       <c r="M4">
         <v>9862</v>
       </c>
-      <c r="T4" s="23"/>
+      <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
@@ -2652,19 +2674,19 @@
       <c r="E5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="25">
         <v>42951</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="25">
         <v>42965</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="33">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2694,19 +2716,19 @@
       <c r="E6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="25">
         <v>42957</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="25">
         <v>42982</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="33">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2719,7 +2741,7 @@
       <c r="M6">
         <v>4774</v>
       </c>
-      <c r="T6" s="23"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
@@ -2737,19 +2759,19 @@
       <c r="E7" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="25">
         <v>42965</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="25">
         <v>42980</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2762,7 +2784,7 @@
       <c r="M7">
         <v>4481</v>
       </c>
-      <c r="T7" s="23"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
@@ -2778,21 +2800,21 @@
         <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="25">
+        <v>42984</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="21">
-        <v>42984</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="I8" s="25">
         <v>42996</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2805,36 +2827,36 @@
       <c r="M8">
         <v>3523</v>
       </c>
-      <c r="T8" s="23"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="33"/>
       <c r="M9">
         <v>3527</v>
       </c>
-      <c r="T9" s="23"/>
+      <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -2844,27 +2866,27 @@
         <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="25">
+        <v>42984</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="21">
-        <v>42984</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="H10" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="25">
         <v>42999</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2877,7 +2899,7 @@
       <c r="M10">
         <v>6804</v>
       </c>
-      <c r="T10" s="23"/>
+      <c r="T10" s="28"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
@@ -2887,7 +2909,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>68</v>
@@ -2895,19 +2917,19 @@
       <c r="E11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="25">
         <v>42986</v>
       </c>
-      <c r="G11" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="G11" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="25">
         <v>43014</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2920,7 +2942,7 @@
       <c r="M11">
         <v>1259</v>
       </c>
-      <c r="T11" s="23"/>
+      <c r="T11" s="28"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -2930,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>68</v>
@@ -2938,19 +2960,19 @@
       <c r="E12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="25">
         <v>42990</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="H12" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="25">
         <v>43000</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2963,7 +2985,7 @@
       <c r="M12">
         <v>3190</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="28"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
@@ -2973,7 +2995,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>68</v>
@@ -2981,19 +3003,19 @@
       <c r="E13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="25">
         <v>43000</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="G13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="25">
         <v>43035</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3015,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>68</v>
@@ -3023,19 +3045,19 @@
       <c r="E14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="25">
         <v>43003</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="I14" s="25">
         <v>43024</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3054,407 +3076,499 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="21">
+        <v>79</v>
+      </c>
+      <c r="F15" s="25">
         <v>43005</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="28"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="I15" s="25"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="21">
+      <c r="E16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="25">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="25"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="10">
+        <v>70</v>
+      </c>
+      <c r="L16">
+        <v>70</v>
+      </c>
+      <c r="M16">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="28"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="25">
         <v>43018</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I18" s="25">
         <v>43029</v>
       </c>
-      <c r="J17" s="28">
-        <f t="shared" si="0"/>
+      <c r="J18" s="33">
+        <f>DATEDIF(F18,I18,"d")</f>
         <v>11</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>35</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>35</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>2339</v>
       </c>
     </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="10" t="s">
+    <row r="19" spans="3:13">
+      <c r="C19" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="M18">
+      <c r="D19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="M19">
         <v>7563</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
+    <row r="20" spans="1:13">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F20" s="25">
         <v>43018</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>74</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I20" s="25">
         <v>43026</v>
       </c>
-      <c r="J19" s="28">
-        <f t="shared" si="0"/>
+      <c r="J20" s="33">
+        <f>DATEDIF(F20,I20,"d")</f>
         <v>8</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K20" s="10">
         <v>30</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>30</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="21">
+      <c r="D21" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="30">
         <v>43031</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G21" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="I21" s="30">
+        <v>43039</v>
+      </c>
+      <c r="J21" s="34">
+        <f>DATEDIF(F21,I21,"d")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="30">
         <v>43033</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G22" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="I22" s="30">
+        <v>43037</v>
+      </c>
+      <c r="J22" s="34">
+        <f>DATEDIF(F22,I22,"d")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C23" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
+      <c r="F23" s="25">
+        <v>43033</v>
+      </c>
+      <c r="G23" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="21">
-        <v>43033</v>
-      </c>
-      <c r="G22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="24" spans="1:6">
+      <c r="A24">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+      <c r="F24">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="F25">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>128</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="F26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="F27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>132</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="F28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="F29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>136</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="F30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="F31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="F32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="F33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>144</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="F34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+      <c r="F35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+      <c r="F36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+      <c r="F37">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>152</v>
       </c>
-      <c r="C39" t="s">
-        <v>153</v>
+      <c r="F39">
+        <v>2019</v>
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="21"/>
+      <c r="F53" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3465,10 +3579,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3482,33 +3596,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
-      </c>
-      <c r="H1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="26">
         <v>42241</v>
       </c>
       <c r="C2" s="10">
@@ -3516,10 +3630,10 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="21">
+      <c r="B3" s="25">
         <v>42956</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="24"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -3528,10 +3642,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="21">
+      <c r="B4" s="25">
         <v>42998</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="24"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -3539,28 +3653,28 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="21">
+      <c r="B5" s="25">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="24">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="21">
+      <c r="B6" s="25">
         <v>43032</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="24"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -3568,14 +3682,14 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="26">
         <v>42965</v>
       </c>
       <c r="C7" s="10">
@@ -3586,7 +3700,7 @@
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="26">
         <v>42965</v>
       </c>
       <c r="C8" s="10">
@@ -3597,7 +3711,7 @@
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="26">
         <v>42980</v>
       </c>
       <c r="C9" s="10">
@@ -3608,7 +3722,7 @@
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="26">
         <v>42982</v>
       </c>
       <c r="C10" s="10">
@@ -3619,7 +3733,7 @@
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="26">
         <v>42996</v>
       </c>
       <c r="C11" s="10">
@@ -3630,7 +3744,7 @@
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="26">
         <v>42999</v>
       </c>
       <c r="C12" s="10">
@@ -3641,7 +3755,7 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="26">
         <v>43000</v>
       </c>
       <c r="C13" s="10">
@@ -3652,7 +3766,7 @@
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="26">
         <v>43014</v>
       </c>
       <c r="C14" s="10">
@@ -3663,7 +3777,7 @@
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="26">
         <v>43024</v>
       </c>
       <c r="C15" s="10">
@@ -3674,7 +3788,7 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="26">
         <v>43026</v>
       </c>
       <c r="C16" s="10">
@@ -3685,11 +3799,30 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="26">
         <v>43029</v>
       </c>
       <c r="C17" s="10">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26">
+        <v>43035</v>
+      </c>
+      <c r="C18" s="27">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="27">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3701,305 +3834,391 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="75" width="4.625" customWidth="1"/>
+    <col min="2" max="4" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="20" customWidth="1"/>
+    <col min="6" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" style="20" customWidth="1"/>
+    <col min="10" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="20" customWidth="1"/>
+    <col min="14" max="16" width="4.625" customWidth="1"/>
+    <col min="17" max="17" width="4.625" style="20" customWidth="1"/>
+    <col min="18" max="20" width="4.625" customWidth="1"/>
+    <col min="21" max="21" width="4.625" style="20" customWidth="1"/>
+    <col min="22" max="24" width="4.625" customWidth="1"/>
+    <col min="25" max="25" width="4.625" style="20" customWidth="1"/>
+    <col min="26" max="75" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
-      <c r="B1" s="18">
+    <row r="1" spans="2:25">
+      <c r="B1" s="21">
+        <v>42917</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="21">
         <v>42948</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21">
         <v>42979</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="18">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21">
         <v>43009</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="18">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="21">
         <v>43040</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="18">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="21">
         <v>43070</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="2:21">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="23"/>
+    </row>
+    <row r="2" spans="2:25">
       <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
       <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" t="s">
         <v>164</v>
       </c>
-      <c r="G2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I2" t="s">
-        <v>166</v>
-      </c>
       <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
         <v>164</v>
       </c>
-      <c r="K2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="M2" t="s">
-        <v>166</v>
-      </c>
       <c r="N2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" t="s">
         <v>164</v>
       </c>
-      <c r="O2" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" t="s">
-        <v>166</v>
-      </c>
       <c r="R2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
         <v>164</v>
       </c>
-      <c r="S2" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="U2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="V2" t="s">
+        <v>163</v>
+      </c>
+      <c r="W2" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.96</v>
-      </c>
-      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" s="20">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0.56</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="20">
         <v>18</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0.56</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.84</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.14</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0.11</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="I7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>23</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0.56</v>
-      </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0.25</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" s="20">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>41</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="L11">
         <v>24</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="M11" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.84</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+      <c r="M13" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.14</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15" s="24">
+        <v>0.56</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="20">
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="21">
+        <v>43282</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21">
+        <v>43313</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21">
+        <v>43344</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="21">
+        <v>43374</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="21">
+        <v>43405</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="21">
+        <v>43435</v>
+      </c>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:Y16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4025,109 +4244,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
         <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
         <v>177</v>
-      </c>
-      <c r="B7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
         <v>180</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>181</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>182</v>
-      </c>
-      <c r="E9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
         <v>184</v>
-      </c>
-      <c r="C10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
         <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
         <v>189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
         <v>191</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4361,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4161,22 +4380,22 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4184,37 +4403,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="9">
+        <v>199</v>
+      </c>
+      <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4222,37 +4441,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="9">
+        <v>203</v>
+      </c>
+      <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4260,72 +4479,75 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" s="9">
+        <v>207</v>
+      </c>
+      <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>212</v>
+      <c r="K5" s="18">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4333,34 +4555,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4368,25 +4590,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>114</v>
@@ -4394,8 +4616,8 @@
       <c r="J7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>212</v>
+      <c r="K7" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4415,7 +4637,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4427,10 +4649,10 @@
         <v>118</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>212</v>
+        <v>119</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4438,93 +4660,95 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
         <v>127</v>
       </c>
+      <c r="K11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4537,8 +4761,8 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4548,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="6:6">
@@ -4939,7 +5163,7 @@
         <v>-10</v>
       </c>
       <c r="F17" s="2">
-        <f>C17+D17+E17+F16</f>
+        <f t="shared" si="1"/>
         <v>328</v>
       </c>
       <c r="G17" s="2"/>
@@ -4976,7 +5200,6 @@
       <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="J18"/>
       <c r="P18" t="s">
         <v>36</v>
       </c>
@@ -5158,7 +5381,6 @@
       <c r="I25" t="s">
         <v>43</v>
       </c>
-      <c r="J25"/>
       <c r="P25" t="s">
         <v>43</v>
       </c>
@@ -5182,7 +5404,6 @@
       <c r="I26" t="s">
         <v>44</v>
       </c>
-      <c r="J26"/>
       <c r="P26" t="s">
         <v>44</v>
       </c>
@@ -5254,8 +5475,6 @@
       <c r="I29" t="s">
         <v>47</v>
       </c>
-      <c r="J29"/>
-      <c r="K29"/>
       <c r="O29" s="12"/>
       <c r="P29" t="s">
         <v>47</v>
@@ -5280,8 +5499,6 @@
       <c r="I30" t="s">
         <v>48</v>
       </c>
-      <c r="J30"/>
-      <c r="K30"/>
       <c r="O30" s="12"/>
       <c r="P30" t="s">
         <v>48</v>
@@ -5306,8 +5523,6 @@
       <c r="I31" t="s">
         <v>49</v>
       </c>
-      <c r="J31"/>
-      <c r="K31"/>
       <c r="P31" t="s">
         <v>49</v>
       </c>
@@ -5331,8 +5546,6 @@
       <c r="I32" t="s">
         <v>50</v>
       </c>
-      <c r="J32"/>
-      <c r="K32"/>
       <c r="P32" t="s">
         <v>50</v>
       </c>
@@ -5351,8 +5564,6 @@
       <c r="I33" t="s">
         <v>9</v>
       </c>
-      <c r="J33"/>
-      <c r="K33"/>
       <c r="P33" t="s">
         <v>9</v>
       </c>
@@ -5367,7 +5578,6 @@
       <c r="C34" s="1">
         <v>40</v>
       </c>
-      <c r="D34" s="1"/>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
         <v>338</v>
@@ -5529,7 +5739,7 @@
       <c r="I41" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="14"/>
+      <c r="J41" s="13"/>
       <c r="O41" s="5"/>
       <c r="P41" t="s">
         <v>26</v>
@@ -5549,7 +5759,7 @@
       <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="15"/>
+      <c r="J42" s="14"/>
       <c r="P42" t="s">
         <v>28</v>
       </c>
@@ -5561,8 +5771,6 @@
       <c r="B43" s="1">
         <v>11</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
       <c r="F43" s="1">
         <f t="shared" ref="F43:F74" si="2">C43+D43+E43+F42</f>
         <v>253</v>
@@ -5589,7 +5797,7 @@
       <c r="I44" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="14"/>
+      <c r="J44" s="13"/>
       <c r="P44" t="s">
         <v>30</v>
       </c>
@@ -5611,7 +5819,7 @@
       <c r="I45" t="s">
         <v>31</v>
       </c>
-      <c r="J45" s="14"/>
+      <c r="J45" s="13"/>
       <c r="O45" t="s">
         <v>32</v>
       </c>
@@ -5626,8 +5834,6 @@
       <c r="B46" s="1">
         <v>14</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
       <c r="E46" s="1">
         <v>-10</v>
       </c>
@@ -5653,9 +5859,6 @@
       <c r="B47" s="1">
         <v>15</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
         <v>228</v>
@@ -5685,7 +5888,6 @@
       <c r="I48" t="s">
         <v>36</v>
       </c>
-      <c r="J48"/>
       <c r="P48" t="s">
         <v>36</v>
       </c>
@@ -5700,7 +5902,6 @@
       <c r="C49" s="1">
         <v>41</v>
       </c>
-      <c r="D49" s="1"/>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
         <v>269</v>
@@ -5752,8 +5953,6 @@
       <c r="B51" s="1">
         <v>19</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
       <c r="F51" s="1">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -5794,9 +5993,6 @@
       <c r="B53" s="1">
         <v>21</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -5818,8 +6014,6 @@
       <c r="B54" s="1">
         <v>22</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
         <v>313</v>
@@ -5846,7 +6040,6 @@
       <c r="I55" t="s">
         <v>43</v>
       </c>
-      <c r="J55"/>
       <c r="P55" t="s">
         <v>43</v>
       </c>
@@ -5858,8 +6051,6 @@
       <c r="B56" s="1">
         <v>24</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
       <c r="E56" s="1">
         <v>-50</v>
       </c>
@@ -5870,7 +6061,6 @@
       <c r="I56" t="s">
         <v>44</v>
       </c>
-      <c r="J56"/>
       <c r="O56" t="s">
         <v>17</v>
       </c>
@@ -5888,7 +6078,6 @@
       <c r="C57" s="1">
         <v>15</v>
       </c>
-      <c r="D57" s="1"/>
       <c r="E57" s="1">
         <v>-30</v>
       </c>
@@ -5919,7 +6108,6 @@
       <c r="C58" s="1">
         <v>10</v>
       </c>
-      <c r="D58" s="1"/>
       <c r="E58" s="1">
         <v>-20</v>
       </c>
@@ -5954,8 +6142,6 @@
       <c r="I59" t="s">
         <v>47</v>
       </c>
-      <c r="J59"/>
-      <c r="K59"/>
       <c r="O59" s="12"/>
       <c r="P59" t="s">
         <v>47</v>
@@ -5975,8 +6161,6 @@
       <c r="I60" t="s">
         <v>48</v>
       </c>
-      <c r="J60"/>
-      <c r="K60"/>
       <c r="O60" s="12"/>
       <c r="P60" t="s">
         <v>48</v>
@@ -5996,8 +6180,6 @@
       <c r="I61" t="s">
         <v>49</v>
       </c>
-      <c r="J61"/>
-      <c r="K61"/>
       <c r="P61" t="s">
         <v>49</v>
       </c>
@@ -6016,8 +6198,6 @@
       <c r="I62" t="s">
         <v>50</v>
       </c>
-      <c r="J62"/>
-      <c r="K62"/>
       <c r="P62" t="s">
         <v>50</v>
       </c>
@@ -6041,8 +6221,6 @@
       <c r="I63" t="s">
         <v>9</v>
       </c>
-      <c r="J63"/>
-      <c r="K63"/>
       <c r="P63" t="s">
         <v>9</v>
       </c>
@@ -6444,7 +6622,6 @@
       <c r="I78" t="s">
         <v>36</v>
       </c>
-      <c r="J78"/>
       <c r="P78" t="s">
         <v>36</v>
       </c>
@@ -6626,7 +6803,6 @@
       <c r="I85" t="s">
         <v>43</v>
       </c>
-      <c r="J85"/>
       <c r="P85" t="s">
         <v>43</v>
       </c>
@@ -6650,7 +6826,6 @@
       <c r="I86" t="s">
         <v>44</v>
       </c>
-      <c r="J86"/>
       <c r="P86" t="s">
         <v>44</v>
       </c>
@@ -6722,8 +6897,6 @@
       <c r="I89" t="s">
         <v>47</v>
       </c>
-      <c r="J89"/>
-      <c r="K89"/>
       <c r="O89" s="12"/>
       <c r="P89" t="s">
         <v>47</v>
@@ -6748,8 +6921,6 @@
       <c r="I90" t="s">
         <v>48</v>
       </c>
-      <c r="J90"/>
-      <c r="K90"/>
       <c r="O90" s="12"/>
       <c r="P90" t="s">
         <v>48</v>
@@ -6774,8 +6945,6 @@
       <c r="I91" t="s">
         <v>49</v>
       </c>
-      <c r="J91"/>
-      <c r="K91"/>
       <c r="P91" t="s">
         <v>49</v>
       </c>
@@ -6799,8 +6968,6 @@
       <c r="I92" t="s">
         <v>50</v>
       </c>
-      <c r="J92"/>
-      <c r="K92"/>
       <c r="P92" t="s">
         <v>50</v>
       </c>
@@ -6819,8 +6986,6 @@
       <c r="I93" t="s">
         <v>9</v>
       </c>
-      <c r="J93"/>
-      <c r="K93"/>
       <c r="P93" t="s">
         <v>9</v>
       </c>
@@ -6835,7 +7000,6 @@
       <c r="C94" s="1">
         <v>40</v>
       </c>
-      <c r="D94" s="1"/>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -6875,8 +7039,6 @@
       <c r="B96" s="1">
         <v>4</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -6896,8 +7058,6 @@
       <c r="B97" s="1">
         <v>5</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
         <v>338</v>
@@ -6918,7 +7078,6 @@
       <c r="B98" s="1">
         <v>6</v>
       </c>
-      <c r="C98" s="1"/>
       <c r="D98" s="1">
         <v>-41</v>
       </c>
@@ -6950,8 +7109,6 @@
       <c r="B99" s="1">
         <v>7</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
         <v>262</v>
@@ -6972,8 +7129,6 @@
       <c r="B100" s="1">
         <v>8</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
       <c r="E100" s="1">
         <v>-9</v>
       </c>
@@ -6999,8 +7154,6 @@
       <c r="B101" s="1">
         <v>9</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7008,7 +7161,7 @@
       <c r="I101" t="s">
         <v>26</v>
       </c>
-      <c r="J101" s="14"/>
+      <c r="J101" s="13"/>
       <c r="O101" s="5"/>
       <c r="P101" t="s">
         <v>26</v>
@@ -7028,7 +7181,7 @@
       <c r="I102" t="s">
         <v>28</v>
       </c>
-      <c r="J102" s="15"/>
+      <c r="J102" s="14"/>
       <c r="P102" t="s">
         <v>28</v>
       </c>
@@ -7040,8 +7193,6 @@
       <c r="B103" s="1">
         <v>11</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7068,7 +7219,7 @@
       <c r="I104" t="s">
         <v>30</v>
       </c>
-      <c r="J104" s="14"/>
+      <c r="J104" s="13"/>
       <c r="P104" t="s">
         <v>30</v>
       </c>
@@ -7090,7 +7241,7 @@
       <c r="I105" t="s">
         <v>31</v>
       </c>
-      <c r="J105" s="14"/>
+      <c r="J105" s="13"/>
       <c r="O105" t="s">
         <v>32</v>
       </c>
@@ -7105,8 +7256,6 @@
       <c r="B106" s="1">
         <v>14</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
       <c r="E106" s="1">
         <v>-10</v>
       </c>
@@ -7132,9 +7281,6 @@
       <c r="B107" s="1">
         <v>15</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
       <c r="F107" s="1">
         <f t="shared" ref="F107:F138" si="4">C107+D107+E107+F106</f>
         <v>228</v>
@@ -7161,7 +7307,6 @@
       <c r="I108" t="s">
         <v>36</v>
       </c>
-      <c r="J108"/>
       <c r="P108" t="s">
         <v>36</v>
       </c>
@@ -7176,7 +7321,6 @@
       <c r="C109" s="1">
         <v>41</v>
       </c>
-      <c r="D109" s="1"/>
       <c r="F109" s="1">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7228,8 +7372,6 @@
       <c r="B111" s="1">
         <v>19</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
       <c r="F111" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -7270,9 +7412,6 @@
       <c r="B113" s="1">
         <v>21</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
       <c r="F113" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -7294,8 +7433,6 @@
       <c r="B114" s="1">
         <v>22</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
       <c r="F114" s="1">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -7322,7 +7459,6 @@
       <c r="I115" t="s">
         <v>43</v>
       </c>
-      <c r="J115"/>
       <c r="P115" t="s">
         <v>43</v>
       </c>
@@ -7334,8 +7470,6 @@
       <c r="B116" s="1">
         <v>24</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
       <c r="E116" s="1">
         <v>-50</v>
       </c>
@@ -7346,7 +7480,6 @@
       <c r="I116" t="s">
         <v>44</v>
       </c>
-      <c r="J116"/>
       <c r="O116" t="s">
         <v>17</v>
       </c>
@@ -7364,7 +7497,6 @@
       <c r="C117" s="1">
         <v>15</v>
       </c>
-      <c r="D117" s="1"/>
       <c r="E117" s="1">
         <v>-30</v>
       </c>
@@ -7395,7 +7527,6 @@
       <c r="C118" s="1">
         <v>10</v>
       </c>
-      <c r="D118" s="1"/>
       <c r="E118" s="1">
         <v>-20</v>
       </c>
@@ -7430,8 +7561,6 @@
       <c r="I119" t="s">
         <v>47</v>
       </c>
-      <c r="J119"/>
-      <c r="K119"/>
       <c r="O119" s="12"/>
       <c r="P119" t="s">
         <v>47</v>
@@ -7451,8 +7580,6 @@
       <c r="I120" t="s">
         <v>48</v>
       </c>
-      <c r="J120"/>
-      <c r="K120"/>
       <c r="O120" s="12"/>
       <c r="P120" t="s">
         <v>48</v>
@@ -7472,8 +7599,6 @@
       <c r="I121" t="s">
         <v>49</v>
       </c>
-      <c r="J121"/>
-      <c r="K121"/>
       <c r="P121" t="s">
         <v>49</v>
       </c>
@@ -7492,369 +7617,341 @@
       <c r="I122" t="s">
         <v>50</v>
       </c>
-      <c r="J122"/>
-      <c r="K122"/>
       <c r="P122" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
       <c r="J124" s="16"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
       <c r="J127" s="4"/>
       <c r="O127" s="5"/>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
       <c r="J128" s="4"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
       <c r="J129" s="4"/>
       <c r="O129" s="7"/>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
       <c r="J130" s="4"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
       <c r="J131" s="4"/>
       <c r="O131" s="5"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
       <c r="J133" s="4"/>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
       <c r="J134" s="4"/>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
       <c r="J135" s="4"/>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
       <c r="J136" s="16"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
       <c r="J137" s="4"/>
       <c r="O137" s="7"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
       <c r="J139" s="4"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
       <c r="J142" s="9"/>
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
       <c r="J143" s="9"/>
       <c r="K143" s="9"/>
       <c r="O143" s="10"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
       <c r="J144" s="10"/>
       <c r="K144" s="9"/>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
       <c r="J147" s="4"/>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
       <c r="O149" s="12"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
       <c r="O150" s="12"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
     </row>
     <row r="154" spans="10:10">
       <c r="J154" s="16"/>
@@ -7933,304 +8030,304 @@
       <c r="O180" s="12"/>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="A183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="A185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="A186" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="A187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="A188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="A189" s="15"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="A191" s="15"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="A192" s="15"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="A193" s="15"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="A194" s="15"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="A195" s="15"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="A196" s="15"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="A198" s="15"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="A199" s="15"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="A200" s="15"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="A201" s="15"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="A202" s="15"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="A203" s="15"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="A204" s="15"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="A205" s="15"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="A207" s="15"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="A208" s="15"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
+      <c r="A210" s="15"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
+      <c r="A211" s="15"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
+      <c r="A212" s="15"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
   <si>
     <t>日期</t>
   </si>
@@ -175,16 +175,13 @@
     <t>30日</t>
   </si>
   <si>
-    <t>1.红色为贷款</t>
-  </si>
-  <si>
-    <t>2.加粗为不能修改账单日</t>
-  </si>
-  <si>
-    <t>3.下划线为起刷日和账单日不同</t>
-  </si>
-  <si>
-    <t>4.斜体为56天</t>
+    <t>1.加粗为不能修改账单日</t>
+  </si>
+  <si>
+    <t>2.下划线为起刷日和账单日不同</t>
+  </si>
+  <si>
+    <t>3.斜体为56天</t>
   </si>
   <si>
     <t>申卡顺序</t>
@@ -730,11 +727,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
@@ -811,113 +808,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,7 +823,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,6 +876,76 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,37 +972,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +1014,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,25 +1068,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,43 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,31 +1140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,76 +1190,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1284,6 +1216,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1298,145 +1295,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,13 +1513,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1531,7 +1525,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1542,6 +1536,9 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1882,10 +1879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1901,7 +1898,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1929,7 +1926,7 @@
       <c r="A2" s="36">
         <v>43026</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -2054,7 +2051,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="28"/>
+      <c r="D11" s="27"/>
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -2072,9 +2069,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" t="s">
         <v>26</v>
       </c>
@@ -2090,9 +2087,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" t="s">
         <v>28</v>
       </c>
@@ -2101,9 +2098,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -2115,9 +2112,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" t="s">
         <v>30</v>
       </c>
@@ -2127,9 +2124,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" t="s">
         <v>31</v>
       </c>
@@ -2145,9 +2142,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" t="s">
         <v>33</v>
       </c>
@@ -2165,9 +2162,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -2185,9 +2182,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" t="s">
         <v>36</v>
       </c>
@@ -2196,9 +2193,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" t="s">
         <v>37</v>
       </c>
@@ -2210,9 +2207,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" t="s">
         <v>38</v>
       </c>
@@ -2227,9 +2224,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" t="s">
         <v>39</v>
       </c>
@@ -2240,9 +2237,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" t="s">
         <v>40</v>
       </c>
@@ -2253,9 +2250,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
@@ -2272,9 +2269,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" t="s">
         <v>42</v>
       </c>
@@ -2287,9 +2284,9 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" t="s">
         <v>43</v>
       </c>
@@ -2298,9 +2295,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" t="s">
         <v>44</v>
       </c>
@@ -2315,9 +2312,9 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" t="s">
         <v>45</v>
       </c>
@@ -2335,9 +2332,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" t="s">
         <v>46</v>
       </c>
@@ -2355,9 +2352,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" t="s">
         <v>47</v>
       </c>
@@ -2369,9 +2366,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" t="s">
         <v>48</v>
       </c>
@@ -2383,9 +2380,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" t="s">
         <v>49</v>
       </c>
@@ -2394,9 +2391,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" t="s">
         <v>50</v>
       </c>
@@ -2405,58 +2402,50 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2476,7 +2465,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2504,40 +2493,40 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
       </c>
       <c r="O1"/>
     </row>
@@ -2549,27 +2538,27 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="25">
         <v>42227</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>70</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>71</v>
       </c>
       <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2587,27 +2576,27 @@
     <row r="3" spans="2:13">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="25">
         <v>42948</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>74</v>
+      <c r="G3" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -2623,27 +2612,27 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F4" s="25">
         <v>42951</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>73</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f t="shared" ref="J4:J21" si="0">DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -2656,7 +2645,7 @@
       <c r="M4">
         <v>9862</v>
       </c>
-      <c r="T4" s="28"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
@@ -2666,27 +2655,27 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="25">
         <v>42951</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>77</v>
+      <c r="G5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="I5" s="25">
         <v>42965</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2708,27 +2697,27 @@
         <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F6" s="25">
         <v>42957</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>80</v>
+      <c r="G6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="25">
         <v>42982</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2741,7 +2730,7 @@
       <c r="M6">
         <v>4774</v>
       </c>
-      <c r="T6" s="28"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
@@ -2751,27 +2740,27 @@
         <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="25">
         <v>42965</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>82</v>
+      <c r="G7" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="I7" s="25">
         <v>42980</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2784,7 +2773,7 @@
       <c r="M7">
         <v>4481</v>
       </c>
-      <c r="T7" s="28"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
@@ -2794,27 +2783,27 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="25">
         <v>42984</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="25">
         <v>42996</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2827,36 +2816,36 @@
       <c r="M8">
         <v>3523</v>
       </c>
-      <c r="T8" s="28"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="J9" s="32"/>
       <c r="M9">
         <v>3527</v>
       </c>
-      <c r="T9" s="28"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -2866,27 +2855,27 @@
         <v>22</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="25">
         <v>42984</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>89</v>
+      <c r="G10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="I10" s="25">
         <v>42999</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2899,7 +2888,7 @@
       <c r="M10">
         <v>6804</v>
       </c>
-      <c r="T10" s="28"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
@@ -2909,27 +2898,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="25">
         <v>42986</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>91</v>
+      <c r="G11" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="I11" s="25">
         <v>43014</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -2942,7 +2931,7 @@
       <c r="M11">
         <v>1259</v>
       </c>
-      <c r="T11" s="28"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -2952,27 +2941,27 @@
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="25">
         <v>42990</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>93</v>
+      <c r="G12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="I12" s="25">
         <v>43000</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2985,7 +2974,7 @@
       <c r="M12">
         <v>3190</v>
       </c>
-      <c r="T12" s="28"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
@@ -2995,27 +2984,27 @@
         <v>18</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="25">
         <v>43000</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>95</v>
+      <c r="G13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="I13" s="25">
         <v>43035</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3037,27 +3026,27 @@
         <v>27</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="25">
         <v>43003</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>98</v>
       </c>
       <c r="I14" s="25">
         <v>43024</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3076,56 +3065,56 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="25">
         <v>43005</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="33"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="25">
         <v>43017</v>
       </c>
       <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
         <v>105</v>
       </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
       <c r="I16" s="25"/>
-      <c r="J16" s="33"/>
+      <c r="J16" s="32"/>
       <c r="K16" s="10">
         <v>70</v>
       </c>
@@ -3138,25 +3127,25 @@
     </row>
     <row r="17" spans="3:10">
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="33"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
@@ -3166,27 +3155,27 @@
         <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="25">
         <v>43018</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" s="25">
         <v>43029</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <f>DATEDIF(F18,I18,"d")</f>
         <v>11</v>
       </c>
@@ -3202,27 +3191,27 @@
     </row>
     <row r="19" spans="3:13">
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="J19" s="32"/>
       <c r="M19">
         <v>7563</v>
       </c>
@@ -3235,27 +3224,27 @@
         <v>21</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="25">
         <v>43018</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I20" s="25">
         <v>43026</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="32">
         <f>DATEDIF(F20,I20,"d")</f>
         <v>8</v>
       </c>
@@ -3265,8 +3254,8 @@
       <c r="L20">
         <v>30</v>
       </c>
-      <c r="M20" t="s">
-        <v>113</v>
+      <c r="M20" s="33" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3274,27 +3263,27 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="29">
+        <v>43031</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="30">
-        <v>43031</v>
-      </c>
-      <c r="G21" s="31" t="s">
+      <c r="H21" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="30">
+      <c r="I21" s="29">
         <v>43039</v>
       </c>
       <c r="J21" s="34">
@@ -3307,27 +3296,27 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="29">
+        <v>43033</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="30">
-        <v>43033</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <v>43037</v>
       </c>
       <c r="J22" s="34">
@@ -3340,19 +3329,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
         <v>121</v>
-      </c>
-      <c r="C23" t="s">
-        <v>122</v>
       </c>
       <c r="F23" s="25">
         <v>43033</v>
       </c>
       <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
         <v>123</v>
-      </c>
-      <c r="H23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3360,10 +3349,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
         <v>125</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
       </c>
       <c r="F24">
         <v>2017</v>
@@ -3374,7 +3363,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F25">
         <v>2017</v>
@@ -3385,10 +3374,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>128</v>
-      </c>
-      <c r="C26" t="s">
-        <v>129</v>
       </c>
       <c r="F26">
         <v>2018</v>
@@ -3399,10 +3388,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
       </c>
       <c r="F27">
         <v>2018</v>
@@ -3413,10 +3402,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
         <v>132</v>
-      </c>
-      <c r="C28" t="s">
-        <v>133</v>
       </c>
       <c r="F28">
         <v>2018</v>
@@ -3427,10 +3416,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
         <v>134</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
       </c>
       <c r="F29">
         <v>2018</v>
@@ -3441,10 +3430,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>137</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -3455,10 +3444,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" t="s">
         <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -3469,10 +3458,10 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
         <v>140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>141</v>
       </c>
       <c r="F32">
         <v>2018</v>
@@ -3483,10 +3472,10 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>143</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3497,10 +3486,10 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
         <v>144</v>
-      </c>
-      <c r="C34" t="s">
-        <v>145</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -3511,7 +3500,7 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3522,7 +3511,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36">
         <v>2019</v>
@@ -3533,7 +3522,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37">
         <v>2019</v>
@@ -3544,10 +3533,10 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -3558,10 +3547,10 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
         <v>151</v>
-      </c>
-      <c r="C39" t="s">
-        <v>152</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -3581,7 +3570,7 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3597,25 +3586,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>155</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3653,7 +3642,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3667,7 +3656,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3682,7 +3671,7 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3813,15 +3802,15 @@
       <c r="B18" s="26">
         <v>43035</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="27">
+        <v>102</v>
+      </c>
+      <c r="C19" s="10">
         <v>70</v>
       </c>
     </row>
@@ -3837,7 +3826,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3897,76 +3886,76 @@
     </row>
     <row r="2" spans="2:25">
       <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="G2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
         <v>163</v>
       </c>
-      <c r="K2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="N2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" t="s">
         <v>163</v>
       </c>
-      <c r="O2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="R2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" t="s">
         <v>163</v>
       </c>
-      <c r="S2" t="s">
-        <v>154</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="U2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="V2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" t="s">
         <v>163</v>
       </c>
-      <c r="W2" t="s">
-        <v>154</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4069,7 +4058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -4097,8 +4086,20 @@
       <c r="M11" s="20">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
@@ -4114,8 +4115,20 @@
       <c r="M12" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>28</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -4131,8 +4144,20 @@
       <c r="M13" s="20">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>18</v>
+      </c>
+      <c r="O13" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -4147,6 +4172,18 @@
       </c>
       <c r="M14" s="20">
         <v>4</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4244,109 +4281,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
         <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
         <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
         <v>176</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
         <v>179</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>180</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
         <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" t="s">
         <v>186</v>
-      </c>
-      <c r="C12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" t="s">
         <v>188</v>
-      </c>
-      <c r="C13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
         <v>190</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>191</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4380,22 +4417,22 @@
   <sheetData>
     <row r="1" spans="3:11">
       <c r="C1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4403,37 +4440,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4441,37 +4478,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4479,37 +4516,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4517,37 +4554,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="K5" s="18">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4555,34 +4592,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="18" t="s">
         <v>214</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4590,34 +4627,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4625,34 +4662,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I8" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="K8" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4660,34 +4697,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="K9" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4695,28 +4732,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -4725,28 +4762,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -4761,8 +4798,8 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4772,7 +4809,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="19095" windowHeight="12630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -727,11 +727,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
@@ -807,23 +807,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,8 +829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,9 +844,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,31 +861,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,30 +883,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -945,7 +922,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +990,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,13 +1014,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +1080,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,43 +1104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,37 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,19 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,9 +1192,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,17 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1236,6 +1227,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,15 +1273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1278,166 +1287,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,10 +1513,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1525,7 +1525,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1536,9 +1536,6 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1882,7 +1879,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1907,7 +1904,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1918,12 +1915,12 @@
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="36">
+      <c r="A2" s="35">
         <v>43026</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -1942,12 +1939,12 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -1955,9 +1952,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2465,7 +2462,7 @@
   <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3254,7 +3251,7 @@
       <c r="L20">
         <v>30</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="19" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3286,7 +3283,7 @@
       <c r="I21" s="29">
         <v>43039</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="33">
         <f>DATEDIF(F21,I21,"d")</f>
         <v>8</v>
       </c>
@@ -3319,7 +3316,7 @@
       <c r="I22" s="29">
         <v>43037</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="33">
         <f>DATEDIF(F22,I22,"d")</f>
         <v>4</v>
       </c>
@@ -3571,7 +3568,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3825,8 +3822,8 @@
   <sheetPr/>
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3958,7 +3955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:21">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -3975,16 +3972,28 @@
         <v>7</v>
       </c>
       <c r="N3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O3" s="24">
         <v>0.56</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="20">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3" s="20">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4268,7 +4277,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4798,7 +4807,7 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12630" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
   <si>
     <t>日期</t>
   </si>
@@ -247,12 +247,27 @@
     <t>聪明卡/金卡</t>
   </si>
   <si>
+    <t>DIY/金卡</t>
+  </si>
+  <si>
+    <t>APP申请</t>
+  </si>
+  <si>
     <t>长城环球通爱驾汽车卡</t>
   </si>
   <si>
     <t>无（房贷，不需要面签）</t>
   </si>
   <si>
+    <t>全币种国际芯片卡（VISA）</t>
+  </si>
+  <si>
+    <t>邀请/成功</t>
+  </si>
+  <si>
+    <t>电话邀请</t>
+  </si>
+  <si>
     <t>标准VISA金卡</t>
   </si>
   <si>
@@ -268,6 +283,15 @@
     <t>无（柜员提供的二维码，5分钟出额度）</t>
   </si>
   <si>
+    <t>标准白金卡</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>OO51</t>
+  </si>
+  <si>
     <t>龙卡全球支付白金卡</t>
   </si>
   <si>
@@ -280,9 +304,6 @@
     <t>龙卡全球热购卡（Master）</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>金穗QQ联名IC卡/金卡</t>
   </si>
   <si>
@@ -307,7 +328,19 @@
     <t>双证+收入证明（巨慢）</t>
   </si>
   <si>
-    <t>精致白金卡降级标准普卡</t>
+    <r>
+      <t>精致白金卡降级</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准普卡</t>
+    </r>
   </si>
   <si>
     <t>网点/降级</t>
@@ -322,9 +355,6 @@
     <t>保险金卡</t>
   </si>
   <si>
-    <t>网申</t>
-  </si>
-  <si>
     <t>无（行驶证，大堂经理手机操作）（5个问题）</t>
   </si>
   <si>
@@ -334,9 +364,6 @@
     <t>鼎雅白金卡-银联</t>
   </si>
   <si>
-    <t>上门</t>
-  </si>
-  <si>
     <t>双证+公积金+工牌</t>
   </si>
   <si>
@@ -403,54 +430,57 @@
     <t>工商银行</t>
   </si>
   <si>
+    <t>江苏银行</t>
+  </si>
+  <si>
+    <t>聚宝金卡</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>恒星卡/白金卡</t>
+  </si>
+  <si>
+    <t>南阳商业</t>
+  </si>
+  <si>
+    <t>东亚银行</t>
+  </si>
+  <si>
+    <t>携程白金卡</t>
+  </si>
+  <si>
+    <t>温州银行</t>
+  </si>
+  <si>
+    <t>银泰联名卡</t>
+  </si>
+  <si>
+    <t>台州银行</t>
+  </si>
+  <si>
+    <t>大唐（白）金卡</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>汇通金卡</t>
+  </si>
+  <si>
+    <t>渤海银行</t>
+  </si>
+  <si>
+    <t>（白）金卡</t>
+  </si>
+  <si>
     <t>南京银行</t>
   </si>
   <si>
     <t>银联（白）金卡</t>
   </si>
   <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>聚宝金卡</t>
-  </si>
-  <si>
-    <t>温州银行</t>
-  </si>
-  <si>
-    <t>银泰联名卡</t>
-  </si>
-  <si>
-    <t>台州银行</t>
-  </si>
-  <si>
-    <t>大唐（白）金卡</t>
-  </si>
-  <si>
-    <t>宁波银行</t>
-  </si>
-  <si>
-    <t>汇通金卡</t>
-  </si>
-  <si>
-    <t>渤海银行</t>
-  </si>
-  <si>
-    <t>（白）金卡</t>
-  </si>
-  <si>
-    <t>恒丰银行</t>
-  </si>
-  <si>
-    <t>恒星卡/白金卡</t>
-  </si>
-  <si>
-    <t>东亚银行</t>
-  </si>
-  <si>
-    <t>携程白金卡</t>
-  </si>
-  <si>
     <t>杭联银行</t>
   </si>
   <si>
@@ -619,10 +649,13 @@
     <t>小白</t>
   </si>
   <si>
+    <t>JSB</t>
+  </si>
+  <si>
     <t>CGB</t>
   </si>
   <si>
-    <t>聪明金</t>
+    <t>DIY金</t>
   </si>
   <si>
     <t>CZB</t>
@@ -631,6 +664,9 @@
     <t>标准金</t>
   </si>
   <si>
+    <t>EGK</t>
+  </si>
+  <si>
     <t>BOC</t>
   </si>
   <si>
@@ -643,6 +679,9 @@
     <t>行悠白</t>
   </si>
   <si>
+    <t>NCB</t>
+  </si>
+  <si>
     <t>BOCOM</t>
   </si>
   <si>
@@ -652,6 +691,9 @@
     <t>鼎雅白</t>
   </si>
   <si>
+    <t>HKBEA</t>
+  </si>
+  <si>
     <t>CMBC</t>
   </si>
   <si>
@@ -664,40 +706,55 @@
     <t>保险金</t>
   </si>
   <si>
+    <t>WZCB</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>全球支付白</t>
+  </si>
+  <si>
+    <t>CITI</t>
+  </si>
+  <si>
+    <t>拒</t>
+  </si>
+  <si>
+    <t>1次</t>
+  </si>
+  <si>
+    <t>TZB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>QQ金</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>NBCB</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>龙腾白</t>
+  </si>
+  <si>
+    <t>BOHZ</t>
+  </si>
+  <si>
+    <t>不让选</t>
+  </si>
+  <si>
     <t>ing</t>
   </si>
   <si>
-    <t>CCB</t>
-  </si>
-  <si>
-    <t>全球支付白</t>
-  </si>
-  <si>
-    <t>CITI</t>
-  </si>
-  <si>
-    <t>拒</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>QQ金</t>
-  </si>
-  <si>
-    <t>HSBC</t>
-  </si>
-  <si>
-    <t>CEB</t>
-  </si>
-  <si>
-    <t>龙腾白</t>
-  </si>
-  <si>
-    <t>BOHZ</t>
-  </si>
-  <si>
-    <t>不让选</t>
+    <t>CBHB</t>
   </si>
   <si>
     <t>ECITIC</t>
@@ -709,6 +766,9 @@
     <t>BOBJ</t>
   </si>
   <si>
+    <t>NJCB</t>
+  </si>
+  <si>
     <t>BOSH</t>
   </si>
   <si>
@@ -716,6 +776,15 @@
   </si>
   <si>
     <t>ICBC</t>
+  </si>
+  <si>
+    <t>URCB</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
   <si>
     <t>Capital</t>
@@ -726,12 +795,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="28">
@@ -807,109 +876,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,6 +906,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -945,7 +929,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +1041,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1155,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,163 +1215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,17 +1259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1212,6 +1270,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,48 +1304,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1287,157 +1318,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1513,22 +1582,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1895,7 +1967,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1904,7 +1976,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1915,15 +1987,15 @@
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="35">
+      <c r="A2" s="36">
         <v>43026</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1939,12 +2011,12 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -1952,9 +2024,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2048,7 +2120,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -2066,9 +2138,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" t="s">
         <v>26</v>
       </c>
@@ -2084,9 +2156,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" t="s">
         <v>28</v>
       </c>
@@ -2095,9 +2167,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" t="s">
         <v>29</v>
       </c>
@@ -2109,9 +2181,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" t="s">
         <v>30</v>
       </c>
@@ -2121,9 +2193,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" t="s">
         <v>31</v>
       </c>
@@ -2139,9 +2211,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" t="s">
         <v>33</v>
       </c>
@@ -2159,9 +2231,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" t="s">
         <v>34</v>
       </c>
@@ -2179,9 +2251,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" t="s">
         <v>36</v>
       </c>
@@ -2190,9 +2262,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" t="s">
         <v>37</v>
       </c>
@@ -2204,9 +2276,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" t="s">
         <v>38</v>
       </c>
@@ -2221,9 +2293,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" t="s">
         <v>39</v>
       </c>
@@ -2234,9 +2306,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" t="s">
         <v>40</v>
       </c>
@@ -2247,9 +2319,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" t="s">
         <v>41</v>
       </c>
@@ -2266,9 +2338,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" t="s">
         <v>42</v>
       </c>
@@ -2281,9 +2353,9 @@
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" t="s">
         <v>43</v>
       </c>
@@ -2292,9 +2364,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" t="s">
         <v>44</v>
       </c>
@@ -2309,9 +2381,9 @@
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" t="s">
         <v>45</v>
       </c>
@@ -2329,9 +2401,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" t="s">
         <v>46</v>
       </c>
@@ -2349,9 +2421,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" t="s">
         <v>47</v>
       </c>
@@ -2363,9 +2435,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" t="s">
         <v>48</v>
       </c>
@@ -2377,9 +2449,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" t="s">
         <v>49</v>
       </c>
@@ -2388,9 +2460,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" t="s">
         <v>50</v>
       </c>
@@ -2399,50 +2471,50 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27" t="s">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2459,10 +2531,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2478,7 +2550,7 @@
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="10" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="13" max="13" width="6" style="27" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="25" customWidth="1"/>
     <col min="16" max="16" width="6.625" customWidth="1"/>
@@ -2516,13 +2588,13 @@
       <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>63</v>
       </c>
       <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="27" t="s">
         <v>65</v>
       </c>
       <c r="O1"/>
@@ -2546,16 +2618,16 @@
       <c r="F2" s="25">
         <v>42227</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="33">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2565,7 +2637,7 @@
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="27">
         <v>7427</v>
       </c>
       <c r="O2"/>
@@ -2584,7 +2656,7 @@
       <c r="F3" s="25">
         <v>42948</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="28" t="s">
         <v>73</v>
       </c>
       <c r="H3" t="s">
@@ -2593,11 +2665,11 @@
       <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="33">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="27">
         <v>1425</v>
       </c>
     </row>
@@ -2620,17 +2692,17 @@
       <c r="F4" s="25">
         <v>42951</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="32">
-        <f t="shared" ref="J4:J21" si="0">DATEDIF(F4,I4,"d")</f>
+      <c r="J4" s="33">
+        <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
       <c r="K4" s="10">
@@ -2639,59 +2711,41 @@
       <c r="L4">
         <v>40</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="27">
         <v>9862</v>
       </c>
-      <c r="T4" s="27"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F5" s="25">
-        <v>42951</v>
-      </c>
-      <c r="G5" s="27" t="s">
+        <v>43041</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="25">
-        <v>42965</v>
-      </c>
-      <c r="J5" s="32">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="K5" s="10">
-        <v>9.7</v>
-      </c>
-      <c r="L5">
-        <v>9.7</v>
-      </c>
-      <c r="M5">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="I5" s="25"/>
+      <c r="J5" s="33"/>
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>77</v>
@@ -2700,689 +2754,722 @@
         <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="25">
+        <v>42951</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="25">
-        <v>42957</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="25">
+        <v>42965</v>
+      </c>
+      <c r="J6" s="33">
+        <f>DATEDIF(F6,I6,"d")</f>
+        <v>14</v>
+      </c>
+      <c r="K6" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="L6">
+        <v>9.7</v>
+      </c>
+      <c r="M6" s="27">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="25">
-        <v>42982</v>
-      </c>
-      <c r="J6" s="32">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="K6" s="10">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>4774</v>
-      </c>
-      <c r="T6" s="27"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F7" s="25">
+        <v>43035</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="25">
+        <v>42957</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="25">
+        <v>42982</v>
+      </c>
+      <c r="J8" s="33">
+        <f>DATEDIF(F8,I8,"d")</f>
+        <v>25</v>
+      </c>
+      <c r="K8" s="10">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" s="27">
+        <v>4774</v>
+      </c>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="25">
         <v>42965</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="25">
+      <c r="H9" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="25">
         <v>42980</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J9" s="33">
+        <f>DATEDIF(F9,I9,"d")</f>
+        <v>15</v>
+      </c>
+      <c r="K9" s="10">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9" s="27">
+        <v>4481</v>
+      </c>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="25">
+        <v>43038</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="33"/>
+      <c r="M10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="28"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="25">
+        <v>42984</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="25">
+        <v>42996</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" ref="J11:J24" si="0">DATEDIF(F11,I11,"d")</f>
+        <v>12</v>
+      </c>
+      <c r="K11" s="10">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11" s="27">
+        <v>3523</v>
+      </c>
+      <c r="T11" s="28"/>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="33"/>
+      <c r="M12" s="27">
+        <v>3527</v>
+      </c>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="25">
+        <v>42984</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="25">
+        <v>42999</v>
+      </c>
+      <c r="J13" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K7" s="10">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>4481</v>
-      </c>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="K13" s="10">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13" s="27">
+        <v>6804</v>
+      </c>
+      <c r="T13" s="28"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="25">
-        <v>42984</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="25">
-        <v>42996</v>
-      </c>
-      <c r="J8" s="32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K8" s="10">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>3523</v>
-      </c>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="32"/>
-      <c r="M9">
-        <v>3527</v>
-      </c>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="25">
-        <v>42984</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="25">
-        <v>42999</v>
-      </c>
-      <c r="J10" s="32">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K10" s="10">
-        <v>40</v>
-      </c>
-      <c r="L10">
-        <v>40</v>
-      </c>
-      <c r="M10">
-        <v>6804</v>
-      </c>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="25">
+      <c r="F14" s="25">
         <v>42986</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="G14" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="25">
         <v>43014</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J14" s="33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K14" s="10">
         <v>20</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <v>20</v>
       </c>
-      <c r="M11">
+      <c r="M14" s="27">
         <v>1259</v>
       </c>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F15" s="25">
         <v>42990</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="25">
+      <c r="H15" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="25">
         <v>43000</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J15" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K15" s="10">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="M12">
+      <c r="M15" s="27">
         <v>3190</v>
       </c>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="T15" s="28"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F16" s="25">
         <v>43000</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="G16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="25">
         <v>43035</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J16" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K16" s="10">
         <v>41</v>
       </c>
-      <c r="L13">
+      <c r="L16">
         <v>41</v>
       </c>
-      <c r="M13">
+      <c r="M16" s="27">
         <v>8109</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="E17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="25">
         <v>43003</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="G17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="25">
         <v>43024</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J17" s="33">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K17" s="10">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="M17" s="27">
         <v>7693</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="25">
-        <v>43005</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="25">
-        <v>43017</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="10">
-        <v>70</v>
-      </c>
-      <c r="L16">
-        <v>70</v>
-      </c>
-      <c r="M16">
-        <v>9390</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" t="s">
+      <c r="C18" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F18" s="25">
-        <v>43018</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
+        <v>43005</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="10">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="25">
-        <v>43029</v>
-      </c>
-      <c r="J18" s="32">
-        <f>DATEDIF(F18,I18,"d")</f>
-        <v>11</v>
-      </c>
-      <c r="K18" s="10">
-        <v>35</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
       <c r="C19" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="M19">
-        <v>7563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
+        <v>72</v>
+      </c>
+      <c r="F19" s="25">
+        <v>43017</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="10">
+        <v>70</v>
+      </c>
+      <c r="L19">
+        <v>70</v>
+      </c>
+      <c r="M19" s="27">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="25">
+      <c r="E21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="25">
         <v>43018</v>
       </c>
-      <c r="G20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="25">
-        <v>43026</v>
-      </c>
-      <c r="J20" s="32">
-        <f>DATEDIF(F20,I20,"d")</f>
-        <v>8</v>
-      </c>
-      <c r="K20" s="10">
-        <v>30</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="29">
-        <v>43031</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="29">
-        <v>43039</v>
+      <c r="I21" s="25">
+        <v>43029</v>
       </c>
       <c r="J21" s="33">
         <f>DATEDIF(F21,I21,"d")</f>
+        <v>11</v>
+      </c>
+      <c r="K21" s="10">
+        <v>35</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21" s="27">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="33"/>
+      <c r="M22" s="27">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="25">
+        <v>43018</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="25">
+        <v>43026</v>
+      </c>
+      <c r="J23" s="33">
+        <f>DATEDIF(F23,I23,"d")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
+      <c r="K23" s="10">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="30">
+        <v>43031</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="30">
+        <v>43039</v>
+      </c>
+      <c r="J24" s="34">
+        <f>DATEDIF(F24,I24,"d")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="29">
+      <c r="E25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="30">
         <v>43033</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="29">
+      <c r="G25" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="30">
         <v>43037</v>
       </c>
-      <c r="J22" s="33">
-        <f>DATEDIF(F22,I22,"d")</f>
+      <c r="J25" s="34">
+        <f>DATEDIF(F25,I25,"d")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+    <row r="26" spans="1:8">
+      <c r="A26">
         <v>18</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="25">
+      <c r="B26" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="25">
         <v>43033</v>
       </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
         <v>127</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>128</v>
-      </c>
-      <c r="F26">
-        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>129</v>
@@ -3391,32 +3478,29 @@
         <v>130</v>
       </c>
       <c r="F27">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C28" t="s">
-        <v>132</v>
-      </c>
       <c r="F28">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
         <v>133</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
       </c>
       <c r="F29">
         <v>2018</v>
@@ -3424,13 +3508,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" t="s">
         <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -3438,13 +3522,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -3452,13 +3533,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F32">
         <v>2018</v>
@@ -3466,13 +3547,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3480,13 +3561,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -3494,10 +3575,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3505,56 +3589,109 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
         <v>146</v>
       </c>
       <c r="F36">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>147</v>
       </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
       <c r="F37">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F38">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" t="s">
         <v>151</v>
       </c>
       <c r="F39">
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
-      <c r="F53" s="25"/>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3583,25 +3720,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="25" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3639,7 +3776,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3653,7 +3790,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3668,7 +3805,7 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3805,7 +3942,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C19" s="10">
         <v>70</v>
@@ -3822,7 +3959,7 @@
   <sheetPr/>
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
@@ -3883,76 +4020,76 @@
     </row>
     <row r="2" spans="2:25">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="R2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="S2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="T2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="V2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="W2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="X2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -4290,109 +4427,109 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4404,10 +4541,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4416,385 +4553,979 @@
     <col min="2" max="2" width="7.125" style="9" customWidth="1"/>
     <col min="3" max="3" width="8.625" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="4.28333333333333" customWidth="1"/>
     <col min="7" max="7" width="3.625" customWidth="1"/>
     <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="8.625" customWidth="1"/>
     <col min="10" max="10" width="9.625" customWidth="1"/>
     <col min="11" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11">
+    <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>159</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>202</v>
+      </c>
+      <c r="M2">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>202</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>202</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="K5" s="18">
         <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>202</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>219</v>
+      </c>
+      <c r="O5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>223</v>
+      </c>
+      <c r="K6" s="18">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>228</v>
+      </c>
+      <c r="L7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>228</v>
+      </c>
+      <c r="L8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M8">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>239</v>
+      </c>
+      <c r="M9">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>240</v>
+      </c>
+      <c r="O9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14"/>
+      <c r="H14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="18">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K15" s="9">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>205</v>
+      </c>
+      <c r="O15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="9">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="9">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>202</v>
+      </c>
+      <c r="M16">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>210</v>
+      </c>
+      <c r="O16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="18">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="9">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>215</v>
+      </c>
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
         <v>231</v>
       </c>
-      <c r="I11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="19"/>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="9">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="9">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="9">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>224</v>
+      </c>
+      <c r="O19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="9">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L20" t="s">
+        <v>229</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>230</v>
+      </c>
+      <c r="O20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="18">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="18">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>237</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>240</v>
+      </c>
+      <c r="O22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="9">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" t="s">
+        <v>129</v>
+      </c>
+      <c r="M23">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>244</v>
+      </c>
+      <c r="O23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="18">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>248</v>
+      </c>
+      <c r="O24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4818,7 +5549,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -88,6 +88,9 @@
     <t>华夏银行</t>
   </si>
   <si>
+    <t>平安银行</t>
+  </si>
+  <si>
     <t>农业银行</t>
   </si>
   <si>
@@ -329,6 +332,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>精致白金卡降级</t>
     </r>
     <r>
@@ -349,9 +357,6 @@
     <t>行驶证+收入证明+农行信用卡（联系人电话）</t>
   </si>
   <si>
-    <t>平安银行</t>
-  </si>
-  <si>
     <t>保险金卡</t>
   </si>
   <si>
@@ -685,25 +690,25 @@
     <t>BOCOM</t>
   </si>
   <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>保险金</t>
+  </si>
+  <si>
+    <t>HKBEA</t>
+  </si>
+  <si>
+    <t>CMBC</t>
+  </si>
+  <si>
+    <t>IN金</t>
+  </si>
+  <si>
     <t>PSBC</t>
   </si>
   <si>
     <t>鼎雅白</t>
-  </si>
-  <si>
-    <t>HKBEA</t>
-  </si>
-  <si>
-    <t>CMBC</t>
-  </si>
-  <si>
-    <t>IN金</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
-    <t>保险金</t>
   </si>
   <si>
     <t>WZCB</t>
@@ -795,15 +800,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +881,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -884,9 +966,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -906,20 +1010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -929,29 +1019,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -959,65 +1027,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1041,25 +1053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,25 +1089,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,31 +1155,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,49 +1215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,12 +1234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,32 +1271,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,30 +1291,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,11 +1315,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1364,149 +1376,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,34 +1594,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1951,7 +1960,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1959,7 +1968,7 @@
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="6.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1967,7 +1976,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1976,7 +1985,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1987,15 +1996,15 @@
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="36">
+      <c r="A2" s="35">
         <v>43026</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -2011,12 +2020,12 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -2024,9 +2033,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="37"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="L3" s="36"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2109,8 +2118,11 @@
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
@@ -2120,210 +2132,210 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="28"/>
+      <c r="D11" s="27"/>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
         <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
       </c>
       <c r="M11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4"/>
       <c r="K12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
         <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
       <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
         <v>32</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
       </c>
       <c r="M16">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M17">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
         <v>35</v>
-      </c>
-      <c r="L18" t="s">
-        <v>34</v>
       </c>
       <c r="M18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2331,190 +2343,196 @@
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M24">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" s="9"/>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+    <row r="28" spans="2:14">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M28">
         <v>30</v>
       </c>
+      <c r="N28">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M29">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28" t="s">
-        <v>51</v>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28" t="s">
-        <v>52</v>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28" t="s">
-        <v>53</v>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2534,7 +2552,7 @@
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2550,7 +2568,7 @@
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="10" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="6" style="27" customWidth="1"/>
+    <col min="13" max="13" width="6" style="19" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="25" customWidth="1"/>
     <col min="16" max="16" width="6.625" customWidth="1"/>
@@ -2562,40 +2580,40 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="32" t="s">
         <v>63</v>
       </c>
+      <c r="K1" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="27" t="s">
         <v>65</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="O1"/>
     </row>
@@ -2607,27 +2625,27 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="25">
         <v>42227</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>70</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="32">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2637,7 +2655,7 @@
       <c r="L2">
         <v>25</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="19">
         <v>7427</v>
       </c>
       <c r="O2"/>
@@ -2645,31 +2663,31 @@
     <row r="3" spans="2:13">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" s="25">
         <v>42948</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
       </c>
       <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="19">
         <v>1425</v>
       </c>
     </row>
@@ -2681,27 +2699,27 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="25">
         <v>42951</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -2711,64 +2729,64 @@
       <c r="L4">
         <v>40</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="19">
         <v>9862</v>
       </c>
-      <c r="T4" s="28"/>
+      <c r="T4" s="27"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" s="25">
         <v>43041</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>76</v>
+      <c r="G5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="33"/>
-      <c r="T5" s="28"/>
+      <c r="J5" s="32"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="25">
         <v>42951</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>78</v>
+      <c r="G6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="I6" s="25">
         <v>42965</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <f>DATEDIF(F6,I6,"d")</f>
         <v>14</v>
       </c>
@@ -2778,62 +2796,62 @@
       <c r="L6">
         <v>9.7</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="19">
         <v>2344</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="25">
         <v>43035</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>81</v>
       </c>
+      <c r="H7" s="27" t="s">
+        <v>82</v>
+      </c>
       <c r="I7" s="25"/>
-      <c r="J7" s="33"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="25">
         <v>42957</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>84</v>
+      <c r="G8" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="I8" s="25">
         <v>42982</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <f>DATEDIF(F8,I8,"d")</f>
         <v>25</v>
       </c>
@@ -2843,40 +2861,40 @@
       <c r="L8">
         <v>10</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="19">
         <v>4774</v>
       </c>
-      <c r="T8" s="28"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="25">
         <v>42965</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>86</v>
+      <c r="G9" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="I9" s="25">
         <v>42980</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <f>DATEDIF(F9,I9,"d")</f>
         <v>15</v>
       </c>
@@ -2886,33 +2904,33 @@
       <c r="L9">
         <v>15</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="19">
         <v>4481</v>
       </c>
-      <c r="T9" s="28"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" s="25">
         <v>43038</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="33"/>
-      <c r="M10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="T10" s="28"/>
+      <c r="J10" s="32"/>
+      <c r="M10" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
@@ -2922,27 +2940,27 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="25">
         <v>42984</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>92</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="25">
         <v>42996</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <f t="shared" ref="J11:J24" si="0">DATEDIF(F11,I11,"d")</f>
         <v>12</v>
       </c>
@@ -2952,61 +2970,61 @@
       <c r="L11">
         <v>10</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="19">
         <v>3523</v>
       </c>
-      <c r="T11" s="28"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="33"/>
-      <c r="M12" s="27">
+      <c r="J12" s="32"/>
+      <c r="M12" s="19">
         <v>3527</v>
       </c>
-      <c r="T12" s="28"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="25">
         <v>42984</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>95</v>
+      <c r="G13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="I13" s="25">
         <v>42999</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3016,40 +3034,40 @@
       <c r="L13">
         <v>40</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="19">
         <v>6804</v>
       </c>
-      <c r="T13" s="28"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="25">
         <v>42986</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>97</v>
+      <c r="G14" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="I14" s="25">
         <v>43014</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3059,10 +3077,10 @@
       <c r="L14">
         <v>20</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="19">
         <v>1259</v>
       </c>
-      <c r="T14" s="28"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
@@ -3072,27 +3090,27 @@
         <v>17</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="25">
         <v>42990</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>99</v>
+      <c r="G15" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="I15" s="25">
         <v>43000</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3102,10 +3120,10 @@
       <c r="L15">
         <v>50</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="19">
         <v>3190</v>
       </c>
-      <c r="T15" s="28"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -3115,27 +3133,27 @@
         <v>18</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="25">
         <v>43000</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>101</v>
+      <c r="G16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="I16" s="25">
         <v>43035</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3145,7 +3163,7 @@
       <c r="L16">
         <v>41</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="19">
         <v>8109</v>
       </c>
     </row>
@@ -3154,30 +3172,30 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="25">
         <v>43003</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>104</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="I17" s="25">
         <v>43024</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J17" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3187,7 +3205,7 @@
       <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="19">
         <v>7693</v>
       </c>
     </row>
@@ -3196,28 +3214,33 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="25">
         <v>43005</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="33"/>
+      <c r="I18" s="25">
+        <v>43042</v>
+      </c>
+      <c r="J18" s="32">
+        <f>DATEDIF(F18,I18,"d")</f>
+        <v>37</v>
+      </c>
       <c r="K18" s="10">
         <v>20</v>
       </c>
@@ -3236,29 +3259,29 @@
         <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="25">
         <v>43017</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="25"/>
-      <c r="J19" s="33"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="10">
         <v>70</v>
       </c>
       <c r="L19">
         <v>70</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="19">
         <v>9390</v>
       </c>
     </row>
@@ -3267,16 +3290,16 @@
         <v>111</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="25"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="33"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
@@ -3289,16 +3312,16 @@
         <v>112</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="25">
         <v>43018</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>113</v>
@@ -3306,7 +3329,7 @@
       <c r="I21" s="25">
         <v>43029</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <f>DATEDIF(F21,I21,"d")</f>
         <v>11</v>
       </c>
@@ -3316,7 +3339,7 @@
       <c r="L21">
         <v>35</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="19">
         <v>2339</v>
       </c>
     </row>
@@ -3325,17 +3348,17 @@
         <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="25"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="33"/>
-      <c r="M22" s="27">
+      <c r="J22" s="32"/>
+      <c r="M22" s="19">
         <v>7563</v>
       </c>
     </row>
@@ -3350,16 +3373,16 @@
         <v>115</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="25">
         <v>43018</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
         <v>116</v>
@@ -3367,7 +3390,7 @@
       <c r="I23" s="25">
         <v>43026</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <f>DATEDIF(F23,I23,"d")</f>
         <v>8</v>
       </c>
@@ -3388,28 +3411,28 @@
       <c r="B24" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="30">
+      <c r="D24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="29">
         <v>43031</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>43039</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="33">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
@@ -3421,28 +3444,28 @@
       <c r="B25" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="30">
+      <c r="D25" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="29">
         <v>43033</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>43037</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="33">
         <f>DATEDIF(F25,I25,"d")</f>
         <v>4</v>
       </c>
@@ -3702,10 +3725,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3821,7 +3844,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="26">
         <v>42965</v>
@@ -3832,7 +3855,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="26">
         <v>42980</v>
@@ -3843,7 +3866,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="26">
         <v>42982</v>
@@ -3865,7 +3888,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="26">
         <v>42999</v>
@@ -3887,7 +3910,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="26">
         <v>43014</v>
@@ -3898,7 +3921,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="26">
         <v>43024</v>
@@ -3942,9 +3965,20 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="26">
+        <v>43042</v>
+      </c>
+      <c r="C19" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <v>70</v>
       </c>
     </row>
@@ -4157,7 +4191,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -4179,7 +4213,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>6</v>
@@ -4196,7 +4230,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -4247,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -4276,7 +4310,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J13">
         <v>35</v>
@@ -4305,7 +4339,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4543,8 +4577,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:O24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4696,7 +4730,7 @@
         <v>211</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>212</v>
@@ -4743,7 +4777,7 @@
         <v>216</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>209</v>
@@ -4761,13 +4795,13 @@
         <v>217</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="18">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>202</v>
@@ -4790,7 +4824,7 @@
         <v>220</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>221</v>
@@ -4808,13 +4842,13 @@
         <v>222</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="18">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
         <v>202</v>
@@ -4884,7 +4918,7 @@
         <v>231</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>232</v>
@@ -4975,7 +5009,7 @@
         <v>241</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>242</v>
@@ -5014,7 +5048,7 @@
         <v>245</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>246</v>
@@ -5045,6 +5079,11 @@
         <v>149</v>
       </c>
     </row>
+    <row r="12" spans="13:13">
+      <c r="M12">
+        <v>25</v>
+      </c>
+    </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
         <v>249</v>
@@ -5058,7 +5097,6 @@
       <c r="E14" t="s">
         <v>159</v>
       </c>
-      <c r="F14"/>
       <c r="H14" s="9" t="s">
         <v>249</v>
       </c>
@@ -5077,13 +5115,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
@@ -5098,7 +5136,7 @@
         <v>220</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>221</v>
@@ -5192,7 +5230,7 @@
         <v>216</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>209</v>
@@ -5221,7 +5259,7 @@
         <v>231</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>232</v>
@@ -5239,7 +5277,7 @@
         <v>211</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>212</v>
@@ -5286,7 +5324,7 @@
         <v>245</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>246</v>
@@ -5453,7 +5491,7 @@
         <v>241</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>242</v>
@@ -5488,13 +5526,13 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
@@ -5523,8 +5561,6 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
   </sheetData>
@@ -5735,7 +5771,7 @@
         <v>21</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
         <v>20</v>
@@ -5760,13 +5796,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
         <v>24</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5788,14 +5824,14 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J11" s="4"/>
       <c r="O11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" t="s">
         <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5815,10 +5851,10 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5840,13 +5876,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5866,11 +5902,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J14" s="4"/>
       <c r="P14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5890,11 +5926,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J15" s="4"/>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5916,13 +5952,13 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -5946,16 +5982,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" t="s">
         <v>35</v>
-      </c>
-      <c r="P17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -5975,10 +6011,10 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -5998,11 +6034,11 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J19" s="4"/>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -6022,12 +6058,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="P20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -6047,12 +6083,12 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="P21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6072,12 +6108,12 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6099,7 +6135,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -6107,7 +6143,7 @@
         <v>11</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6129,14 +6165,14 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6156,10 +6192,10 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -6179,10 +6215,10 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -6202,11 +6238,11 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" s="4"/>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -6226,11 +6262,11 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="4"/>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -6250,11 +6286,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -6274,11 +6310,11 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -6298,10 +6334,10 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -6321,10 +6357,10 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6492,14 +6528,14 @@
         <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J40" s="13"/>
       <c r="O40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6514,12 +6550,12 @@
         <v>253</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J41" s="13"/>
       <c r="O41" s="5"/>
       <c r="P41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -6534,11 +6570,11 @@
         <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J42" s="14"/>
       <c r="P42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -6553,11 +6589,11 @@
         <v>253</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J43" s="13"/>
       <c r="P43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -6572,11 +6608,11 @@
         <v>253</v>
       </c>
       <c r="I44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J44" s="13"/>
       <c r="P44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -6594,14 +6630,14 @@
         <v>238</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="13"/>
       <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" t="s">
         <v>32</v>
-      </c>
-      <c r="P45" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6619,14 +6655,14 @@
         <v>228</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J46" s="3"/>
       <c r="O46" t="s">
         <v>6</v>
       </c>
       <c r="P46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6641,14 +6677,14 @@
         <v>228</v>
       </c>
       <c r="I47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J47" s="13"/>
       <c r="O47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" t="s">
         <v>35</v>
-      </c>
-      <c r="P47" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -6663,10 +6699,10 @@
         <v>228</v>
       </c>
       <c r="I48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -6684,13 +6720,13 @@
         <v>269</v>
       </c>
       <c r="I49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -6711,16 +6747,16 @@
         <v>313</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -6735,12 +6771,12 @@
         <v>313</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="P51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -6755,12 +6791,12 @@
         <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="P52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -6775,13 +6811,13 @@
         <v>313</v>
       </c>
       <c r="I53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="O53" s="10"/>
       <c r="P53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6796,11 +6832,11 @@
         <v>313</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54" s="9"/>
       <c r="P54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6815,10 +6851,10 @@
         <v>313</v>
       </c>
       <c r="I55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6836,13 +6872,13 @@
         <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O56" t="s">
         <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6863,16 +6899,16 @@
         <v>248</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O57" t="s">
         <v>21</v>
       </c>
       <c r="P57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6893,16 +6929,16 @@
         <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6917,11 +6953,11 @@
         <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O59" s="12"/>
       <c r="P59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6936,11 +6972,11 @@
         <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O60" s="12"/>
       <c r="P60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6955,10 +6991,10 @@
         <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6973,10 +7009,10 @@
         <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -7157,7 +7193,7 @@
         <v>21</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P69" t="s">
         <v>20</v>
@@ -7182,13 +7218,13 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" t="s">
         <v>24</v>
-      </c>
-      <c r="P70" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -7210,14 +7246,14 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J71" s="4"/>
       <c r="O71" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" t="s">
         <v>27</v>
-      </c>
-      <c r="P71" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -7237,10 +7273,10 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -7262,13 +7298,13 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="P73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -7288,11 +7324,11 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J74" s="4"/>
       <c r="P74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -7312,11 +7348,11 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J75" s="4"/>
       <c r="P75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -7338,13 +7374,13 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -7368,16 +7404,16 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" t="s">
         <v>35</v>
-      </c>
-      <c r="P77" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7397,10 +7433,10 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7420,11 +7456,11 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J79" s="4"/>
       <c r="P79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7444,12 +7480,12 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="P80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7469,12 +7505,12 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="P81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7494,12 +7530,12 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="P82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7521,7 +7557,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -7529,7 +7565,7 @@
         <v>11</v>
       </c>
       <c r="P83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7551,14 +7587,14 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K84" s="9"/>
       <c r="P84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7578,10 +7614,10 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7601,10 +7637,10 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7624,11 +7660,11 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J87" s="4"/>
       <c r="P87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7648,11 +7684,11 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J88" s="4"/>
       <c r="P88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7672,11 +7708,11 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7696,11 +7732,11 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O90" s="12"/>
       <c r="P90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7720,10 +7756,10 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7743,10 +7779,10 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P92" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7914,14 +7950,14 @@
         <v>253</v>
       </c>
       <c r="I100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J100" s="13"/>
       <c r="O100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7936,12 +7972,12 @@
         <v>253</v>
       </c>
       <c r="I101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J101" s="13"/>
       <c r="O101" s="5"/>
       <c r="P101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7956,11 +7992,11 @@
         <v>253</v>
       </c>
       <c r="I102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J102" s="14"/>
       <c r="P102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7975,11 +8011,11 @@
         <v>253</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J103" s="13"/>
       <c r="P103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7994,11 +8030,11 @@
         <v>253</v>
       </c>
       <c r="I104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J104" s="13"/>
       <c r="P104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8016,14 +8052,14 @@
         <v>238</v>
       </c>
       <c r="I105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J105" s="13"/>
       <c r="O105" t="s">
+        <v>33</v>
+      </c>
+      <c r="P105" t="s">
         <v>32</v>
-      </c>
-      <c r="P105" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8041,14 +8077,14 @@
         <v>228</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J106" s="3"/>
       <c r="O106" t="s">
         <v>6</v>
       </c>
       <c r="P106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8063,11 +8099,11 @@
         <v>228</v>
       </c>
       <c r="I107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J107" s="13"/>
       <c r="P107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8082,10 +8118,10 @@
         <v>228</v>
       </c>
       <c r="I108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8103,13 +8139,13 @@
         <v>269</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8130,16 +8166,16 @@
         <v>313</v>
       </c>
       <c r="I110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8154,12 +8190,12 @@
         <v>313</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="P111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8174,12 +8210,12 @@
         <v>313</v>
       </c>
       <c r="I112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="P112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8194,13 +8230,13 @@
         <v>313</v>
       </c>
       <c r="I113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="O113" s="10"/>
       <c r="P113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8215,11 +8251,11 @@
         <v>313</v>
       </c>
       <c r="I114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114" s="9"/>
       <c r="P114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8234,10 +8270,10 @@
         <v>313</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8255,13 +8291,13 @@
         <v>263</v>
       </c>
       <c r="I116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O116" t="s">
         <v>17</v>
       </c>
       <c r="P116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8282,16 +8318,16 @@
         <v>248</v>
       </c>
       <c r="I117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O117" t="s">
         <v>21</v>
       </c>
       <c r="P117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8312,16 +8348,16 @@
         <v>238</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8336,11 +8372,11 @@
         <v>238</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O119" s="12"/>
       <c r="P119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8355,11 +8391,11 @@
         <v>238</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O120" s="12"/>
       <c r="P120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8374,10 +8410,10 @@
         <v>238</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8392,10 +8428,10 @@
         <v>238</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:8">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="20205" windowHeight="12630" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
   <si>
     <t>日期</t>
   </si>
@@ -118,6 +118,9 @@
     <t>12日</t>
   </si>
   <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
     <t>13日</t>
   </si>
   <si>
@@ -256,6 +259,12 @@
     <t>APP申请</t>
   </si>
   <si>
+    <t>world（Master）</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>长城环球通爱驾汽车卡</t>
   </si>
   <si>
@@ -287,9 +296,6 @@
   </si>
   <si>
     <t>标准白金卡</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>OO51</t>
@@ -335,6 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>精致白金卡降级</t>
@@ -363,9 +370,6 @@
     <t>无（行驶证，大堂经理手机操作）（5个问题）</t>
   </si>
   <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
     <t>鼎雅白金卡-银联</t>
   </si>
   <si>
@@ -429,7 +433,7 @@
     <t>北京银行</t>
   </si>
   <si>
-    <t>标准白金卡/标准信用卡</t>
+    <t>爱驾卡</t>
   </si>
   <si>
     <t>工商银行</t>
@@ -564,6 +568,9 @@
     <t>杭州西湖区思威琪鞋店</t>
   </si>
   <si>
+    <t>屹久食品店（喜士多）</t>
+  </si>
+  <si>
     <t>酒店餐饮</t>
   </si>
   <si>
@@ -603,6 +610,9 @@
     <t>上海杨四眼小吃店</t>
   </si>
   <si>
+    <t>上海小山东小饭店</t>
+  </si>
+  <si>
     <t>服装日用</t>
   </si>
   <si>
@@ -720,6 +730,39 @@
     <t>全球支付白</t>
   </si>
   <si>
+    <t>BOBJ</t>
+  </si>
+  <si>
+    <t>乐驾</t>
+  </si>
+  <si>
+    <t>ing</t>
+  </si>
+  <si>
+    <t>TZB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>QQ金</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+  </si>
+  <si>
+    <t>集气中</t>
+  </si>
+  <si>
+    <t>NBCB</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>龙腾白</t>
+  </si>
+  <si>
     <t>CITI</t>
   </si>
   <si>
@@ -729,58 +772,31 @@
     <t>1次</t>
   </si>
   <si>
-    <t>TZB</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>QQ金</t>
+    <t>CBHB</t>
+  </si>
+  <si>
+    <t>ECITIC</t>
+  </si>
+  <si>
+    <t>i白</t>
   </si>
   <si>
     <t>HSBC</t>
   </si>
   <si>
-    <t>NBCB</t>
-  </si>
-  <si>
-    <t>CEB</t>
-  </si>
-  <si>
-    <t>龙腾白</t>
+    <t>NJCB</t>
+  </si>
+  <si>
+    <t>BOSH</t>
+  </si>
+  <si>
+    <t>降级普卡</t>
   </si>
   <si>
     <t>BOHZ</t>
   </si>
   <si>
     <t>不让选</t>
-  </si>
-  <si>
-    <t>ing</t>
-  </si>
-  <si>
-    <t>CBHB</t>
-  </si>
-  <si>
-    <t>ECITIC</t>
-  </si>
-  <si>
-    <t>i白</t>
-  </si>
-  <si>
-    <t>BOBJ</t>
-  </si>
-  <si>
-    <t>NJCB</t>
-  </si>
-  <si>
-    <t>BOSH</t>
-  </si>
-  <si>
-    <t>降级普卡</t>
-  </si>
-  <si>
-    <t>ICBC</t>
   </si>
   <si>
     <t>URCB</t>
@@ -800,15 +816,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +897,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -890,7 +942,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,32 +1010,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,53 +1032,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1005,21 +1043,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,13 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1094,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,25 +1220,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,109 +1256,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,11 +1294,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,11 +1342,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,30 +1373,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,54 +1391,39 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1409,116 +1432,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,10 +1617,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1606,19 +1629,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1960,7 +1992,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1985,7 +2017,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
@@ -1996,12 +2028,12 @@
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="L1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="35">
+      <c r="A2" s="38">
         <v>43026</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -2020,12 +2052,12 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="39"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="38"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -2033,9 +2065,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="L3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2200,6 +2232,9 @@
         <v>31</v>
       </c>
       <c r="F15" s="4"/>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
       <c r="L15" t="s">
         <v>31</v>
       </c>
@@ -2209,14 +2244,14 @@
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4"/>
       <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
       </c>
       <c r="M16">
         <v>15</v>
@@ -2227,7 +2262,7 @@
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>23</v>
@@ -2236,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17">
         <v>10</v>
@@ -2247,16 +2282,16 @@
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
         <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -2267,10 +2302,10 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -2278,13 +2313,13 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:12">
@@ -2292,7 +2327,7 @@
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>19</v>
@@ -2301,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -2309,12 +2344,12 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="L22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:12">
@@ -2322,12 +2357,12 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -2335,7 +2370,7 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2343,7 +2378,7 @@
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <v>40</v>
@@ -2354,25 +2389,31 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="9"/>
       <c r="L25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -2380,13 +2421,13 @@
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M27">
         <v>50</v>
@@ -2397,10 +2438,10 @@
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
         <v>22</v>
@@ -2409,7 +2450,7 @@
         <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -2423,7 +2464,7 @@
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>6</v>
@@ -2432,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M29">
         <v>20</v>
@@ -2443,13 +2484,13 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -2457,13 +2498,13 @@
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -2471,10 +2512,10 @@
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:12">
@@ -2482,10 +2523,10 @@
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2493,7 +2534,7 @@
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2501,7 +2542,7 @@
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
       <c r="E35" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2509,7 +2550,7 @@
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="E36" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2549,10 +2590,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2580,40 +2621,40 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="K1" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O1"/>
     </row>
@@ -2625,27 +2666,27 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="25">
         <v>42227</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="35">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2663,27 +2704,27 @@
     <row r="3" spans="2:13">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" s="25">
         <v>42948</v>
       </c>
       <c r="G3" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
         <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="35">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -2699,27 +2740,27 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="25">
         <v>42951</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="35">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -2737,778 +2778,808 @@
     <row r="5" spans="2:20">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" s="25">
         <v>43041</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="35"/>
+      <c r="M5" s="19">
+        <v>7012</v>
+      </c>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="35"/>
+      <c r="M6" s="19">
+        <v>195</v>
+      </c>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="32"/>
-      <c r="T5" s="27"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="25">
+      <c r="F7" s="25">
         <v>42951</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="25">
-        <v>42965</v>
-      </c>
-      <c r="J6" s="32">
-        <f>DATEDIF(F6,I6,"d")</f>
-        <v>14</v>
-      </c>
-      <c r="K6" s="10">
-        <v>9.7</v>
-      </c>
-      <c r="L6">
-        <v>9.7</v>
-      </c>
-      <c r="M6" s="19">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="25">
-        <v>43035</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="I7" s="25">
+        <v>42965</v>
+      </c>
+      <c r="J7" s="35">
+        <f>DATEDIF(F7,I7,"d")</f>
+        <v>14</v>
+      </c>
+      <c r="K7" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="L7">
+        <v>9.7</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="25">
+        <v>43035</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="F8" s="25">
-        <v>42957</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="25">
-        <v>42982</v>
-      </c>
-      <c r="J8" s="32">
-        <f>DATEDIF(F8,I8,"d")</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="10">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" s="19">
-        <v>4774</v>
-      </c>
-      <c r="T8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F9" s="25">
+        <v>42957</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="25">
+        <v>42982</v>
+      </c>
+      <c r="J9" s="35">
+        <f>DATEDIF(F9,I9,"d")</f>
+        <v>25</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="19">
+        <v>4774</v>
+      </c>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="25">
         <v>42965</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="25">
+      <c r="G10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="25">
         <v>42980</v>
       </c>
-      <c r="J9" s="32">
-        <f>DATEDIF(F9,I9,"d")</f>
+      <c r="J10" s="35">
+        <f>DATEDIF(F10,I10,"d")</f>
         <v>15</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K10" s="10">
         <v>15</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="19">
         <v>4481</v>
       </c>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="2:20">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="25">
-        <v>43038</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="32"/>
-      <c r="M10" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" spans="2:20">
+      <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F11" s="25">
+        <v>43038</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="35"/>
+      <c r="M11" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="25">
         <v>42984</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="G12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="25">
         <v>42996</v>
       </c>
-      <c r="J11" s="32">
-        <f t="shared" ref="J11:J24" si="0">DATEDIF(F11,I11,"d")</f>
+      <c r="J12" s="35">
+        <f t="shared" ref="J12:J25" si="0">DATEDIF(F12,I12,"d")</f>
         <v>12</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K12" s="10">
         <v>10</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="19">
         <v>3523</v>
       </c>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10" t="s">
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="35"/>
+      <c r="M13" s="19">
+        <v>3527</v>
+      </c>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="25">
+        <v>42984</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="32"/>
-      <c r="M12" s="19">
-        <v>3527</v>
-      </c>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="25">
-        <v>42984</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="H14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="25">
         <v>42999</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J14" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K14" s="10">
         <v>40</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>40</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M14" s="19">
         <v>6804</v>
       </c>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="C15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25">
         <v>42986</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="G15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="25">
         <v>43014</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J15" s="35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K15" s="10">
         <v>20</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>20</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M15" s="19">
         <v>1259</v>
       </c>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15">
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
         <v>9</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="25">
+      <c r="E16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="25">
         <v>42990</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="G16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="25">
         <v>43000</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J16" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K16" s="10">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>50</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M16" s="19">
         <v>3190</v>
       </c>
-      <c r="T15" s="27"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="C17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="25">
         <v>43000</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="25">
+      <c r="G17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="25">
         <v>43035</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J17" s="35">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K17" s="10">
         <v>41</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>41</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M17" s="19">
         <v>8109</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="25">
+      <c r="C18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="25">
         <v>43003</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="G18" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="25">
         <v>43024</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J18" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K18" s="10">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>3</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M18" s="19">
         <v>7693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="25">
-        <v>43005</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="25">
-        <v>43042</v>
-      </c>
-      <c r="J18" s="32">
-        <f>DATEDIF(F18,I18,"d")</f>
-        <v>37</v>
-      </c>
-      <c r="K18" s="10">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="25">
+        <v>43005</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="25">
+        <v>43042</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K19" s="10">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19" s="19">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="25">
         <v>43017</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="25"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="10">
         <v>70</v>
       </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="10">
+      <c r="L20">
         <v>70</v>
       </c>
-      <c r="L19">
-        <v>70</v>
-      </c>
-      <c r="M19" s="19">
-        <v>9390</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
+      <c r="M20" s="19">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
       <c r="C21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="25">
+        <v>80</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="35"/>
+      <c r="M21" s="19">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="25">
         <v>43018</v>
       </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="25">
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="25">
         <v>43029</v>
       </c>
-      <c r="J21" s="32">
-        <f>DATEDIF(F21,I21,"d")</f>
+      <c r="J22" s="35">
+        <f>DATEDIF(F22,I22,"d")</f>
         <v>11</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K22" s="10">
         <v>35</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>35</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M22" s="19">
         <v>2339</v>
       </c>
     </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="32"/>
-      <c r="M22" s="19">
-        <v>7563</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
+    <row r="23" spans="3:13">
       <c r="C23" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="25">
+        <v>80</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="35"/>
+      <c r="M23" s="19">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="25">
         <v>43018</v>
       </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="25">
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" s="25">
         <v>43026</v>
       </c>
-      <c r="J23" s="32">
-        <f>DATEDIF(F23,I23,"d")</f>
-        <v>8</v>
-      </c>
-      <c r="K23" s="10">
-        <v>30</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="29">
-        <v>43031</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="29">
-        <v>43039</v>
-      </c>
-      <c r="J24" s="33">
+      <c r="J24" s="35">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
+      <c r="K24" s="10">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="29">
+        <v>43031</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="29">
+        <v>43039</v>
+      </c>
+      <c r="J25" s="36">
+        <f>DATEDIF(F25,I25,"d")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="28" t="s">
+      <c r="B26" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="29">
+      <c r="C26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="29">
         <v>43033</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I25" s="29">
+      <c r="G26" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="29">
         <v>43037</v>
       </c>
-      <c r="J25" s="33">
-        <f>DATEDIF(F25,I25,"d")</f>
+      <c r="J26" s="36">
+        <f>DATEDIF(F26,I26,"d")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>18</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="25">
+      <c r="C27" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="31">
         <v>43033</v>
       </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G27" s="28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="H27" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27">
-        <v>2017</v>
+      <c r="I27" s="31">
+        <v>43043</v>
+      </c>
+      <c r="J27" s="36">
+        <f>DATEDIF(F27,I27,"d")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20</v>
-      </c>
-      <c r="B28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
         <v>131</v>
       </c>
       <c r="F28">
@@ -3517,27 +3588,25 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C29" t="s">
-        <v>133</v>
-      </c>
+      <c r="C29" s="32"/>
       <c r="F29">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>134</v>
-      </c>
-      <c r="C30" t="s">
-        <v>135</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -3545,9 +3614,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>136</v>
       </c>
       <c r="F31">
@@ -3556,27 +3628,25 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
       </c>
-      <c r="C32" t="s">
-        <v>138</v>
-      </c>
+      <c r="C32" s="32"/>
       <c r="F32">
         <v>2018</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3584,13 +3654,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -3598,13 +3668,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="C35" t="s">
-        <v>144</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3612,13 +3682,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
       </c>
       <c r="F36">
         <v>2018</v>
@@ -3626,13 +3696,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>147</v>
-      </c>
-      <c r="C37" t="s">
-        <v>148</v>
       </c>
       <c r="F37">
         <v>2018</v>
@@ -3640,13 +3710,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
       </c>
       <c r="F38">
         <v>2018</v>
@@ -3654,67 +3724,84 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>151</v>
       </c>
       <c r="F39">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
         <v>152</v>
       </c>
+      <c r="C40" s="32"/>
       <c r="F40">
         <v>2019</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>153</v>
       </c>
+      <c r="C41" s="32"/>
       <c r="F41">
         <v>2019</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>154</v>
       </c>
-      <c r="C42" t="s">
-        <v>155</v>
-      </c>
+      <c r="C42" s="32"/>
       <c r="F42">
         <v>2019</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>157</v>
       </c>
       <c r="F43">
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="25"/>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3727,8 +3814,8 @@
   <sheetPr/>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3743,25 +3830,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3799,7 +3886,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3813,7 +3900,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3828,7 +3915,7 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3855,7 +3942,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="26">
         <v>42980</v>
@@ -3866,7 +3953,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="26">
         <v>42982</v>
@@ -3976,7 +4063,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="B20" s="26">
+        <v>43044</v>
       </c>
       <c r="C20" s="10">
         <v>70</v>
@@ -4054,76 +4144,76 @@
     </row>
     <row r="2" spans="2:25">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="K2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" t="s">
         <v>169</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="O2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" t="s">
         <v>170</v>
       </c>
-      <c r="N2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="S2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" t="s">
         <v>170</v>
       </c>
-      <c r="R2" t="s">
-        <v>168</v>
-      </c>
-      <c r="S2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="V2" t="s">
         <v>169</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="W2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X2" t="s">
         <v>170</v>
       </c>
-      <c r="V2" t="s">
-        <v>168</v>
-      </c>
-      <c r="W2" t="s">
-        <v>159</v>
-      </c>
-      <c r="X2" t="s">
-        <v>169</v>
-      </c>
       <c r="Y2" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -4310,7 +4400,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>35</v>
@@ -4339,7 +4429,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4445,125 +4535,132 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+      <c r="F9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4578,7 +4675,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4601,31 +4698,31 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4633,46 +4730,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4680,46 +4777,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4727,46 +4824,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4774,46 +4871,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4821,46 +4918,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4868,46 +4965,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4915,46 +5009,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>237</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4962,43 +5050,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="L9" t="s">
+        <v>243</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5006,38 +5097,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L10" t="s">
         <v>243</v>
       </c>
-      <c r="I10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="19"/>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5045,38 +5144,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="19"/>
+        <v>251</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L11" t="s">
+        <v>243</v>
+      </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="13:13">
@@ -5086,28 +5193,28 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5115,46 +5222,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5162,46 +5269,46 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5209,46 +5316,46 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5256,46 +5363,46 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5303,46 +5410,46 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -5350,46 +5457,43 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="I20" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -5397,46 +5501,40 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" t="s">
-        <v>229</v>
+        <v>236</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>237</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -5444,43 +5542,46 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="L22" t="s">
+        <v>243</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5488,37 +5589,46 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s">
         <v>243</v>
-      </c>
-      <c r="I23" t="s">
-        <v>129</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -5526,37 +5636,46 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
+        <v>251</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -5574,8 +5693,8 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5585,12 +5704,12 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="6:6">
       <c r="F2" s="1">
-        <v>238</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5605,7 +5724,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2">
         <f>C3+D3+E3+F2</f>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -5628,7 +5747,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2">
         <f>C4+D4+E4+F3</f>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -5652,7 +5771,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F10" si="0">C5+D5+E5+F4</f>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -5675,7 +5794,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -5701,7 +5820,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -5730,7 +5849,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5760,7 +5879,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5791,7 +5910,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5819,7 +5938,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F42" si="1">C11+D11+E11+F10</f>
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5846,7 +5965,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5871,7 +5990,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5894,10 +6013,12 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>-70</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5905,6 +6026,9 @@
         <v>31</v>
       </c>
       <c r="J14" s="4"/>
+      <c r="O14" t="s">
+        <v>32</v>
+      </c>
       <c r="P14" t="s">
         <v>31</v>
       </c>
@@ -5921,16 +6045,16 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J15" s="4"/>
       <c r="P15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5947,18 +6071,18 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -5977,21 +6101,21 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
         <v>36</v>
-      </c>
-      <c r="P17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -6006,15 +6130,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -6029,16 +6153,16 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" s="4"/>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -6053,17 +6177,17 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -6078,17 +6202,17 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -6103,17 +6227,17 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="P22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6130,12 +6254,12 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -6143,7 +6267,7 @@
         <v>11</v>
       </c>
       <c r="P23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6160,19 +6284,19 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6182,20 +6306,25 @@
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>70</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -6210,15 +6339,15 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -6230,19 +6359,24 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>-20</v>
+      </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" s="4"/>
+      <c r="N27" t="s">
+        <v>22</v>
+      </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -6257,16 +6391,16 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28" s="4"/>
       <c r="P28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -6281,16 +6415,16 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -6305,16 +6439,16 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -6329,15 +6463,15 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -6352,15 +6486,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -6372,7 +6506,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="I33" t="s">
         <v>9</v>
@@ -6393,7 +6527,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I34" t="s">
         <v>10</v>
@@ -6414,7 +6548,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -6432,7 +6566,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -6451,7 +6585,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -6477,7 +6611,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
@@ -6500,14 +6634,20 @@
       <c r="B39" s="1">
         <v>7</v>
       </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="I39" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="13"/>
+      <c r="K39" t="s">
+        <v>22</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" t="s">
         <v>20</v>
@@ -6525,7 +6665,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
@@ -6547,7 +6687,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -6567,7 +6707,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
         <v>29</v>
@@ -6586,7 +6726,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:F74" si="2">C43+D43+E43+F42</f>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I43" t="s">
         <v>30</v>
@@ -6605,7 +6745,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I44" t="s">
         <v>31</v>
@@ -6627,17 +6767,17 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J45" s="13"/>
       <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s">
         <v>33</v>
-      </c>
-      <c r="P45" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6652,17 +6792,17 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J46" s="3"/>
       <c r="O46" t="s">
         <v>6</v>
       </c>
       <c r="P46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6674,17 +6814,17 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J47" s="13"/>
       <c r="O47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
         <v>36</v>
-      </c>
-      <c r="P47" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -6696,13 +6836,13 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -6717,16 +6857,16 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -6744,10 +6884,10 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>19</v>
@@ -6756,7 +6896,7 @@
         <v>26</v>
       </c>
       <c r="P50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -6768,15 +6908,15 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c r="P51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -6788,15 +6928,15 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="P52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -6808,16 +6948,16 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="O53" s="10"/>
       <c r="P53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6829,14 +6969,14 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54" s="9"/>
       <c r="P54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6848,13 +6988,13 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6869,16 +7009,16 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O56" t="s">
         <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6896,19 +7036,19 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O57" t="s">
         <v>21</v>
       </c>
       <c r="P57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6926,10 +7066,10 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>6</v>
@@ -6938,7 +7078,7 @@
         <v>25</v>
       </c>
       <c r="P58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6950,14 +7090,14 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O59" s="12"/>
       <c r="P59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6969,14 +7109,14 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O60" s="12"/>
       <c r="P60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6988,13 +7128,13 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -7006,13 +7146,13 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -7027,7 +7167,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -7050,7 +7190,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -7074,7 +7214,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -7097,7 +7237,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2">
         <f t="shared" si="2"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -7123,7 +7263,7 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="2"/>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -7152,7 +7292,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -7182,7 +7322,7 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="2"/>
-        <v>243</v>
+        <v>333</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -7213,7 +7353,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -7241,7 +7381,7 @@
       </c>
       <c r="F71" s="2">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -7268,7 +7408,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -7293,7 +7433,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -7316,10 +7456,12 @@
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2">
+        <v>-70</v>
+      </c>
       <c r="F74" s="2">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -7327,6 +7469,9 @@
         <v>31</v>
       </c>
       <c r="J74" s="4"/>
+      <c r="O74" t="s">
+        <v>32</v>
+      </c>
       <c r="P74" t="s">
         <v>31</v>
       </c>
@@ -7343,16 +7488,16 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2">
         <f t="shared" ref="F75:F106" si="3">C75+D75+E75+F74</f>
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J75" s="4"/>
       <c r="P75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -7369,18 +7514,18 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>23</v>
       </c>
       <c r="P76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -7399,21 +7544,21 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J77" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77" t="s">
         <v>36</v>
-      </c>
-      <c r="P77" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7428,15 +7573,15 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7451,16 +7596,16 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J79" s="4"/>
       <c r="P79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7475,17 +7620,17 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c r="P80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7500,17 +7645,17 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c r="P81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7525,17 +7670,17 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c r="P82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7552,12 +7697,12 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
@@ -7565,7 +7710,7 @@
         <v>11</v>
       </c>
       <c r="P83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7582,19 +7727,19 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K84" s="9"/>
       <c r="P84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7604,20 +7749,25 @@
       <c r="B85" s="2">
         <v>23</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2">
+        <v>70</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="P85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7632,15 +7782,15 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7652,19 +7802,24 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>-20</v>
+      </c>
       <c r="F87" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87" s="4"/>
+      <c r="N87" t="s">
+        <v>22</v>
+      </c>
       <c r="P87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7679,16 +7834,16 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88" s="4"/>
       <c r="P88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7703,16 +7858,16 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O89" s="12"/>
       <c r="P89" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7727,16 +7882,16 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O90" s="12"/>
       <c r="P90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -7751,15 +7906,15 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7774,15 +7929,15 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -7794,7 +7949,7 @@
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>368</v>
       </c>
       <c r="I93" t="s">
         <v>9</v>
@@ -7815,7 +7970,7 @@
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I94" t="s">
         <v>10</v>
@@ -7836,7 +7991,7 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -7854,7 +8009,7 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I96" t="s">
         <v>13</v>
@@ -7873,12 +8028,14 @@
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="4"/>
+      <c r="J97" t="s">
+        <v>22</v>
+      </c>
       <c r="O97" s="5"/>
       <c r="P97" t="s">
         <v>14</v>
@@ -7899,7 +8056,7 @@
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="I98" t="s">
         <v>16</v>
@@ -7922,9 +8079,12 @@
       <c r="B99" s="1">
         <v>7</v>
       </c>
+      <c r="C99" s="1">
+        <v>20</v>
+      </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>352</v>
       </c>
       <c r="I99" t="s">
         <v>20</v>
@@ -7947,7 +8107,7 @@
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I100" t="s">
         <v>24</v>
@@ -7969,7 +8129,7 @@
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
@@ -7989,7 +8149,7 @@
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I102" t="s">
         <v>29</v>
@@ -8008,7 +8168,7 @@
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -8027,7 +8187,7 @@
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="I104" t="s">
         <v>31</v>
@@ -8049,17 +8209,17 @@
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J105" s="13"/>
       <c r="O105" t="s">
+        <v>34</v>
+      </c>
+      <c r="P105" t="s">
         <v>33</v>
-      </c>
-      <c r="P105" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8074,17 +8234,17 @@
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J106" s="3"/>
       <c r="O106" t="s">
         <v>6</v>
       </c>
       <c r="P106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -8096,14 +8256,14 @@
       </c>
       <c r="F107" s="1">
         <f t="shared" ref="F107:F138" si="4">C107+D107+E107+F106</f>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J107" s="13"/>
       <c r="P107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8115,13 +8275,13 @@
       </c>
       <c r="F108" s="1">
         <f t="shared" si="4"/>
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="I108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8136,16 +8296,16 @@
       </c>
       <c r="F109" s="1">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="I109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8163,10 +8323,10 @@
       </c>
       <c r="F110" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>19</v>
@@ -8175,7 +8335,7 @@
         <v>26</v>
       </c>
       <c r="P110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8187,15 +8347,15 @@
       </c>
       <c r="F111" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c r="P111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8207,15 +8367,15 @@
       </c>
       <c r="F112" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c r="P112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8227,16 +8387,16 @@
       </c>
       <c r="F113" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c r="O113" s="10"/>
       <c r="P113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8248,14 +8408,14 @@
       </c>
       <c r="F114" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114" s="9"/>
       <c r="P114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -8267,13 +8427,13 @@
       </c>
       <c r="F115" s="1">
         <f t="shared" si="4"/>
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -8288,16 +8448,16 @@
       </c>
       <c r="F116" s="1">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>353</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O116" t="s">
         <v>17</v>
       </c>
       <c r="P116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -8315,19 +8475,19 @@
       </c>
       <c r="F117" s="1">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O117" t="s">
         <v>21</v>
       </c>
       <c r="P117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -8345,10 +8505,10 @@
       </c>
       <c r="F118" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118" s="4" t="s">
         <v>6</v>
@@ -8357,7 +8517,7 @@
         <v>25</v>
       </c>
       <c r="P118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -8369,14 +8529,14 @@
       </c>
       <c r="F119" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O119" s="12"/>
       <c r="P119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -8388,14 +8548,14 @@
       </c>
       <c r="F120" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O120" s="12"/>
       <c r="P120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -8407,13 +8567,13 @@
       </c>
       <c r="F121" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -8425,13 +8585,13 @@
       </c>
       <c r="F122" s="1">
         <f t="shared" si="4"/>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="I122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:8">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20205" windowHeight="12630" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>日期</t>
   </si>
@@ -133,12 +133,12 @@
     <t>15日</t>
   </si>
   <si>
+    <t>16日</t>
+  </si>
+  <si>
     <t>交通银行</t>
   </si>
   <si>
-    <t>16日</t>
-  </si>
-  <si>
     <t>17日</t>
   </si>
   <si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>O195</t>
   </si>
   <si>
     <t>长城环球通爱驾汽车卡</t>
@@ -816,15 +819,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,9 +908,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -918,11 +921,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -933,16 +943,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,33 +967,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,21 +997,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1032,9 +1028,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,13 +1086,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,61 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,25 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1164,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,25 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,17 +1304,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,15 +1329,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1357,22 +1363,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,152 +1406,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1617,10 +1627,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1629,19 +1639,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1992,7 +1999,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2017,7 +2024,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
@@ -2028,12 +2035,12 @@
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="39"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>43026</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -2052,12 +2059,12 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="39"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -2065,9 +2072,9 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="L3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2287,9 +2294,6 @@
       <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L18" t="s">
         <v>36</v>
       </c>
@@ -2302,10 +2306,13 @@
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -2392,7 +2399,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" s="9"/>
       <c r="L25" t="s">
@@ -2592,8 +2599,8 @@
   <sheetPr/>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2647,7 +2654,7 @@
       <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L1" t="s">
@@ -2686,7 +2693,7 @@
       <c r="I2" s="25">
         <v>42241</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="34">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="I3" s="25">
         <v>42956</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="34">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -2760,7 +2767,7 @@
       <c r="I4" s="25">
         <v>42965</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>78</v>
       </c>
       <c r="I5" s="25"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="34"/>
       <c r="M5" s="19">
         <v>7012</v>
       </c>
@@ -2817,9 +2824,9 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="35"/>
-      <c r="M6" s="19">
-        <v>195</v>
+      <c r="J6" s="34"/>
+      <c r="M6" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="T6" s="27"/>
     </row>
@@ -2831,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
@@ -2846,12 +2853,12 @@
         <v>75</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="25">
         <v>42965</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <f>DATEDIF(F7,I7,"d")</f>
         <v>14</v>
       </c>
@@ -2868,7 +2875,7 @@
     <row r="8" spans="2:10">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>74</v>
@@ -2880,29 +2887,29 @@
         <v>43035</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="25"/>
-      <c r="J8" s="35"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="25">
         <v>42957</v>
@@ -2911,12 +2918,12 @@
         <v>75</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" s="25">
         <v>42982</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <f>DATEDIF(F9,I9,"d")</f>
         <v>25</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>69</v>
@@ -2954,12 +2961,12 @@
         <v>75</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="25">
         <v>42980</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <f>DATEDIF(F10,I10,"d")</f>
         <v>15</v>
       </c>
@@ -2977,7 +2984,7 @@
     <row r="11" spans="2:20">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>80</v>
@@ -2991,9 +2998,9 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="34"/>
       <c r="M11" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T11" s="27"/>
     </row>
@@ -3005,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>69</v>
@@ -3017,15 +3024,15 @@
         <v>42984</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="25">
         <v>42996</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <f t="shared" ref="J12:J25" si="0">DATEDIF(F12,I12,"d")</f>
         <v>12</v>
       </c>
@@ -3043,7 +3050,7 @@
     <row r="13" spans="2:20">
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>80</v>
@@ -3055,7 +3062,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="35"/>
+      <c r="J13" s="34"/>
       <c r="M13" s="19">
         <v>3527</v>
       </c>
@@ -3069,7 +3076,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>69</v>
@@ -3081,15 +3088,15 @@
         <v>42984</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I14" s="25">
         <v>42999</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>69</v>
@@ -3124,15 +3131,15 @@
         <v>42986</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I15" s="25">
         <v>43014</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>69</v>
@@ -3170,12 +3177,12 @@
         <v>75</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" s="25">
         <v>43000</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3198,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>69</v>
@@ -3210,15 +3217,15 @@
         <v>43000</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" s="25">
         <v>43035</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3240,27 +3247,27 @@
         <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F18" s="25">
         <v>43003</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="25">
         <v>43024</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="34">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3282,13 +3289,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="25">
         <v>43005</v>
@@ -3297,12 +3304,12 @@
         <v>75</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I19" s="25">
         <v>43042</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3324,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>69</v>
@@ -3339,10 +3346,15 @@
         <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="35"/>
+        <v>112</v>
+      </c>
+      <c r="I20" s="25">
+        <v>43044</v>
+      </c>
+      <c r="J20" s="34">
+        <f>DATEDIF(F20,I20,"d")</f>
+        <v>27</v>
+      </c>
       <c r="K20" s="10">
         <v>70</v>
       </c>
@@ -3355,7 +3367,7 @@
     </row>
     <row r="21" spans="3:13">
       <c r="C21" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>80</v>
@@ -3367,7 +3379,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="34"/>
       <c r="M21" s="19">
         <v>1867</v>
       </c>
@@ -3380,13 +3392,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="25">
         <v>43018</v>
@@ -3395,12 +3407,12 @@
         <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" s="25">
         <v>43029</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <f>DATEDIF(F22,I22,"d")</f>
         <v>11</v>
       </c>
@@ -3416,7 +3428,7 @@
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>80</v>
@@ -3428,7 +3440,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="34"/>
       <c r="M23" s="19">
         <v>7563</v>
       </c>
@@ -3441,13 +3453,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="25">
         <v>43018</v>
@@ -3456,12 +3468,12 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I24" s="25">
         <v>43026</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="34">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>30</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3480,10 +3492,10 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>69</v>
@@ -3495,15 +3507,15 @@
         <v>43031</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I25" s="29">
         <v>43039</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <f>DATEDIF(F25,I25,"d")</f>
         <v>8</v>
       </c>
@@ -3513,30 +3525,30 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="29">
         <v>43033</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I26" s="29">
         <v>43037</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="35">
         <f>DATEDIF(F26,I26,"d")</f>
         <v>4</v>
       </c>
@@ -3546,28 +3558,28 @@
         <v>18</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>43033</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="31">
+        <v>130</v>
+      </c>
+      <c r="I27" s="29">
         <v>43043</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <f>DATEDIF(F27,I27,"d")</f>
         <v>10</v>
       </c>
@@ -3577,13 +3589,13 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28">
-        <v>2017</v>
+        <v>132</v>
+      </c>
+      <c r="F28" s="25">
+        <v>43042</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3591,9 +3603,9 @@
         <v>20</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="C29" s="31"/>
       <c r="F29">
         <v>2017</v>
       </c>
@@ -3603,10 +3615,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="33" t="s">
         <v>134</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -3617,10 +3629,10 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="33" t="s">
         <v>136</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>137</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -3631,7 +3643,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="32"/>
       <c r="F32">
@@ -3643,10 +3655,10 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="33" t="s">
         <v>139</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -3657,10 +3669,10 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="33" t="s">
         <v>141</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -3671,10 +3683,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="33" t="s">
         <v>143</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>144</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -3685,10 +3697,10 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="33" t="s">
         <v>145</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="F36">
         <v>2018</v>
@@ -3699,10 +3711,10 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="33" t="s">
         <v>147</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="F37">
         <v>2018</v>
@@ -3713,10 +3725,10 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="33" t="s">
         <v>149</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>150</v>
       </c>
       <c r="F38">
         <v>2018</v>
@@ -3727,10 +3739,10 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="33" t="s">
         <v>151</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>152</v>
       </c>
       <c r="F39">
         <v>2018</v>
@@ -3741,7 +3753,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" s="32"/>
       <c r="F40">
@@ -3753,7 +3765,7 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C41" s="32"/>
       <c r="F41">
@@ -3765,7 +3777,7 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C42" s="32"/>
       <c r="F42">
@@ -3777,10 +3789,10 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C43" s="33" t="s">
         <v>156</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="F43">
         <v>2019</v>
@@ -3791,10 +3803,10 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="33" t="s">
         <v>158</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="F44">
         <v>2019</v>
@@ -3830,25 +3842,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3886,7 +3898,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -3900,7 +3912,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -3915,7 +3927,7 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3953,7 +3965,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="26">
         <v>42982</v>
@@ -4144,76 +4156,76 @@
     </row>
     <row r="2" spans="2:25">
       <c r="B2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" t="s">
         <v>171</v>
       </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" t="s">
         <v>171</v>
       </c>
-      <c r="J2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" t="s">
         <v>170</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="O2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" t="s">
         <v>171</v>
       </c>
-      <c r="N2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" t="s">
-        <v>160</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="S2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" t="s">
         <v>171</v>
       </c>
-      <c r="R2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" t="s">
-        <v>160</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" t="s">
         <v>170</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="W2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" t="s">
         <v>171</v>
       </c>
-      <c r="V2" t="s">
-        <v>169</v>
-      </c>
-      <c r="W2" t="s">
-        <v>160</v>
-      </c>
-      <c r="X2" t="s">
-        <v>170</v>
-      </c>
       <c r="Y2" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -4400,7 +4412,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13">
         <v>35</v>
@@ -4552,115 +4564,115 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4698,31 +4710,31 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="J1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="P1" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4730,46 +4742,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4777,46 +4789,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4824,46 +4836,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4871,46 +4883,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -4918,46 +4930,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -4965,43 +4977,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -5009,40 +5021,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -5050,46 +5062,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -5097,46 +5109,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -5144,46 +5156,46 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="13:13">
@@ -5193,28 +5205,28 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="I14" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -5222,46 +5234,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -5269,46 +5281,46 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -5316,46 +5328,46 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -5363,46 +5375,46 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5410,46 +5422,46 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -5457,43 +5469,43 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -5501,40 +5513,40 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -5542,46 +5554,46 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -5589,46 +5601,46 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -5636,46 +5648,46 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -5693,8 +5705,8 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5704,7 +5716,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="6:6">
@@ -6096,12 +6108,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>-10</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -6111,9 +6121,6 @@
       <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P17" t="s">
         <v>36</v>
       </c>
@@ -6127,7 +6134,9 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>-10</v>
+      </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>348</v>
@@ -6135,10 +6144,13 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -6292,7 +6304,7 @@
         <v>44</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="9"/>
       <c r="P24" t="s">
@@ -6820,9 +6832,7 @@
         <v>36</v>
       </c>
       <c r="J47" s="13"/>
-      <c r="O47" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="O47" s="7"/>
       <c r="P47" t="s">
         <v>36</v>
       </c>
@@ -6839,10 +6849,10 @@
         <v>318</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -7539,12 +7549,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2">
-        <v>-10</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2">
         <f t="shared" si="3"/>
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -7554,9 +7562,6 @@
       <c r="J77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P77" t="s">
         <v>36</v>
       </c>
@@ -7570,7 +7575,9 @@
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2">
+        <v>-10</v>
+      </c>
       <c r="F78" s="2">
         <f t="shared" si="3"/>
         <v>348</v>
@@ -7578,10 +7585,13 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" t="s">
+        <v>37</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7735,7 +7745,7 @@
         <v>44</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K84" s="9"/>
       <c r="P84" t="s">
@@ -8278,10 +8288,10 @@
         <v>318</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P108" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:16">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="20205" windowHeight="12630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
   <si>
     <t>日期</t>
   </si>
@@ -565,6 +565,9 @@
     <t>超市电器</t>
   </si>
   <si>
+    <t>快客闵行一区</t>
+  </si>
+  <si>
     <t>服装百货</t>
   </si>
   <si>
@@ -586,6 +589,9 @@
     <t>联华超市铭诚店</t>
   </si>
   <si>
+    <t>宁波美丽缇娜美</t>
+  </si>
+  <si>
     <t>汽车消费</t>
   </si>
   <si>
@@ -644,6 +650,9 @@
   </si>
   <si>
     <t>上海市惠思慧酒店</t>
+  </si>
+  <si>
+    <t>上海松江区尚忆旅馆</t>
   </si>
   <si>
     <t>下卡顺序</t>
@@ -819,12 +828,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
@@ -915,6 +924,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -922,7 +938,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,38 +961,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -979,6 +986,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,6 +1035,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1005,8 +1051,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,44 +1062,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,13 +1095,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,13 +1191,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,121 +1275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,18 +1316,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1348,6 +1370,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1363,41 +1400,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,148 +1415,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2600,7 +2609,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3352,7 +3361,7 @@
         <v>43044</v>
       </c>
       <c r="J20" s="34">
-        <f>DATEDIF(F20,I20,"d")</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="K20" s="10">
@@ -4096,7 +4105,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4269,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -4285,13 +4294,37 @@
       <c r="Q4" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="R4">
+        <v>24</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="T4">
+        <v>15</v>
+      </c>
+      <c r="U4" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -4306,6 +4339,18 @@
       </c>
       <c r="Q6" s="20">
         <v>1</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6" s="20">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4549,130 +4594,136 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="3" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>173</v>
       </c>
       <c r="B1" t="s">
         <v>174</v>
       </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4710,28 +4761,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E1" t="s">
         <v>161</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
         <v>161</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -4742,43 +4793,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O2" t="s">
         <v>134</v>
@@ -4789,43 +4840,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O3" t="s">
         <v>136</v>
@@ -4836,43 +4887,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O4" t="s">
         <v>138</v>
@@ -4883,43 +4934,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O5" t="s">
         <v>139</v>
@@ -4930,43 +4981,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O6" t="s">
         <v>141</v>
@@ -4977,40 +5028,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
         <v>143</v>
@@ -5021,37 +5072,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O8" t="s">
         <v>145</v>
@@ -5062,25 +5113,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -5089,16 +5140,16 @@
         <v>121</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O9" t="s">
         <v>147</v>
@@ -5109,25 +5160,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>124</v>
@@ -5136,16 +5187,16 @@
         <v>125</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O10" t="s">
         <v>149</v>
@@ -5156,43 +5207,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O11" t="s">
         <v>151</v>
@@ -5205,25 +5256,25 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K14" t="s">
         <v>161</v>
@@ -5234,43 +5285,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O15" t="s">
         <v>134</v>
@@ -5281,43 +5332,43 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O16" t="s">
         <v>136</v>
@@ -5328,43 +5379,43 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O17" t="s">
         <v>138</v>
@@ -5375,43 +5426,43 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s">
         <v>139</v>
@@ -5422,43 +5473,43 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O19" t="s">
         <v>141</v>
@@ -5469,40 +5520,40 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s">
         <v>143</v>
@@ -5513,37 +5564,37 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I21" t="s">
         <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O21" t="s">
         <v>145</v>
@@ -5554,25 +5605,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>120</v>
@@ -5581,16 +5632,16 @@
         <v>121</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s">
         <v>147</v>
@@ -5601,25 +5652,25 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>124</v>
@@ -5628,16 +5679,16 @@
         <v>125</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
         <v>149</v>
@@ -5648,43 +5699,43 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
         <v>151</v>
@@ -5705,7 +5756,7 @@
   <sheetPr/>
   <dimension ref="A1:P212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
@@ -5716,7 +5767,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20205" windowHeight="12630" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262">
   <si>
     <t>日期</t>
   </si>
@@ -559,6 +559,48 @@
     <t>真实</t>
   </si>
   <si>
+    <t>CGB</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>HXB</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>ECITIC</t>
+  </si>
+  <si>
+    <t>CZB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>BOSH</t>
+  </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>BOCOM</t>
+  </si>
+  <si>
+    <t>CMBC</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
     <t>付临门</t>
   </si>
   <si>
@@ -628,6 +670,9 @@
     <t>上海市黄浦区琦米宠物</t>
   </si>
   <si>
+    <t>俪俪嫁衣店</t>
+  </si>
+  <si>
     <t>商业服务</t>
   </si>
   <si>
@@ -661,69 +706,42 @@
     <t>卡种</t>
   </si>
   <si>
-    <t>CMB</t>
-  </si>
-  <si>
     <t>黑羊</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>HXB</t>
-  </si>
-  <si>
     <t>小白</t>
   </si>
   <si>
     <t>JSB</t>
   </si>
   <si>
-    <t>CGB</t>
-  </si>
-  <si>
     <t>DIY金</t>
   </si>
   <si>
-    <t>CZB</t>
-  </si>
-  <si>
     <t>标准金</t>
   </si>
   <si>
     <t>EGK</t>
   </si>
   <si>
-    <t>BOC</t>
-  </si>
-  <si>
     <t>爱驾</t>
   </si>
   <si>
-    <t>CIB</t>
-  </si>
-  <si>
     <t>行悠白</t>
   </si>
   <si>
     <t>NCB</t>
   </si>
   <si>
-    <t>BOCOM</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
     <t>保险金</t>
   </si>
   <si>
     <t>HKBEA</t>
   </si>
   <si>
-    <t>CMBC</t>
-  </si>
-  <si>
     <t>IN金</t>
   </si>
   <si>
@@ -736,9 +754,6 @@
     <t>WZCB</t>
   </si>
   <si>
-    <t>CCB</t>
-  </si>
-  <si>
     <t>全球支付白</t>
   </si>
   <si>
@@ -754,9 +769,6 @@
     <t>TZB</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>QQ金</t>
   </si>
   <si>
@@ -769,9 +781,6 @@
     <t>NBCB</t>
   </si>
   <si>
-    <t>CEB</t>
-  </si>
-  <si>
     <t>龙腾白</t>
   </si>
   <si>
@@ -787,9 +796,6 @@
     <t>CBHB</t>
   </si>
   <si>
-    <t>ECITIC</t>
-  </si>
-  <si>
     <t>i白</t>
   </si>
   <si>
@@ -797,9 +803,6 @@
   </si>
   <si>
     <t>NJCB</t>
-  </si>
-  <si>
-    <t>BOSH</t>
   </si>
   <si>
     <t>降级普卡</t>
@@ -828,12 +831,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="31">
@@ -924,7 +927,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,16 +955,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,84 +992,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,7 +1010,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,7 +1048,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,7 +1098,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,97 +1248,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,73 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,39 +1326,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1381,6 +1351,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,148 +1418,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1642,7 +1645,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1651,7 +1654,7 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2008,7 +2011,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4102,10 +4105,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4239,7 +4242,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -4309,7 +4312,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="R5">
         <v>10</v>
@@ -4325,249 +4328,266 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
         <v>1</v>
       </c>
-      <c r="O6" s="24">
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="24">
         <v>0.01</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q7" s="20">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R7">
         <v>32</v>
       </c>
-      <c r="S6" s="24">
+      <c r="S7" s="24">
         <v>0.77</v>
       </c>
-      <c r="T6">
+      <c r="T7">
         <v>20</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U7" s="20">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9">
         <v>6</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O9" s="24">
         <v>0.25</v>
       </c>
-      <c r="P8">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q9" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
-      </c>
-      <c r="G11" s="24">
-        <v>0.96</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11" s="20">
-        <v>18</v>
-      </c>
-      <c r="J11">
-        <v>41</v>
-      </c>
-      <c r="K11" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="L11">
-        <v>24</v>
-      </c>
-      <c r="M11" s="20">
-        <v>24</v>
-      </c>
-      <c r="N11">
-        <v>11</v>
-      </c>
-      <c r="O11" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>182</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12" s="20">
+        <v>18</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="K12" s="24">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M12" s="20">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N12">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="O12" s="24">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="P12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="20">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K13" s="24">
-        <v>0.11</v>
+        <v>0.84</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M13" s="20">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="O13" s="24">
-        <v>0.92</v>
+        <v>0.12</v>
       </c>
       <c r="P13">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="20">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="K14" s="24">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M14" s="20">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O14" s="24">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="20">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
+      <c r="K15" s="24">
+        <v>0.14</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15" s="20">
+        <v>4</v>
+      </c>
       <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16">
         <v>23</v>
       </c>
-      <c r="O15" s="24">
+      <c r="O16" s="24">
         <v>0.56</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>20</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q16" s="20">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="21">
+    <row r="17" spans="1:25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="21">
         <v>43282</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="21">
         <v>43313</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="21">
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21">
         <v>43344</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="21">
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="21">
         <v>43374</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="21">
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="21">
         <v>43405</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="21">
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="21">
         <v>43435</v>
       </c>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="23"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4577,12 +4597,12 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4595,7 +4615,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4606,124 +4626,127 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4761,28 +4784,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E1" t="s">
         <v>161</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
         <v>161</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -4793,43 +4816,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="O2" t="s">
         <v>134</v>
@@ -4840,43 +4863,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="O3" t="s">
         <v>136</v>
@@ -4887,43 +4910,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O4" t="s">
         <v>138</v>
@@ -4934,43 +4957,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O5" t="s">
         <v>139</v>
@@ -4981,43 +5004,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O6" t="s">
         <v>141</v>
@@ -5028,40 +5051,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O7" t="s">
         <v>143</v>
@@ -5072,37 +5095,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O8" t="s">
         <v>145</v>
@@ -5113,25 +5136,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -5140,16 +5163,16 @@
         <v>121</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O9" t="s">
         <v>147</v>
@@ -5160,25 +5183,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>124</v>
@@ -5187,16 +5210,16 @@
         <v>125</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O10" t="s">
         <v>149</v>
@@ -5207,43 +5230,43 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O11" t="s">
         <v>151</v>
@@ -5256,25 +5279,25 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
         <v>161</v>
@@ -5285,43 +5308,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="O15" t="s">
         <v>134</v>
@@ -5332,43 +5355,43 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="O16" t="s">
         <v>136</v>
@@ -5379,43 +5402,43 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O17" t="s">
         <v>138</v>
@@ -5426,43 +5449,43 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O18" t="s">
         <v>139</v>
@@ -5473,43 +5496,43 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O19" t="s">
         <v>141</v>
@@ -5520,40 +5543,40 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O20" t="s">
         <v>143</v>
@@ -5564,37 +5587,37 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
         <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s">
         <v>145</v>
@@ -5605,25 +5628,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>120</v>
@@ -5632,16 +5655,16 @@
         <v>121</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O22" t="s">
         <v>147</v>
@@ -5652,25 +5675,25 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>124</v>
@@ -5679,16 +5702,16 @@
         <v>125</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
         <v>149</v>
@@ -5699,43 +5722,43 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O24" t="s">
         <v>151</v>
@@ -5767,7 +5790,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,326 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>YWD</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">“自选商户类型三倍积分”商户类型具体为：（括号内数字为商户类别码，即MCC）餐饮娱乐类包括就餐场所和餐馆（5812）、快餐店（5814）、饮酒场所（酒吧、酒馆、夜总会、鸡尾酒大厅、迪斯科舞厅）（5813）、歌舞厅（7911）、大型游戏机和游戏场所（7994）、游乐园、马戏团、嘉年华、占卜（7996）、戏剧制片（不含电影）、演出和票务（7922）、电影院（7832）；购物类包括大型仓储式超级市场（5411）、大型仓储式家庭用品卖场（5200）、百货商店（5311）、电子设备、家用电器商店（5732）、体育用品店（5941）、化妆品商店（5977）、美容理发店（7230）、保健及美容SPA（7298）；旅行类包括住宿服务（旅馆、酒店、汽车旅馆、度假村等）（7011）、运动和娱乐露营地（7032）、铁路客运（4112）、航空公司（4511）、旅行社（4722）、机场服务（4582）、轮船及巡游航线服务（4411）、汽车出租（7512）、旅游与展览（7991）、旅游相关服务直销（5962）。 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>YWD</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5411</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5661</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5511</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5411 0.38 无积分</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5811</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5812</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5813</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5813</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+7911</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5813</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+7011</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5137</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5812</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
   <si>
     <t>日期</t>
   </si>
@@ -553,10 +871,7 @@
     <t>笔数</t>
   </si>
   <si>
-    <t>网付</t>
-  </si>
-  <si>
-    <t>真实</t>
+    <t>线下</t>
   </si>
   <si>
     <t>CGB</t>
@@ -595,6 +910,9 @@
     <t>BOCOM</t>
   </si>
   <si>
+    <t>PSBC</t>
+  </si>
+  <si>
     <t>CMBC</t>
   </si>
   <si>
@@ -610,6 +928,9 @@
     <t>快客闵行一区</t>
   </si>
   <si>
+    <t>联华超市名门店</t>
+  </si>
+  <si>
     <t>服装百货</t>
   </si>
   <si>
@@ -619,6 +940,9 @@
     <t>屹久食品店（喜士多）</t>
   </si>
   <si>
+    <t>萧山义蓬良玉鞋店</t>
+  </si>
+  <si>
     <t>酒店餐饮</t>
   </si>
   <si>
@@ -640,6 +964,9 @@
     <t>上豪摩托车公司</t>
   </si>
   <si>
+    <t>粤通汽车</t>
+  </si>
+  <si>
     <t>随行付</t>
   </si>
   <si>
@@ -649,6 +976,9 @@
     <t>百货销售</t>
   </si>
   <si>
+    <t>上海市每日鲜便利店</t>
+  </si>
+  <si>
     <t>餐饮业</t>
   </si>
   <si>
@@ -664,6 +994,9 @@
     <t>上海小山东小饭店</t>
   </si>
   <si>
+    <t>上海燕鸿餐饮服务</t>
+  </si>
+  <si>
     <t>服装日用</t>
   </si>
   <si>
@@ -673,9 +1006,15 @@
     <t>俪俪嫁衣店</t>
   </si>
   <si>
+    <t>上海徐汇区以纯服装</t>
+  </si>
+  <si>
     <t>商业服务</t>
   </si>
   <si>
+    <t>上海和效企业咨询</t>
+  </si>
+  <si>
     <t>食品饮料烟草</t>
   </si>
   <si>
@@ -688,6 +1027,12 @@
     <t>上海市杨浦区天乐酒吧</t>
   </si>
   <si>
+    <t>上海浦东紫薇卡拉OK</t>
+  </si>
+  <si>
+    <t>你和我咖啡</t>
+  </si>
+  <si>
     <t>住宿业</t>
   </si>
   <si>
@@ -700,6 +1045,141 @@
     <t>上海松江区尚忆旅馆</t>
   </si>
   <si>
+    <t>乐刷</t>
+  </si>
+  <si>
+    <t>批发</t>
+  </si>
+  <si>
+    <t>江干区丽琴服装店</t>
+  </si>
+  <si>
+    <t>百货</t>
+  </si>
+  <si>
+    <t>杭州银豪百货商店</t>
+  </si>
+  <si>
+    <t>餐饮</t>
+  </si>
+  <si>
+    <t>江干区鱼禾餐厅</t>
+  </si>
+  <si>
+    <t>酒吧</t>
+  </si>
+  <si>
+    <t>皇后酒吧</t>
+  </si>
+  <si>
+    <t>歌舞厅</t>
+  </si>
+  <si>
+    <t>西湖区流情娱乐厅</t>
+  </si>
+  <si>
+    <t>珠宝</t>
+  </si>
+  <si>
+    <t>永福珠宝店</t>
+  </si>
+  <si>
+    <t>珠宝工艺</t>
+  </si>
+  <si>
+    <t>生意批发</t>
+  </si>
+  <si>
+    <t>男女儿童服装批发</t>
+  </si>
+  <si>
+    <t>无积分</t>
+  </si>
+  <si>
+    <t>日用百货</t>
+  </si>
+  <si>
+    <t>百货商店</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>大型超级市场</t>
+  </si>
+  <si>
+    <t>工商银行 中国银行</t>
+  </si>
+  <si>
+    <t>无积分（中信有）</t>
+  </si>
+  <si>
+    <t>房产汽车</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>交通-加油</t>
+  </si>
+  <si>
+    <t>加油站</t>
+  </si>
+  <si>
+    <t>男服装</t>
+  </si>
+  <si>
+    <t>鞋店</t>
+  </si>
+  <si>
+    <t>快餐</t>
+  </si>
+  <si>
+    <t>包办伙食</t>
+  </si>
+  <si>
+    <t>大型宴会</t>
+  </si>
+  <si>
+    <t>餐饮-大型宴会</t>
+  </si>
+  <si>
+    <t>甜点饮品</t>
+  </si>
+  <si>
+    <t>饮酒场所</t>
+  </si>
+  <si>
+    <t>文具办公用品</t>
+  </si>
+  <si>
+    <t>宾馆住宿</t>
+  </si>
+  <si>
+    <t>娱乐-宾馆住宿</t>
+  </si>
+  <si>
+    <t>运动保健</t>
+  </si>
+  <si>
+    <t>洗浴按摩</t>
+  </si>
+  <si>
+    <t>保健美容SPA</t>
+  </si>
+  <si>
+    <t>一般服务</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>电影演出</t>
+  </si>
+  <si>
     <t>下卡顺序</t>
   </si>
   <si>
@@ -743,9 +1223,6 @@
   </si>
   <si>
     <t>IN金</t>
-  </si>
-  <si>
-    <t>PSBC</t>
   </si>
   <si>
     <t>鼎雅白</t>
@@ -831,15 +1308,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +1381,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,30 +1423,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,14 +1456,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +1469,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,9 +1498,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,32 +1531,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,7 +1546,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,9 +1560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1098,7 +1595,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,67 +1751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,103 +1769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,8 +1816,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,39 +1871,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1384,6 +1881,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,17 +1910,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1421,149 +1918,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1624,6 +2121,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1635,6 +2156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1648,28 +2175,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2010,8 +2537,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2027,7 +2554,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2036,26 +2563,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="48"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="37">
+      <c r="A2" s="47">
         <v>43026</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -2064,29 +2591,29 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="37"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="A3" s="47"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="48"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2183,7 +2710,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="27"/>
+      <c r="D11" s="37"/>
       <c r="E11" t="s">
         <v>24</v>
       </c>
@@ -2201,9 +2728,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
       <c r="E12" t="s">
         <v>27</v>
       </c>
@@ -2219,9 +2746,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -2230,9 +2757,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -2244,9 +2771,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
@@ -2259,9 +2786,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -2277,9 +2804,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -2297,9 +2824,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" t="s">
         <v>36</v>
       </c>
@@ -2314,9 +2841,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" t="s">
         <v>37</v>
       </c>
@@ -2328,9 +2855,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -2342,9 +2869,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
@@ -2359,9 +2886,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -2372,9 +2899,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" t="s">
         <v>42</v>
       </c>
@@ -2385,9 +2912,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" t="s">
         <v>43</v>
       </c>
@@ -2404,9 +2931,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" t="s">
         <v>44</v>
       </c>
@@ -2419,9 +2946,9 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
       <c r="E26" t="s">
         <v>45</v>
       </c>
@@ -2436,9 +2963,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" t="s">
         <v>46</v>
       </c>
@@ -2453,9 +2980,9 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" t="s">
         <v>47</v>
       </c>
@@ -2479,9 +3006,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" t="s">
         <v>48</v>
       </c>
@@ -2499,9 +3026,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" t="s">
         <v>49</v>
       </c>
@@ -2513,9 +3040,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" t="s">
         <v>50</v>
       </c>
@@ -2527,9 +3054,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" t="s">
         <v>51</v>
       </c>
@@ -2538,9 +3065,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" t="s">
         <v>52</v>
       </c>
@@ -2549,50 +3076,50 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2612,7 +3139,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2630,11 +3157,11 @@
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="6" style="19" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="35" customWidth="1"/>
     <col min="16" max="16" width="6.625" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="35" customWidth="1"/>
     <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2666,7 +3193,7 @@
       <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="43" t="s">
         <v>65</v>
       </c>
       <c r="L1" t="s">
@@ -2693,19 +3220,19 @@
       <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="35">
         <v>42227</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="35">
         <v>42241</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="44">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -2731,19 +3258,19 @@
       <c r="E3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="35">
         <v>42948</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="37" t="s">
         <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="35">
         <v>42956</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="44">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -2767,19 +3294,19 @@
       <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="35">
         <v>42951</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="35">
         <v>42965</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="44">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -2792,7 +3319,7 @@
       <c r="M4" s="19">
         <v>9862</v>
       </c>
-      <c r="T4" s="27"/>
+      <c r="T4" s="37"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="9"/>
@@ -2805,21 +3332,21 @@
       <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="35">
         <v>43041</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="44"/>
       <c r="M5" s="19">
         <v>7012</v>
       </c>
-      <c r="T5" s="27"/>
+      <c r="T5" s="37"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="9"/>
@@ -2832,15 +3359,15 @@
       <c r="E6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="44"/>
       <c r="M6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="27"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
@@ -2858,19 +3385,19 @@
       <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="35">
         <v>42951</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="35">
         <v>42965</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="44">
         <f>DATEDIF(F7,I7,"d")</f>
         <v>14</v>
       </c>
@@ -2895,17 +3422,17 @@
       <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="35">
         <v>43035</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
@@ -2923,19 +3450,19 @@
       <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="35">
         <v>42957</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="35">
         <v>42982</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="44">
         <f>DATEDIF(F9,I9,"d")</f>
         <v>25</v>
       </c>
@@ -2948,7 +3475,7 @@
       <c r="M9" s="19">
         <v>4774</v>
       </c>
-      <c r="T9" s="27"/>
+      <c r="T9" s="37"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -2966,19 +3493,19 @@
       <c r="E10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="35">
         <v>42965</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="35">
         <v>42980</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="44">
         <f>DATEDIF(F10,I10,"d")</f>
         <v>15</v>
       </c>
@@ -2991,7 +3518,7 @@
       <c r="M10" s="19">
         <v>4481</v>
       </c>
-      <c r="T10" s="27"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="10"/>
@@ -3004,17 +3531,17 @@
       <c r="E11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="35">
         <v>43038</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="34"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="44"/>
       <c r="M11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="27"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -3032,19 +3559,19 @@
       <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="35">
         <v>42984</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="35">
         <v>42996</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="44">
         <f t="shared" ref="J12:J25" si="0">DATEDIF(F12,I12,"d")</f>
         <v>12</v>
       </c>
@@ -3057,7 +3584,7 @@
       <c r="M12" s="19">
         <v>3523</v>
       </c>
-      <c r="T12" s="27"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="10"/>
@@ -3070,15 +3597,15 @@
       <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="44"/>
       <c r="M13" s="19">
         <v>3527</v>
       </c>
-      <c r="T13" s="27"/>
+      <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
@@ -3096,19 +3623,19 @@
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="35">
         <v>42984</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="35">
         <v>42999</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3121,7 +3648,7 @@
       <c r="M14" s="19">
         <v>6804</v>
       </c>
-      <c r="T14" s="27"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
@@ -3139,19 +3666,19 @@
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="35">
         <v>42986</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="35">
         <v>43014</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="44">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3164,7 +3691,7 @@
       <c r="M15" s="19">
         <v>1259</v>
       </c>
-      <c r="T15" s="27"/>
+      <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
@@ -3182,19 +3709,19 @@
       <c r="E16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="35">
         <v>42990</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="35">
         <v>43000</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3207,7 +3734,7 @@
       <c r="M16" s="19">
         <v>3190</v>
       </c>
-      <c r="T16" s="27"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
@@ -3225,19 +3752,19 @@
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="35">
         <v>43000</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="35">
         <v>43035</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="44">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3267,19 +3794,19 @@
       <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="35">
         <v>43003</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="35">
         <v>43024</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="44">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3309,19 +3836,19 @@
       <c r="E19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="35">
         <v>43005</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="35">
         <v>43042</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3351,7 +3878,7 @@
       <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="35">
         <v>43017</v>
       </c>
       <c r="G20" t="s">
@@ -3360,10 +3887,10 @@
       <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="35">
         <v>43044</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="44">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3387,11 +3914,11 @@
       <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="44"/>
       <c r="M21" s="19">
         <v>1867</v>
       </c>
@@ -3412,7 +3939,7 @@
       <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="35">
         <v>43018</v>
       </c>
       <c r="G22" t="s">
@@ -3421,10 +3948,10 @@
       <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="35">
         <v>43029</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="44">
         <f>DATEDIF(F22,I22,"d")</f>
         <v>11</v>
       </c>
@@ -3448,11 +3975,11 @@
       <c r="E23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="44"/>
       <c r="M23" s="19">
         <v>7563</v>
       </c>
@@ -3473,7 +4000,7 @@
       <c r="E24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="35">
         <v>43018</v>
       </c>
       <c r="G24" t="s">
@@ -3482,10 +4009,10 @@
       <c r="H24" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="35">
         <v>43026</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="44">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
@@ -3506,28 +4033,28 @@
       <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="39">
         <v>43031</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="39">
         <v>43039</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="45">
         <f>DATEDIF(F25,I25,"d")</f>
         <v>8</v>
       </c>
@@ -3539,28 +4066,28 @@
       <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="39">
         <v>43033</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I26" s="39">
         <v>43037</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="45">
         <f>DATEDIF(F26,I26,"d")</f>
         <v>4</v>
       </c>
@@ -3572,26 +4099,26 @@
       <c r="B27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29">
+      <c r="E27" s="38"/>
+      <c r="F27" s="39">
         <v>43033</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="39">
         <v>43043</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="45">
         <f>DATEDIF(F27,I27,"d")</f>
         <v>10</v>
       </c>
@@ -3606,7 +4133,7 @@
       <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="35">
         <v>43042</v>
       </c>
     </row>
@@ -3617,7 +4144,7 @@
       <c r="B29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="41"/>
       <c r="F29">
         <v>2017</v>
       </c>
@@ -3629,7 +4156,7 @@
       <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="42" t="s">
         <v>135</v>
       </c>
       <c r="F30">
@@ -3643,7 +4170,7 @@
       <c r="B31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="42" t="s">
         <v>137</v>
       </c>
       <c r="F31">
@@ -3657,7 +4184,7 @@
       <c r="B32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="42"/>
       <c r="F32">
         <v>2018</v>
       </c>
@@ -3669,7 +4196,7 @@
       <c r="B33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="42" t="s">
         <v>140</v>
       </c>
       <c r="F33">
@@ -3683,7 +4210,7 @@
       <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="42" t="s">
         <v>142</v>
       </c>
       <c r="F34">
@@ -3697,7 +4224,7 @@
       <c r="B35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="42" t="s">
         <v>144</v>
       </c>
       <c r="F35">
@@ -3711,7 +4238,7 @@
       <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="42" t="s">
         <v>146</v>
       </c>
       <c r="F36">
@@ -3725,7 +4252,7 @@
       <c r="B37" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F37">
@@ -3739,7 +4266,7 @@
       <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="42" t="s">
         <v>150</v>
       </c>
       <c r="F38">
@@ -3753,7 +4280,7 @@
       <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="42" t="s">
         <v>152</v>
       </c>
       <c r="F39">
@@ -3767,7 +4294,7 @@
       <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="32"/>
+      <c r="C40" s="42"/>
       <c r="F40">
         <v>2019</v>
       </c>
@@ -3779,7 +4306,7 @@
       <c r="B41" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="42"/>
       <c r="F41">
         <v>2019</v>
       </c>
@@ -3791,7 +4318,7 @@
       <c r="B42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="42"/>
       <c r="F42">
         <v>2019</v>
       </c>
@@ -3803,7 +4330,7 @@
       <c r="B43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="42" t="s">
         <v>157</v>
       </c>
       <c r="F43">
@@ -3817,7 +4344,7 @@
       <c r="B44" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="42" t="s">
         <v>159</v>
       </c>
       <c r="F44">
@@ -3825,11 +4352,12 @@
       </c>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="25"/>
+      <c r="F58" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3853,7 +4381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="35" t="s">
         <v>160</v>
       </c>
       <c r="C1" t="s">
@@ -3879,7 +4407,7 @@
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="36">
         <v>42241</v>
       </c>
       <c r="C2" s="10">
@@ -3887,10 +4415,10 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="25">
+      <c r="B3" s="35">
         <v>42956</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="34"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -3899,10 +4427,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="25">
+      <c r="B4" s="35">
         <v>42998</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="34"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -3914,13 +4442,13 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="25">
+      <c r="B5" s="35">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="34">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
@@ -3928,10 +4456,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="25">
+      <c r="B6" s="35">
         <v>43032</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="34"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -3946,7 +4474,7 @@
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="36">
         <v>42965</v>
       </c>
       <c r="C7" s="10">
@@ -3957,7 +4485,7 @@
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="36">
         <v>42965</v>
       </c>
       <c r="C8" s="10">
@@ -3968,7 +4496,7 @@
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="36">
         <v>42980</v>
       </c>
       <c r="C9" s="10">
@@ -3979,7 +4507,7 @@
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="36">
         <v>42982</v>
       </c>
       <c r="C10" s="10">
@@ -3990,7 +4518,7 @@
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="36">
         <v>42996</v>
       </c>
       <c r="C11" s="10">
@@ -4001,7 +4529,7 @@
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="36">
         <v>42999</v>
       </c>
       <c r="C12" s="10">
@@ -4012,7 +4540,7 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="36">
         <v>43000</v>
       </c>
       <c r="C13" s="10">
@@ -4023,7 +4551,7 @@
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="36">
         <v>43014</v>
       </c>
       <c r="C14" s="10">
@@ -4034,7 +4562,7 @@
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="36">
         <v>43024</v>
       </c>
       <c r="C15" s="10">
@@ -4045,7 +4573,7 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="36">
         <v>43026</v>
       </c>
       <c r="C16" s="10">
@@ -4056,7 +4584,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="36">
         <v>43029</v>
       </c>
       <c r="C17" s="10">
@@ -4067,7 +4595,7 @@
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="36">
         <v>43035</v>
       </c>
       <c r="C18" s="10">
@@ -4078,7 +4606,7 @@
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="36">
         <v>43042</v>
       </c>
       <c r="C19" s="10">
@@ -4089,7 +4617,7 @@
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="36">
         <v>43044</v>
       </c>
       <c r="C20" s="10">
@@ -4105,504 +4633,653 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="4" width="4.625" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="20" customWidth="1"/>
-    <col min="6" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="4.625" style="20" customWidth="1"/>
-    <col min="10" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="20" customWidth="1"/>
-    <col min="14" max="16" width="4.625" customWidth="1"/>
-    <col min="17" max="17" width="4.625" style="20" customWidth="1"/>
-    <col min="18" max="20" width="4.625" customWidth="1"/>
-    <col min="21" max="21" width="4.625" style="20" customWidth="1"/>
-    <col min="22" max="24" width="4.625" customWidth="1"/>
-    <col min="25" max="25" width="4.625" style="20" customWidth="1"/>
-    <col min="26" max="75" width="4.625" customWidth="1"/>
+    <col min="2" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="28" customWidth="1"/>
+    <col min="5" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="28" customWidth="1"/>
+    <col min="8" max="9" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="28" customWidth="1"/>
+    <col min="11" max="12" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="28" customWidth="1"/>
+    <col min="14" max="15" width="4.625" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="28" customWidth="1"/>
+    <col min="17" max="18" width="4.625" customWidth="1"/>
+    <col min="19" max="19" width="4.625" style="28" customWidth="1"/>
+    <col min="20" max="69" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
-      <c r="B1" s="21">
+    <row r="1" spans="2:19">
+      <c r="B1" s="29">
         <v>42917</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="29">
         <v>42948</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21">
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="29">
         <v>42979</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21">
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="29">
         <v>43009</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="21">
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="29">
         <v>43040</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="21">
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="29">
         <v>43070</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="23"/>
-    </row>
-    <row r="2" spans="2:25">
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>170</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>161</v>
       </c>
       <c r="H2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" t="s">
         <v>170</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="N2" t="s">
         <v>170</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P2" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="R2" t="s">
-        <v>170</v>
-      </c>
-      <c r="S2" t="s">
-        <v>161</v>
-      </c>
-      <c r="T2" t="s">
-        <v>171</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="V2" t="s">
-        <v>170</v>
-      </c>
-      <c r="W2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="9" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="28"/>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="32">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3" s="32">
+        <v>5</v>
+      </c>
+      <c r="M3" s="33">
+        <v>0.56</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3" s="32">
+        <v>4</v>
+      </c>
+      <c r="P3" s="33">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J3">
+      <c r="F4" s="32"/>
+      <c r="G4" s="28"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="28"/>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="32">
+        <v>1</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4" s="32">
+        <v>9</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="28"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="28"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="28"/>
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="K3" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
-      <c r="M3" s="20">
-        <v>7</v>
-      </c>
-      <c r="N3">
+      <c r="O5" s="32">
+        <v>5</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="28"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="28"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="28"/>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="32">
+        <v>1</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="28"/>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="32">
+        <v>1</v>
+      </c>
+      <c r="M7" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="N7">
+        <v>32</v>
+      </c>
+      <c r="O7" s="32">
+        <v>12</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="28"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="28"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="28"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="28"/>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" s="32">
+        <v>5</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="32"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="28"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="28"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="28"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="28"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="28"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="28"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.96</v>
+      </c>
+      <c r="H12">
+        <v>41</v>
+      </c>
+      <c r="I12" s="32">
+        <v>17</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.74</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12" s="32">
+        <v>11</v>
+      </c>
+      <c r="M12" s="33">
+        <v>0.31</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="28"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12" s="32"/>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="28"/>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" s="32">
+        <v>4</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.84</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+      <c r="L13" s="32">
+        <v>3</v>
+      </c>
+      <c r="M13" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="28"/>
+      <c r="AA13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13"/>
+      <c r="AL13" s="34"/>
+      <c r="AM13" s="32"/>
+      <c r="AP13" s="32"/>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="28"/>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14" s="32">
+        <v>11</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="28"/>
+      <c r="AA14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="32"/>
+      <c r="AP14" s="32"/>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="28"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="33"/>
+      <c r="AA15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="32"/>
+      <c r="AP15" s="32"/>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="28"/>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="32">
+        <v>2</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0.14</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16" s="32">
+        <v>11</v>
+      </c>
+      <c r="M16" s="33">
+        <v>0.93</v>
+      </c>
+      <c r="AA16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="32"/>
+      <c r="AP16" s="32"/>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="28"/>
+      <c r="K17">
         <v>23</v>
       </c>
-      <c r="O3" s="24">
+      <c r="L17" s="32">
+        <v>3</v>
+      </c>
+      <c r="M17" s="33">
         <v>0.56</v>
       </c>
-      <c r="P3">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>16</v>
-      </c>
-      <c r="R3">
-        <v>9</v>
-      </c>
-      <c r="S3" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-      <c r="U3" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>24</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="T4">
-        <v>15</v>
-      </c>
-      <c r="U4" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0.17</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>32</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0.77</v>
-      </c>
-      <c r="T7">
-        <v>20</v>
-      </c>
-      <c r="U7" s="20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12">
-        <v>19</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0.96</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
-      <c r="I12" s="20">
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <v>41</v>
-      </c>
-      <c r="K12" s="24">
-        <v>0.74</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
-      <c r="M12" s="20">
-        <v>24</v>
-      </c>
-      <c r="N12">
-        <v>11</v>
-      </c>
-      <c r="O12" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13">
-        <v>8</v>
-      </c>
-      <c r="K13" s="24">
-        <v>0.84</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13" s="20">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>28</v>
-      </c>
-      <c r="O13" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="P13">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14">
-        <v>35</v>
-      </c>
-      <c r="K14" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="L14">
-        <v>35</v>
-      </c>
-      <c r="M14" s="20">
-        <v>35</v>
-      </c>
-      <c r="N14">
-        <v>18</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0.92</v>
-      </c>
-      <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0.14</v>
-      </c>
-      <c r="L15">
-        <v>4</v>
-      </c>
-      <c r="M15" s="20">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>12</v>
-      </c>
-      <c r="O15" s="24">
-        <v>0.93</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="N16">
-        <v>23</v>
-      </c>
-      <c r="O16" s="24">
-        <v>0.56</v>
-      </c>
-      <c r="P16">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="21">
+      <c r="AA17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="32"/>
+      <c r="AP17" s="32"/>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="9"/>
+      <c r="B18" s="29">
         <v>43282</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="21">
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29">
         <v>43313</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="21">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29">
         <v>43344</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="21">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="29">
         <v>43374</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="21">
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="29">
         <v>43405</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="21">
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="29">
         <v>43435</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="23"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="AA18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AP18" s="32"/>
+    </row>
+    <row r="19" spans="27:42">
+      <c r="AA19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AP19" s="32"/>
+    </row>
+    <row r="20" spans="27:42">
+      <c r="AA20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AP20" s="32"/>
+    </row>
+    <row r="21" spans="27:42">
+      <c r="AA21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AP21" s="32"/>
+    </row>
+    <row r="22" spans="27:42">
+      <c r="AA22" s="32"/>
+      <c r="AB22"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AP22" s="32"/>
+    </row>
+    <row r="23" spans="27:42">
+      <c r="AA23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AP23" s="32"/>
+    </row>
+    <row r="24" spans="27:42">
+      <c r="AA24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AP24" s="32"/>
+    </row>
+    <row r="25" spans="27:42">
+      <c r="AA25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="32"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AP25" s="32"/>
+    </row>
+    <row r="26" spans="27:42">
+      <c r="AA26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AP26" s="32"/>
+    </row>
+    <row r="27" spans="27:42">
+      <c r="AA27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AP27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="Q18:S18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4612,19 +5289,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="9" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="10" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -4634,124 +5312,427 @@
       <c r="C1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="2:4">
+      <c r="D1" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>205</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>211</v>
+        <v>217</v>
+      </c>
+      <c r="C11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>5094</v>
+      </c>
+      <c r="B31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" s="20" customFormat="1" spans="1:6">
+      <c r="A32" s="20">
+        <v>5137</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>5311</v>
+      </c>
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:3">
+      <c r="A34">
+        <v>5399</v>
+      </c>
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" s="21" customFormat="1" spans="1:6">
+      <c r="A35" s="21">
+        <v>5411</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" s="20" customFormat="1" spans="1:6">
+      <c r="A36" s="20">
+        <v>5511</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" s="20" customFormat="1" spans="1:6">
+      <c r="A37" s="20">
+        <v>5541</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="20">
+        <v>0.38</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" s="22" customFormat="1" spans="1:6">
+      <c r="A38" s="22">
+        <v>5611</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" s="22" customFormat="1" spans="1:6">
+      <c r="A39" s="22">
+        <v>5661</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" s="23" customFormat="1" spans="1:6">
+      <c r="A40" s="23">
+        <v>5811</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5812</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5813</v>
+      </c>
+      <c r="B42" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>5943</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>7011</v>
+      </c>
+      <c r="B44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>7297</v>
+      </c>
+      <c r="B45" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>7298</v>
+      </c>
+      <c r="B46" t="s">
+        <v>268</v>
+      </c>
+      <c r="C46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>7392</v>
+      </c>
+      <c r="B47" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>7911</v>
+      </c>
+      <c r="B48" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4761,7 +5742,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4784,28 +5765,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
         <v>161</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K1" t="s">
         <v>161</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -4816,43 +5797,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
         <v>134</v>
@@ -4863,43 +5844,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="O3" t="s">
         <v>136</v>
@@ -4910,43 +5891,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="O4" t="s">
         <v>138</v>
@@ -4957,43 +5938,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="O5" t="s">
         <v>139</v>
@@ -5010,37 +5991,37 @@
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="O6" t="s">
         <v>141</v>
@@ -5057,34 +6038,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="O7" t="s">
         <v>143</v>
@@ -5095,37 +6076,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="O8" t="s">
         <v>145</v>
@@ -5136,25 +6117,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -5163,16 +6144,16 @@
         <v>121</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L9" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="O9" t="s">
         <v>147</v>
@@ -5183,25 +6164,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>124</v>
@@ -5210,16 +6191,16 @@
         <v>125</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L10" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="O10" t="s">
         <v>149</v>
@@ -5230,74 +6211,69 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L11" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="O11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="13:13">
-      <c r="M12">
-        <v>25</v>
-      </c>
-    </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="E14" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="K14" t="s">
         <v>161</v>
@@ -5308,19 +6284,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -5332,19 +6308,19 @@
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="O15" t="s">
         <v>134</v>
@@ -5355,19 +6331,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -5379,19 +6355,19 @@
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="O16" t="s">
         <v>136</v>
@@ -5402,43 +6378,43 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="O17" t="s">
         <v>138</v>
@@ -5449,43 +6425,43 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="O18" t="s">
         <v>139</v>
@@ -5496,43 +6472,43 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="O19" t="s">
         <v>141</v>
@@ -5543,40 +6519,40 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="I20" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="O20" t="s">
         <v>143</v>
@@ -5587,37 +6563,37 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="I21" t="s">
         <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="O21" t="s">
         <v>145</v>
@@ -5628,25 +6604,25 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>120</v>
@@ -5655,16 +6631,16 @@
         <v>121</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="O22" t="s">
         <v>147</v>
@@ -5675,25 +6651,25 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>124</v>
@@ -5702,16 +6678,16 @@
         <v>125</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="O23" t="s">
         <v>149</v>
@@ -5722,43 +6698,43 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="O24" t="s">
         <v>151</v>
@@ -5790,7 +6766,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -333,12 +333,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5812</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5094</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5970</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>日期</t>
   </si>
@@ -976,13 +1042,13 @@
     <t>百货销售</t>
   </si>
   <si>
-    <t>上海市每日鲜便利店</t>
+    <t>每日鲜便利店</t>
   </si>
   <si>
     <t>餐饮业</t>
   </si>
   <si>
-    <t>上海市北乡缘小吃快餐</t>
+    <t>北乡缘小吃快餐</t>
   </si>
   <si>
     <t>上海浩楠餐饮服务</t>
@@ -1000,7 +1066,7 @@
     <t>服装日用</t>
   </si>
   <si>
-    <t>上海市黄浦区琦米宠物</t>
+    <t>黄浦区琦米宠物</t>
   </si>
   <si>
     <t>俪俪嫁衣店</t>
@@ -1024,7 +1090,7 @@
     <t>休闲娱乐</t>
   </si>
   <si>
-    <t>上海市杨浦区天乐酒吧</t>
+    <t>杨浦区天乐酒吧</t>
   </si>
   <si>
     <t>上海浦东紫薇卡拉OK</t>
@@ -1036,7 +1102,7 @@
     <t>住宿业</t>
   </si>
   <si>
-    <t>上海市星豪岛住宿宾馆</t>
+    <t>星豪岛住宿宾馆</t>
   </si>
   <si>
     <t>上海市惠思慧酒店</t>
@@ -1066,6 +1132,9 @@
     <t>江干区鱼禾餐厅</t>
   </si>
   <si>
+    <t>上城区凯迪餐厅</t>
+  </si>
+  <si>
     <t>酒吧</t>
   </si>
   <si>
@@ -1078,13 +1147,16 @@
     <t>西湖区流情娱乐厅</t>
   </si>
   <si>
-    <t>珠宝</t>
+    <t>珠宝工艺</t>
   </si>
   <si>
     <t>永福珠宝店</t>
   </si>
   <si>
-    <t>珠宝工艺</t>
+    <t>吾道工艺品</t>
+  </si>
+  <si>
+    <t>珠宝首饰钟表</t>
   </si>
   <si>
     <t>生意批发</t>
@@ -1154,6 +1226,9 @@
   </si>
   <si>
     <t>文具办公用品</t>
+  </si>
+  <si>
+    <t>工艺美术</t>
   </si>
   <si>
     <t>宾馆住宿</t>
@@ -1308,13 +1383,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1423,30 +1498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1461,6 +1512,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1469,7 +1536,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1491,31 +1572,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1523,22 +1581,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,6 +1596,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -1560,10 +1634,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1595,13 +1670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,13 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1712,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,19 +1754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,13 +1772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,13 +1808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,37 +1832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,31 +1844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,15 +1893,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,6 +1962,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1918,10 +1993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1930,137 +2005,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,22 +2202,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -2172,7 +2235,7 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2181,7 +2244,7 @@
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2193,10 +2256,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2537,8 +2600,8 @@
   <sheetPr/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2554,7 +2617,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2563,26 +2626,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="44"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="47">
+      <c r="A2" s="43">
         <v>43026</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -2591,29 +2654,29 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="44"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="47"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="48"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="A3" s="43"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2710,7 +2773,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="37"/>
+      <c r="D11" s="33"/>
       <c r="E11" t="s">
         <v>24</v>
       </c>
@@ -2728,9 +2791,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" t="s">
         <v>27</v>
       </c>
@@ -2746,9 +2809,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -2757,9 +2820,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -2771,9 +2834,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
@@ -2786,9 +2849,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -2804,9 +2867,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -2824,9 +2887,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" t="s">
         <v>36</v>
       </c>
@@ -2841,9 +2904,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" t="s">
         <v>37</v>
       </c>
@@ -2855,9 +2918,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -2869,9 +2932,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
@@ -2886,9 +2949,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -2899,9 +2962,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" t="s">
         <v>42</v>
       </c>
@@ -2912,9 +2975,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" t="s">
         <v>43</v>
       </c>
@@ -2931,9 +2994,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" t="s">
         <v>44</v>
       </c>
@@ -2946,9 +3009,9 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" t="s">
         <v>45</v>
       </c>
@@ -2963,9 +3026,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" t="s">
         <v>46</v>
       </c>
@@ -2980,9 +3043,9 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" t="s">
         <v>47</v>
       </c>
@@ -3006,9 +3069,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" t="s">
         <v>48</v>
       </c>
@@ -3026,9 +3089,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" t="s">
         <v>49</v>
       </c>
@@ -3040,9 +3103,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" t="s">
         <v>50</v>
       </c>
@@ -3054,9 +3117,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" t="s">
         <v>51</v>
       </c>
@@ -3065,9 +3128,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" t="s">
         <v>52</v>
       </c>
@@ -3076,50 +3139,50 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3157,11 +3220,11 @@
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="6" style="19" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="31" customWidth="1"/>
     <col min="16" max="16" width="6.625" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="8.375" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="31" customWidth="1"/>
     <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3193,7 +3256,7 @@
       <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="39" t="s">
         <v>65</v>
       </c>
       <c r="L1" t="s">
@@ -3220,19 +3283,19 @@
       <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="31">
         <v>42227</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="31">
         <v>42241</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="40">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -3258,19 +3321,19 @@
       <c r="E3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="31">
         <v>42948</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="31">
         <v>42956</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="40">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
@@ -3294,19 +3357,19 @@
       <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="31">
         <v>42951</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="31">
         <v>42965</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="40">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -3319,7 +3382,7 @@
       <c r="M4" s="19">
         <v>9862</v>
       </c>
-      <c r="T4" s="37"/>
+      <c r="T4" s="33"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="9"/>
@@ -3332,21 +3395,21 @@
       <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="31">
         <v>43041</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="44"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="40"/>
       <c r="M5" s="19">
         <v>7012</v>
       </c>
-      <c r="T5" s="37"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="9"/>
@@ -3359,15 +3422,15 @@
       <c r="E6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="44"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
       <c r="M6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="37"/>
+      <c r="T6" s="33"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
@@ -3385,19 +3448,19 @@
       <c r="E7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <v>42951</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="31">
         <v>42965</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="40">
         <f>DATEDIF(F7,I7,"d")</f>
         <v>14</v>
       </c>
@@ -3422,17 +3485,17 @@
       <c r="E8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <v>43035</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="44"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
@@ -3450,19 +3513,19 @@
       <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <v>42957</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="31">
         <v>42982</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="40">
         <f>DATEDIF(F9,I9,"d")</f>
         <v>25</v>
       </c>
@@ -3475,7 +3538,7 @@
       <c r="M9" s="19">
         <v>4774</v>
       </c>
-      <c r="T9" s="37"/>
+      <c r="T9" s="33"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -3493,19 +3556,19 @@
       <c r="E10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <v>42965</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="31">
         <v>42980</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="40">
         <f>DATEDIF(F10,I10,"d")</f>
         <v>15</v>
       </c>
@@ -3518,7 +3581,7 @@
       <c r="M10" s="19">
         <v>4481</v>
       </c>
-      <c r="T10" s="37"/>
+      <c r="T10" s="33"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="10"/>
@@ -3531,17 +3594,17 @@
       <c r="E11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <v>43038</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="40"/>
       <c r="M11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="37"/>
+      <c r="T11" s="33"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -3559,19 +3622,19 @@
       <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <v>42984</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="31">
         <v>42996</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="40">
         <f t="shared" ref="J12:J25" si="0">DATEDIF(F12,I12,"d")</f>
         <v>12</v>
       </c>
@@ -3584,7 +3647,7 @@
       <c r="M12" s="19">
         <v>3523</v>
       </c>
-      <c r="T12" s="37"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="10"/>
@@ -3597,15 +3660,15 @@
       <c r="E13" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="44"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="40"/>
       <c r="M13" s="19">
         <v>3527</v>
       </c>
-      <c r="T13" s="37"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
@@ -3623,19 +3686,19 @@
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="31">
         <v>42984</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="31">
         <v>42999</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3648,7 +3711,7 @@
       <c r="M14" s="19">
         <v>6804</v>
       </c>
-      <c r="T14" s="37"/>
+      <c r="T14" s="33"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
@@ -3666,19 +3729,19 @@
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <v>42986</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="31">
         <v>43014</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="40">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3691,7 +3754,7 @@
       <c r="M15" s="19">
         <v>1259</v>
       </c>
-      <c r="T15" s="37"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
@@ -3709,19 +3772,19 @@
       <c r="E16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <v>42990</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="31">
         <v>43000</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3734,7 +3797,7 @@
       <c r="M16" s="19">
         <v>3190</v>
       </c>
-      <c r="T16" s="37"/>
+      <c r="T16" s="33"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
@@ -3752,19 +3815,19 @@
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="31">
         <v>43000</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="31">
         <v>43035</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="40">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3794,19 +3857,19 @@
       <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="31">
         <v>43003</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="31">
         <v>43024</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="40">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3836,19 +3899,19 @@
       <c r="E19" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="31">
         <v>43005</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="31">
         <v>43042</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="40">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3878,7 +3941,7 @@
       <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="31">
         <v>43017</v>
       </c>
       <c r="G20" t="s">
@@ -3887,10 +3950,10 @@
       <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="31">
         <v>43044</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="40">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3914,11 +3977,11 @@
       <c r="E21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="44"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="40"/>
       <c r="M21" s="19">
         <v>1867</v>
       </c>
@@ -3939,7 +4002,7 @@
       <c r="E22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="31">
         <v>43018</v>
       </c>
       <c r="G22" t="s">
@@ -3948,10 +4011,10 @@
       <c r="H22" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="31">
         <v>43029</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="40">
         <f>DATEDIF(F22,I22,"d")</f>
         <v>11</v>
       </c>
@@ -3975,11 +4038,11 @@
       <c r="E23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="44"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="40"/>
       <c r="M23" s="19">
         <v>7563</v>
       </c>
@@ -4000,7 +4063,7 @@
       <c r="E24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="31">
         <v>43018</v>
       </c>
       <c r="G24" t="s">
@@ -4009,10 +4072,10 @@
       <c r="H24" t="s">
         <v>118</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="31">
         <v>43026</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="40">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
@@ -4033,28 +4096,28 @@
       <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="35">
         <v>43031</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="35">
         <v>43039</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="41">
         <f>DATEDIF(F25,I25,"d")</f>
         <v>8</v>
       </c>
@@ -4066,28 +4129,28 @@
       <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="35">
         <v>43033</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="35">
         <v>43037</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="41">
         <f>DATEDIF(F26,I26,"d")</f>
         <v>4</v>
       </c>
@@ -4099,26 +4162,26 @@
       <c r="B27" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39">
+      <c r="E27" s="34"/>
+      <c r="F27" s="35">
         <v>43033</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="35">
         <v>43043</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="41">
         <f>DATEDIF(F27,I27,"d")</f>
         <v>10</v>
       </c>
@@ -4133,7 +4196,7 @@
       <c r="C28" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="31">
         <v>43042</v>
       </c>
     </row>
@@ -4144,7 +4207,7 @@
       <c r="B29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="37"/>
       <c r="F29">
         <v>2017</v>
       </c>
@@ -4156,7 +4219,7 @@
       <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="38" t="s">
         <v>135</v>
       </c>
       <c r="F30">
@@ -4170,7 +4233,7 @@
       <c r="B31" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="38" t="s">
         <v>137</v>
       </c>
       <c r="F31">
@@ -4184,7 +4247,7 @@
       <c r="B32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="38"/>
       <c r="F32">
         <v>2018</v>
       </c>
@@ -4196,7 +4259,7 @@
       <c r="B33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="38" t="s">
         <v>140</v>
       </c>
       <c r="F33">
@@ -4210,7 +4273,7 @@
       <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="38" t="s">
         <v>142</v>
       </c>
       <c r="F34">
@@ -4224,7 +4287,7 @@
       <c r="B35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="38" t="s">
         <v>144</v>
       </c>
       <c r="F35">
@@ -4238,7 +4301,7 @@
       <c r="B36" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="38" t="s">
         <v>146</v>
       </c>
       <c r="F36">
@@ -4252,7 +4315,7 @@
       <c r="B37" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F37">
@@ -4266,7 +4329,7 @@
       <c r="B38" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="38" t="s">
         <v>150</v>
       </c>
       <c r="F38">
@@ -4280,7 +4343,7 @@
       <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="38" t="s">
         <v>152</v>
       </c>
       <c r="F39">
@@ -4294,7 +4357,7 @@
       <c r="B40" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="42"/>
+      <c r="C40" s="38"/>
       <c r="F40">
         <v>2019</v>
       </c>
@@ -4306,7 +4369,7 @@
       <c r="B41" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="42"/>
+      <c r="C41" s="38"/>
       <c r="F41">
         <v>2019</v>
       </c>
@@ -4318,7 +4381,7 @@
       <c r="B42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="38"/>
       <c r="F42">
         <v>2019</v>
       </c>
@@ -4330,7 +4393,7 @@
       <c r="B43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="38" t="s">
         <v>157</v>
       </c>
       <c r="F43">
@@ -4344,7 +4407,7 @@
       <c r="B44" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="38" t="s">
         <v>159</v>
       </c>
       <c r="F44">
@@ -4352,7 +4415,7 @@
       </c>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="35"/>
+      <c r="F58" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4381,7 +4444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>160</v>
       </c>
       <c r="C1" t="s">
@@ -4407,7 +4470,7 @@
       <c r="A2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>42241</v>
       </c>
       <c r="C2" s="10">
@@ -4415,10 +4478,10 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="35">
+      <c r="B3" s="31">
         <v>42956</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="30"/>
       <c r="F3">
         <v>30</v>
       </c>
@@ -4427,10 +4490,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="35">
+      <c r="B4" s="31">
         <v>42998</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="30"/>
       <c r="F4">
         <v>62</v>
       </c>
@@ -4442,13 +4505,13 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="35">
+      <c r="B5" s="31">
         <v>42998</v>
       </c>
       <c r="C5">
         <v>35</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="30">
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
@@ -4456,10 +4519,10 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="35">
+      <c r="B6" s="31">
         <v>43032</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="30"/>
       <c r="F6">
         <v>82</v>
       </c>
@@ -4474,7 +4537,7 @@
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="32">
         <v>42965</v>
       </c>
       <c r="C7" s="10">
@@ -4485,7 +4548,7 @@
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="32">
         <v>42965</v>
       </c>
       <c r="C8" s="10">
@@ -4496,7 +4559,7 @@
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <v>42980</v>
       </c>
       <c r="C9" s="10">
@@ -4507,7 +4570,7 @@
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="32">
         <v>42982</v>
       </c>
       <c r="C10" s="10">
@@ -4518,7 +4581,7 @@
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <v>42996</v>
       </c>
       <c r="C11" s="10">
@@ -4529,7 +4592,7 @@
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="32">
         <v>42999</v>
       </c>
       <c r="C12" s="10">
@@ -4540,7 +4603,7 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="32">
         <v>43000</v>
       </c>
       <c r="C13" s="10">
@@ -4551,7 +4614,7 @@
       <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="32">
         <v>43014</v>
       </c>
       <c r="C14" s="10">
@@ -4562,7 +4625,7 @@
       <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="32">
         <v>43024</v>
       </c>
       <c r="C15" s="10">
@@ -4573,7 +4636,7 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="32">
         <v>43026</v>
       </c>
       <c r="C16" s="10">
@@ -4584,7 +4647,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="32">
         <v>43029</v>
       </c>
       <c r="C17" s="10">
@@ -4595,7 +4658,7 @@
       <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="32">
         <v>43035</v>
       </c>
       <c r="C18" s="10">
@@ -4606,7 +4669,7 @@
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="32">
         <v>43042</v>
       </c>
       <c r="C19" s="10">
@@ -4617,7 +4680,7 @@
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="32">
         <v>43044</v>
       </c>
       <c r="C20" s="10">
@@ -4636,57 +4699,57 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="24" customWidth="1"/>
     <col min="5" max="6" width="4.625" customWidth="1"/>
-    <col min="7" max="7" width="4.625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="4.625" style="24" customWidth="1"/>
     <col min="8" max="9" width="4.625" customWidth="1"/>
-    <col min="10" max="10" width="4.625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="24" customWidth="1"/>
     <col min="11" max="12" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="24" customWidth="1"/>
     <col min="14" max="15" width="4.625" customWidth="1"/>
-    <col min="16" max="16" width="4.625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="24" customWidth="1"/>
     <col min="17" max="18" width="4.625" customWidth="1"/>
-    <col min="19" max="19" width="4.625" style="28" customWidth="1"/>
+    <col min="19" max="19" width="4.625" style="24" customWidth="1"/>
     <col min="20" max="69" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="B1" s="29">
+      <c r="B1" s="25">
         <v>42917</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="29">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="25">
         <v>42948</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="25">
         <v>42979</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29">
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25">
         <v>43009</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="29">
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="25">
         <v>43040</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="29">
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="25">
         <v>43070</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
@@ -4695,43 +4758,43 @@
       <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="24" t="s">
         <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="24" t="s">
         <v>161</v>
       </c>
       <c r="K2" t="s">
         <v>170</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="24" t="s">
         <v>161</v>
       </c>
       <c r="N2" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="24" t="s">
         <v>161</v>
       </c>
       <c r="Q2" t="s">
@@ -4740,7 +4803,7 @@
       <c r="R2" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="24" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4748,33 +4811,32 @@
       <c r="A3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="28">
         <v>3</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="29">
         <v>0.05</v>
       </c>
       <c r="K3">
         <v>23</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="28">
         <v>5</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="29">
         <v>0.56</v>
       </c>
       <c r="N3">
         <v>9</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="28">
         <v>4</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="29">
         <v>0.13</v>
       </c>
     </row>
@@ -4782,26 +4844,24 @@
       <c r="A4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="28"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="K4">
         <v>2</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="28">
         <v>1</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="29">
         <v>0.05</v>
       </c>
       <c r="N4">
         <v>24</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="28">
         <v>9</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="29">
         <v>0.85</v>
       </c>
     </row>
@@ -4809,19 +4869,16 @@
       <c r="A5" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="28"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="28"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="N5">
         <v>10</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="28">
         <v>5</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="29">
         <v>0.17</v>
       </c>
     </row>
@@ -4829,19 +4886,16 @@
       <c r="A6" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="28"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="28"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="N6">
         <v>2</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="28">
         <v>1</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="29">
         <v>0.03</v>
       </c>
     </row>
@@ -4849,83 +4903,78 @@
       <c r="A7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="28"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="28">
         <v>1</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="29">
         <v>0.01</v>
       </c>
       <c r="N7">
         <v>32</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="28">
         <v>12</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="29">
         <v>0.77</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="28"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="28"/>
-      <c r="O8" s="32"/>
+      <c r="F8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="28">
+        <v>1</v>
+      </c>
+      <c r="P8" s="29">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="28"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="K9">
         <v>6</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="28">
         <v>5</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="29">
         <v>0.25</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="28"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="28"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="28"/>
-      <c r="O10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="28"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="28"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="28"/>
-      <c r="O11" s="32"/>
+      <c r="F11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="9" t="s">
@@ -4934,337 +4983,299 @@
       <c r="E12">
         <v>19</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="29">
         <v>0.96</v>
       </c>
       <c r="H12">
         <v>41</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <v>17</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="29">
         <v>0.74</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="28">
         <v>11</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="29">
         <v>0.31</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="28"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AP12" s="28"/>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="28"/>
       <c r="H13">
         <v>8</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="28">
         <v>4</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="29">
         <v>0.84</v>
       </c>
       <c r="K13">
         <v>28</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="28">
         <v>3</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="29">
         <v>0.12</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="28"/>
-      <c r="AA13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="32"/>
-      <c r="AP13" s="32"/>
+      <c r="O13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="28"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="28"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="28"/>
+      <c r="AP13" s="28"/>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="28"/>
       <c r="H14">
         <v>35</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="28">
         <v>0</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="29">
         <v>0.11</v>
       </c>
       <c r="K14">
         <v>18</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="28">
         <v>11</v>
       </c>
-      <c r="M14" s="33">
+      <c r="M14" s="29">
         <v>0.92</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="28"/>
-      <c r="AA14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14"/>
-      <c r="AL14" s="34"/>
-      <c r="AM14" s="32"/>
-      <c r="AP14" s="32"/>
+      <c r="O14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="28"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="28"/>
+      <c r="AP14" s="28"/>
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="28"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="AA15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="32"/>
-      <c r="AP15" s="32"/>
+      <c r="F15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="AA15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="28"/>
+      <c r="AP15" s="28"/>
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="28"/>
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="28">
         <v>2</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="29">
         <v>0.14</v>
       </c>
       <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="28">
         <v>11</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="29">
         <v>0.93</v>
       </c>
-      <c r="AA16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="32"/>
-      <c r="AP16" s="32"/>
+      <c r="AA16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="28"/>
+      <c r="AP16" s="28"/>
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="K17">
         <v>23</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="28">
         <v>3</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="29">
         <v>0.56</v>
       </c>
-      <c r="AA17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="32"/>
-      <c r="AP17" s="32"/>
+      <c r="AA17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="28"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="28"/>
+      <c r="AP17" s="28"/>
     </row>
     <row r="18" spans="1:42">
       <c r="A18" s="9"/>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>43282</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="29">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="25">
         <v>43313</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="29">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="25">
         <v>43344</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="29">
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25">
         <v>43374</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="29">
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25">
         <v>43405</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="29">
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="25">
         <v>43435</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-      <c r="AA18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AP18" s="32"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="27"/>
+      <c r="AA18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AP18" s="28"/>
     </row>
     <row r="19" spans="27:42">
-      <c r="AA19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AP19" s="32"/>
+      <c r="AA19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AP19" s="28"/>
     </row>
     <row r="20" spans="27:42">
-      <c r="AA20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AP20" s="32"/>
+      <c r="AA20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AP20" s="28"/>
     </row>
     <row r="21" spans="27:42">
-      <c r="AA21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AP21" s="32"/>
+      <c r="AA21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AP21" s="28"/>
     </row>
     <row r="22" spans="27:42">
-      <c r="AA22" s="32"/>
-      <c r="AB22"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AP22" s="32"/>
+      <c r="AA22" s="28"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="28"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="28"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AP22" s="28"/>
     </row>
     <row r="23" spans="27:42">
-      <c r="AA23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AP23" s="32"/>
+      <c r="AA23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="28"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AP23" s="28"/>
     </row>
     <row r="24" spans="27:42">
-      <c r="AA24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AP24" s="32"/>
+      <c r="AA24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="28"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AP24" s="28"/>
     </row>
     <row r="25" spans="27:42">
-      <c r="AA25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="32"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AP25" s="32"/>
+      <c r="AA25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="28"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AP25" s="28"/>
     </row>
     <row r="26" spans="27:42">
-      <c r="AA26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AP26" s="32"/>
+      <c r="AA26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="28"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AP26" s="28"/>
     </row>
     <row r="27" spans="27:42">
-      <c r="AA27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AP27" s="32"/>
+      <c r="AA27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AG27" s="28"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="28"/>
+      <c r="AM27" s="28"/>
+      <c r="AP27" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5289,10 +5300,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5312,7 +5323,7 @@
       <c r="C1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5353,10 +5364,10 @@
       <c r="B5" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5461,7 +5472,7 @@
       <c r="B16" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="20" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5473,58 +5484,67 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>234</v>
       </c>
       <c r="C18" t="s">
         <v>235</v>
       </c>
+      <c r="D18" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>242</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>5094</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="32" s="20" customFormat="1" spans="1:6">
       <c r="A32" s="20">
         <v>5137</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="B32" s="20" t="s">
         <v>245</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5532,10 +5552,10 @@
         <v>5311</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
@@ -5543,113 +5563,105 @@
         <v>5399</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" s="21" customFormat="1" spans="1:6">
       <c r="A35" s="21">
         <v>5411</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>250</v>
+      <c r="B35" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>252</v>
       </c>
       <c r="D35" s="21">
         <v>0.38</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>252</v>
+      <c r="E35" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="36" s="20" customFormat="1" spans="1:6">
       <c r="A36" s="20">
         <v>5511</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25" t="s">
-        <v>245</v>
+      <c r="B36" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="37" s="20" customFormat="1" spans="1:6">
       <c r="A37" s="20">
         <v>5541</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>256</v>
+      <c r="B37" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="D37" s="20">
         <v>0.38</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" s="22" customFormat="1" spans="1:6">
-      <c r="A38" s="22">
+      <c r="F37" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" spans="1:3">
+      <c r="A38" s="9">
         <v>5611</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" s="22" customFormat="1" spans="1:6">
-      <c r="A39" s="22">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" s="9" customFormat="1" spans="1:3">
+      <c r="A39" s="9">
         <v>5661</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" s="23" customFormat="1" spans="1:6">
-      <c r="A40" s="23">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" s="22" customFormat="1" spans="1:3">
+      <c r="A40" s="22">
         <v>5811</v>
       </c>
-      <c r="B40" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="B40" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>5812</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5657,10 +5669,10 @@
         <v>5813</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5668,65 +5680,76 @@
         <v>5943</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>7011</v>
-      </c>
-      <c r="B44" t="s">
-        <v>266</v>
+        <v>5970</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>7297</v>
+        <v>7011</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>7298</v>
+        <v>7297</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7392</v>
+        <v>7298</v>
       </c>
       <c r="B47" t="s">
         <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
+        <v>7392</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>7911</v>
       </c>
-      <c r="B48" t="s">
-        <v>273</v>
-      </c>
-      <c r="C48" t="s">
-        <v>238</v>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5765,28 +5788,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
         <v>161</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K1" t="s">
         <v>161</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q1" t="s">
         <v>161</v>
@@ -5803,13 +5826,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -5821,19 +5844,19 @@
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O2" t="s">
         <v>134</v>
@@ -5850,13 +5873,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -5868,19 +5891,19 @@
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O3" t="s">
         <v>136</v>
@@ -5897,13 +5920,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -5915,19 +5938,19 @@
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O4" t="s">
         <v>138</v>
@@ -5944,13 +5967,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -5962,19 +5985,19 @@
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O5" t="s">
         <v>139</v>
@@ -5991,13 +6014,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6009,19 +6032,19 @@
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O6" t="s">
         <v>141</v>
@@ -6038,34 +6061,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O7" t="s">
         <v>143</v>
@@ -6082,31 +6105,31 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
         <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O8" t="s">
         <v>145</v>
@@ -6123,19 +6146,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>120</v>
@@ -6144,16 +6167,16 @@
         <v>121</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O9" t="s">
         <v>147</v>
@@ -6170,19 +6193,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>124</v>
@@ -6191,16 +6214,16 @@
         <v>125</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O10" t="s">
         <v>149</v>
@@ -6217,37 +6240,37 @@
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L11" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O11" t="s">
         <v>151</v>
@@ -6255,25 +6278,25 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
         <v>161</v>
@@ -6290,13 +6313,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -6308,19 +6331,19 @@
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O15" t="s">
         <v>134</v>
@@ -6337,13 +6360,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -6355,19 +6378,19 @@
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O16" t="s">
         <v>136</v>
@@ -6384,13 +6407,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -6402,19 +6425,19 @@
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O17" t="s">
         <v>138</v>
@@ -6431,13 +6454,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -6449,19 +6472,19 @@
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O18" t="s">
         <v>139</v>
@@ -6478,13 +6501,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -6496,19 +6519,19 @@
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O19" t="s">
         <v>141</v>
@@ -6525,34 +6548,34 @@
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O20" t="s">
         <v>143</v>
@@ -6569,31 +6592,31 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I21" t="s">
         <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O21" t="s">
         <v>145</v>
@@ -6610,19 +6633,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>120</v>
@@ -6631,16 +6654,16 @@
         <v>121</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O22" t="s">
         <v>147</v>
@@ -6657,19 +6680,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>124</v>
@@ -6678,16 +6701,16 @@
         <v>125</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L23" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O23" t="s">
         <v>149</v>
@@ -6704,37 +6727,37 @@
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>127</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L24" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O24" t="s">
         <v>151</v>
@@ -6766,7 +6789,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
   <si>
     <t>日期</t>
   </si>
@@ -610,6 +610,12 @@
     <t>卡号</t>
   </si>
   <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>卡</t>
+  </si>
+  <si>
     <t>全币种国际信用卡（VISA）</t>
   </si>
   <si>
@@ -625,6 +631,12 @@
     <t>工牌（官网申请，上门办理）</t>
   </si>
   <si>
+    <t>2015/8</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
     <t>黑羊卡</t>
   </si>
   <si>
@@ -634,15 +646,42 @@
     <t>网申/成功</t>
   </si>
   <si>
+    <t>2017/8</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>5/5</t>
+  </si>
+  <si>
     <t>聪明卡/金卡</t>
   </si>
   <si>
+    <t>2017/9</t>
+  </si>
+  <si>
+    <t>7/7</t>
+  </si>
+  <si>
+    <t>8/8</t>
+  </si>
+  <si>
     <t>DIY/金卡</t>
   </si>
   <si>
     <t>APP申请</t>
   </si>
   <si>
+    <t>2017/10</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
     <t>world（Master）</t>
   </si>
   <si>
@@ -652,10 +691,22 @@
     <t>O195</t>
   </si>
   <si>
+    <t>2017/11</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
     <t>长城环球通爱驾汽车卡</t>
   </si>
   <si>
     <t>无（房贷，不需要面签）</t>
+  </si>
+  <si>
+    <t>2017/12</t>
   </si>
   <si>
     <t>全币种国际芯片卡（VISA）</t>
@@ -1383,13 +1434,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1499,14 +1550,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,16 +1594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,35 +1603,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,14 +1625,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1603,9 +1632,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,27 +1686,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1670,13 +1721,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,13 +1787,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,133 +1841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,7 +1859,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,18 +1941,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1922,21 +1981,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1947,17 +1991,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1985,6 +2018,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1993,149 +2044,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2229,25 +2280,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2256,17 +2313,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2601,7 +2655,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2617,7 +2671,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2626,7 +2680,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
@@ -2637,15 +2691,15 @@
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="26"/>
-      <c r="L1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="43">
+      <c r="A2" s="39">
         <v>43026</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -2661,12 +2715,12 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
-      <c r="L2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="39"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
@@ -2674,9 +2728,9 @@
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="5:12">
       <c r="E4" t="s">
@@ -2773,7 +2827,7 @@
       </c>
     </row>
     <row r="11" spans="4:13">
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" t="s">
         <v>24</v>
       </c>
@@ -2791,9 +2845,9 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" t="s">
         <v>27</v>
       </c>
@@ -2809,9 +2863,9 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" t="s">
         <v>29</v>
       </c>
@@ -2820,9 +2874,9 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -2834,9 +2888,9 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
       <c r="E15" t="s">
         <v>31</v>
       </c>
@@ -2849,9 +2903,9 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
       <c r="E16" t="s">
         <v>33</v>
       </c>
@@ -2867,9 +2921,9 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>35</v>
       </c>
@@ -2887,9 +2941,9 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
       <c r="E18" t="s">
         <v>36</v>
       </c>
@@ -2904,9 +2958,9 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
       <c r="E19" t="s">
         <v>37</v>
       </c>
@@ -2918,9 +2972,9 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
       <c r="E20" t="s">
         <v>39</v>
       </c>
@@ -2932,9 +2986,9 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
       <c r="E21" t="s">
         <v>40</v>
       </c>
@@ -2949,9 +3003,9 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
       <c r="E22" t="s">
         <v>41</v>
       </c>
@@ -2962,9 +3016,9 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" t="s">
         <v>42</v>
       </c>
@@ -2975,9 +3029,9 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
       <c r="E24" t="s">
         <v>43</v>
       </c>
@@ -2994,9 +3048,9 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" t="s">
         <v>44</v>
       </c>
@@ -3009,9 +3063,9 @@
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" t="s">
         <v>45</v>
       </c>
@@ -3026,9 +3080,9 @@
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" t="s">
         <v>46</v>
       </c>
@@ -3043,9 +3097,9 @@
       </c>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" t="s">
         <v>47</v>
       </c>
@@ -3069,9 +3123,9 @@
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" t="s">
         <v>48</v>
       </c>
@@ -3089,9 +3143,9 @@
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" t="s">
         <v>49</v>
       </c>
@@ -3103,9 +3157,9 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
       <c r="E31" t="s">
         <v>50</v>
       </c>
@@ -3117,9 +3171,9 @@
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" t="s">
         <v>51</v>
       </c>
@@ -3128,9 +3182,9 @@
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
       <c r="E33" t="s">
         <v>52</v>
       </c>
@@ -3139,50 +3193,50 @@
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="3:5">
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="3:5">
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3201,8 +3255,8 @@
   <sheetPr/>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3221,14 +3275,13 @@
     <col min="13" max="13" width="6" style="19" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
     <col min="15" max="15" width="10.625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="6.625" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="16" max="17" width="6.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="8.375" customWidth="1"/>
     <col min="19" max="19" width="10.625" style="31" customWidth="1"/>
     <col min="20" max="20" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="9" t="s">
         <v>56</v>
       </c>
@@ -3256,7 +3309,7 @@
       <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="41" t="s">
         <v>65</v>
       </c>
       <c r="L1" t="s">
@@ -3265,9 +3318,14 @@
       <c r="M1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="O1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3275,27 +3333,27 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="31">
         <v>42227</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>72</v>
+      <c r="G2" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="I2" s="31">
         <v>42241</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="42">
         <f>DATEDIF(F2,I2,"d")</f>
         <v>14</v>
       </c>
@@ -3308,37 +3366,54 @@
       <c r="M2" s="19">
         <v>7427</v>
       </c>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="2:13">
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F3" s="31">
         <v>42948</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>75</v>
+      <c r="G3" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I3" s="31">
         <v>42956</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="42">
         <f>DATEDIF(F3,I3,"d")</f>
         <v>8</v>
       </c>
       <c r="M3" s="19">
         <v>1425</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3349,27 +3424,27 @@
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F4" s="31">
         <v>42951</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>74</v>
+      <c r="G4" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="I4" s="31">
         <v>42965</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="42">
         <f>DATEDIF(F4,I4,"d")</f>
         <v>14</v>
       </c>
@@ -3382,57 +3457,84 @@
       <c r="M4" s="19">
         <v>9862</v>
       </c>
-      <c r="T4" s="33"/>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="34"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F5" s="31">
         <v>43041</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>78</v>
+      <c r="G5" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="I5" s="31"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="42"/>
       <c r="M5" s="19">
         <v>7012</v>
       </c>
-      <c r="T5" s="33"/>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="34"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="42"/>
       <c r="M6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="33"/>
-    </row>
-    <row r="7" spans="1:13">
+        <v>94</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="34"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3440,27 +3542,27 @@
         <v>26</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="31">
         <v>42951</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>83</v>
+      <c r="G7" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="I7" s="31">
         <v>42965</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="42">
         <f>DATEDIF(F7,I7,"d")</f>
         <v>14</v>
       </c>
@@ -3472,30 +3574,33 @@
       </c>
       <c r="M7" s="19">
         <v>2344</v>
+      </c>
+      <c r="O7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F8" s="31">
         <v>43035</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>86</v>
+      <c r="G8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>103</v>
       </c>
       <c r="I8" s="31"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
@@ -3505,27 +3610,27 @@
         <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F9" s="31">
         <v>42957</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>89</v>
+      <c r="G9" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="I9" s="31">
         <v>42982</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="42">
         <f>DATEDIF(F9,I9,"d")</f>
         <v>25</v>
       </c>
@@ -3538,7 +3643,7 @@
       <c r="M9" s="19">
         <v>4774</v>
       </c>
-      <c r="T9" s="33"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -3548,27 +3653,27 @@
         <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" s="31">
         <v>42965</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>91</v>
+      <c r="G10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="I10" s="31">
         <v>42980</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="42">
         <f>DATEDIF(F10,I10,"d")</f>
         <v>15</v>
       </c>
@@ -3581,30 +3686,30 @@
       <c r="M10" s="19">
         <v>4481</v>
       </c>
-      <c r="T10" s="33"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="31">
         <v>43038</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="40"/>
+      <c r="J11" s="42"/>
       <c r="M11" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="T11" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -3614,27 +3719,27 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F12" s="31">
         <v>42984</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>96</v>
+      <c r="G12" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="I12" s="31">
         <v>42996</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="42">
         <f t="shared" ref="J12:J25" si="0">DATEDIF(F12,I12,"d")</f>
         <v>12</v>
       </c>
@@ -3647,28 +3752,28 @@
       <c r="M12" s="19">
         <v>3523</v>
       </c>
-      <c r="T12" s="33"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="42"/>
       <c r="M13" s="19">
         <v>3527</v>
       </c>
-      <c r="T13" s="33"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
@@ -3678,27 +3783,27 @@
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="31">
         <v>42984</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>99</v>
+      <c r="G14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>116</v>
       </c>
       <c r="I14" s="31">
         <v>42999</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3711,7 +3816,7 @@
       <c r="M14" s="19">
         <v>6804</v>
       </c>
-      <c r="T14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
@@ -3721,27 +3826,27 @@
         <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F15" s="31">
         <v>42986</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>101</v>
+      <c r="G15" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="I15" s="31">
         <v>43014</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="42">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -3754,7 +3859,7 @@
       <c r="M15" s="19">
         <v>1259</v>
       </c>
-      <c r="T15" s="33"/>
+      <c r="T15" s="34"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16">
@@ -3764,27 +3869,27 @@
         <v>17</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="31">
         <v>42990</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>103</v>
+      <c r="G16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="31">
         <v>43000</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3797,7 +3902,7 @@
       <c r="M16" s="19">
         <v>3190</v>
       </c>
-      <c r="T16" s="33"/>
+      <c r="T16" s="34"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
@@ -3807,27 +3912,27 @@
         <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F17" s="31">
         <v>43000</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>105</v>
+      <c r="G17" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>122</v>
       </c>
       <c r="I17" s="31">
         <v>43035</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -3849,27 +3954,27 @@
         <v>28</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F18" s="31">
         <v>43003</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>108</v>
+      <c r="G18" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="I18" s="31">
         <v>43024</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="42">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -3891,27 +3996,27 @@
         <v>22</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F19" s="31">
         <v>43005</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>110</v>
+      <c r="G19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="I19" s="31">
         <v>43042</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="42">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -3933,27 +4038,27 @@
         <v>32</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F20" s="31">
         <v>43017</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="I20" s="31">
         <v>43044</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="42">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -3969,19 +4074,19 @@
     </row>
     <row r="21" spans="3:13">
       <c r="C21" s="10" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F21" s="31"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="40"/>
+      <c r="J21" s="42"/>
       <c r="M21" s="19">
         <v>1867</v>
       </c>
@@ -3994,27 +4099,27 @@
         <v>15</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F22" s="31">
         <v>43018</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="I22" s="31">
         <v>43029</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="42">
         <f>DATEDIF(F22,I22,"d")</f>
         <v>11</v>
       </c>
@@ -4030,19 +4135,19 @@
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="10" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="40"/>
+      <c r="J23" s="42"/>
       <c r="M23" s="19">
         <v>7563</v>
       </c>
@@ -4055,27 +4160,27 @@
         <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F24" s="31">
         <v>43018</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="I24" s="31">
         <v>43026</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="42">
         <f>DATEDIF(F24,I24,"d")</f>
         <v>8</v>
       </c>
@@ -4086,7 +4191,7 @@
         <v>30</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4094,30 +4199,30 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="35">
+        <v>137</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="36">
         <v>43031</v>
       </c>
-      <c r="G25" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="35">
+      <c r="G25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="36">
         <v>43039</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="43">
         <f>DATEDIF(F25,I25,"d")</f>
         <v>8</v>
       </c>
@@ -4127,30 +4232,30 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="35">
+        <v>141</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="36">
         <v>43033</v>
       </c>
-      <c r="G26" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I26" s="35">
+      <c r="G26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="36">
         <v>43037</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="43">
         <f>DATEDIF(F26,I26,"d")</f>
         <v>4</v>
       </c>
@@ -4160,28 +4265,28 @@
         <v>18</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35">
+        <v>144</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36">
         <v>43033</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="35">
+      <c r="G27" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="36">
         <v>43043</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="43">
         <f>DATEDIF(F27,I27,"d")</f>
         <v>10</v>
       </c>
@@ -4191,10 +4296,10 @@
         <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F28" s="31">
         <v>43042</v>
@@ -4205,11 +4310,11 @@
         <v>20</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="F29">
-        <v>2017</v>
+        <v>150</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="F29" s="39">
+        <v>43079</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4217,10 +4322,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>135</v>
+        <v>151</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="F30">
         <v>2018</v>
@@ -4231,10 +4336,10 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>137</v>
+        <v>153</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -4245,9 +4350,9 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="38"/>
+        <v>155</v>
+      </c>
+      <c r="C32" s="40"/>
       <c r="F32">
         <v>2018</v>
       </c>
@@ -4257,10 +4362,10 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="F33">
         <v>2018</v>
@@ -4271,10 +4376,10 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>142</v>
+        <v>158</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="F34">
         <v>2018</v>
@@ -4285,10 +4390,10 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="F35">
         <v>2018</v>
@@ -4299,10 +4404,10 @@
         <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="F36">
         <v>2018</v>
@@ -4313,10 +4418,10 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>148</v>
+        <v>164</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>165</v>
       </c>
       <c r="F37">
         <v>2018</v>
@@ -4327,10 +4432,10 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>150</v>
+        <v>166</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="F38">
         <v>2018</v>
@@ -4341,10 +4446,10 @@
         <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>152</v>
+        <v>168</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>169</v>
       </c>
       <c r="F39">
         <v>2018</v>
@@ -4355,9 +4460,9 @@
         <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="38"/>
+        <v>170</v>
+      </c>
+      <c r="C40" s="40"/>
       <c r="F40">
         <v>2019</v>
       </c>
@@ -4367,9 +4472,9 @@
         <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="38"/>
+        <v>171</v>
+      </c>
+      <c r="C41" s="40"/>
       <c r="F41">
         <v>2019</v>
       </c>
@@ -4379,9 +4484,9 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="38"/>
+        <v>172</v>
+      </c>
+      <c r="C42" s="40"/>
       <c r="F42">
         <v>2019</v>
       </c>
@@ -4391,10 +4496,10 @@
         <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>157</v>
+        <v>173</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>174</v>
       </c>
       <c r="F43">
         <v>2019</v>
@@ -4405,10 +4510,10 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="F44">
         <v>2019</v>
@@ -4445,25 +4550,25 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="31" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4501,7 +4606,7 @@
         <v>2.5</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -4515,7 +4620,7 @@
         <v>0.4</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -4530,7 +4635,7 @@
         <v>2.3</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4753,63 +4858,63 @@
     </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="R2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="9" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F3" s="28"/>
       <c r="H3">
@@ -4842,7 +4947,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="9" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F4" s="28"/>
       <c r="I4" s="28"/>
@@ -4867,7 +4972,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F5" s="28"/>
       <c r="I5" s="28"/>
@@ -4884,7 +4989,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F6" s="28"/>
       <c r="I6" s="28"/>
@@ -4901,7 +5006,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F7" s="28"/>
       <c r="I7" s="28"/>
@@ -4926,7 +5031,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F8" s="28"/>
       <c r="I8" s="28"/>
@@ -4943,7 +5048,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="9" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F9" s="28"/>
       <c r="I9" s="28"/>
@@ -4960,7 +5065,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="9" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F10" s="28"/>
       <c r="I10" s="28"/>
@@ -4969,7 +5074,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F11" s="28"/>
       <c r="I11" s="28"/>
@@ -4978,7 +5083,7 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" s="9" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E12">
         <v>19</v>
@@ -5017,7 +5122,7 @@
     </row>
     <row r="13" spans="1:42">
       <c r="A13" s="9" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F13" s="28"/>
       <c r="H13">
@@ -5051,7 +5156,7 @@
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="9" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F14" s="28"/>
       <c r="H14">
@@ -5084,7 +5189,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" s="9" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F15" s="28"/>
       <c r="I15" s="28"/>
@@ -5101,7 +5206,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" s="9" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F16" s="28"/>
       <c r="H16">
@@ -5132,7 +5237,7 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="9" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F17" s="28"/>
       <c r="K17">
@@ -5302,8 +5407,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A45" sqref="$A45:$XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5315,211 +5420,211 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5527,10 +5632,10 @@
         <v>5094</v>
       </c>
       <c r="B31" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" s="20" customFormat="1" spans="1:6">
@@ -5538,13 +5643,13 @@
         <v>5137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5552,10 +5657,10 @@
         <v>5311</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
@@ -5563,10 +5668,10 @@
         <v>5399</v>
       </c>
       <c r="B34" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" s="21" customFormat="1" spans="1:6">
@@ -5574,19 +5679,19 @@
         <v>5411</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D35" s="21">
         <v>0.38</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" s="20" customFormat="1" spans="1:6">
@@ -5594,13 +5699,13 @@
         <v>5511</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" s="20" customFormat="1" spans="1:6">
@@ -5608,16 +5713,16 @@
         <v>5541</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D37" s="20">
         <v>0.38</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="1" spans="1:3">
@@ -5625,10 +5730,10 @@
         <v>5611</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" spans="1:3">
@@ -5636,10 +5741,10 @@
         <v>5661</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" s="22" customFormat="1" spans="1:3">
@@ -5647,10 +5752,10 @@
         <v>5811</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5658,10 +5763,10 @@
         <v>5812</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5669,10 +5774,10 @@
         <v>5813</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5680,10 +5785,10 @@
         <v>5943</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5691,10 +5796,10 @@
         <v>5970</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5702,10 +5807,10 @@
         <v>7011</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5713,10 +5818,10 @@
         <v>7297</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5724,10 +5829,10 @@
         <v>7298</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5735,10 +5840,10 @@
         <v>7392</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5746,10 +5851,10 @@
         <v>7911</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5788,31 +5893,31 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5820,46 +5925,46 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G2">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5867,46 +5972,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5914,46 +6019,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G4">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5961,46 +6066,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -6008,46 +6113,46 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G6">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -6055,43 +6160,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="O7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -6099,40 +6204,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6140,46 +6245,46 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L9" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -6187,46 +6292,46 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L10" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -6234,72 +6339,72 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L11" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="O11" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K14" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -6307,46 +6412,46 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G15">
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -6354,46 +6459,46 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G16">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="O16" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -6401,46 +6506,46 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G17">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="O17" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -6448,46 +6553,46 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -6495,46 +6600,46 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -6542,43 +6647,43 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="O20" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -6586,40 +6691,40 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -6627,46 +6732,46 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L22" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -6674,46 +6779,46 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L23" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -6721,46 +6826,46 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L24" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="O24" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -6789,7 +6894,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -1348,7 +1348,7 @@
     <t>HKBEA</t>
   </si>
   <si>
-    <t>IN金</t>
+    <t>标准白</t>
   </si>
   <si>
     <t>鼎雅白</t>
@@ -1434,13 +1434,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1556,17 +1556,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,25 +1594,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1608,9 +1609,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,16 +1641,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,47 +1685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,7 +1727,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,13 +1805,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,25 +1859,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,19 +1883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,91 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,26 +1941,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,6 +1963,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1991,15 +1983,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2030,9 +2013,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2044,145 +2044,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2289,7 +2289,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2298,7 +2298,7 @@
     <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2313,10 +2313,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3255,8 +3255,8 @@
   <sheetPr/>
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5869,8 +5869,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="5"/>
+    <workbookView windowWidth="19590" windowHeight="12630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -45,6 +45,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>YWD</author>
+    <author>1055T</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0">
@@ -289,6 +290,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="F14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1055T:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+7011</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C16" authorId="0">
       <text>
         <r>
@@ -355,6 +378,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1055T:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5812 但是地区代码错误</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0">
       <text>
         <r>
@@ -404,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
   <si>
     <t>日期</t>
   </si>
@@ -1162,6 +1207,9 @@
     <t>上海松江区尚忆旅馆</t>
   </si>
   <si>
+    <t>上海连友住宿服务</t>
+  </si>
+  <si>
     <t>乐刷</t>
   </si>
   <si>
@@ -1184,6 +1232,9 @@
   </si>
   <si>
     <t>上城区凯迪餐厅</t>
+  </si>
+  <si>
+    <t>上海市庄元西餐厅</t>
   </si>
   <si>
     <t>酒吧</t>
@@ -1434,12 +1485,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
@@ -1556,32 +1607,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,7 +1630,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1609,42 +1644,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1663,18 +1667,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1685,9 +1690,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1721,25 +1772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,6 +1790,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1769,7 +1808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,13 +1820,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,19 +1886,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,13 +1934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,61 +1952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,15 +1990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1963,15 +2005,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1983,6 +2016,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2004,15 +2079,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2021,168 +2087,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5407,8 +5458,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A45" sqref="$A45:$XFD45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5556,7 +5607,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>242</v>
       </c>
@@ -5569,62 +5620,68 @@
       <c r="E14" t="s">
         <v>245</v>
       </c>
+      <c r="F14" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="E18" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5632,10 +5689,10 @@
         <v>5094</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" s="20" customFormat="1" spans="1:6">
@@ -5643,13 +5700,13 @@
         <v>5137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5657,10 +5714,10 @@
         <v>5311</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
@@ -5668,10 +5725,10 @@
         <v>5399</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" s="21" customFormat="1" spans="1:6">
@@ -5679,19 +5736,19 @@
         <v>5411</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D35" s="21">
         <v>0.38</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" s="20" customFormat="1" spans="1:6">
@@ -5699,13 +5756,13 @@
         <v>5511</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" s="20" customFormat="1" spans="1:6">
@@ -5713,16 +5770,16 @@
         <v>5541</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D37" s="20">
         <v>0.38</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="1" spans="1:3">
@@ -5730,10 +5787,10 @@
         <v>5611</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" spans="1:3">
@@ -5741,10 +5798,10 @@
         <v>5661</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" s="22" customFormat="1" spans="1:3">
@@ -5752,10 +5809,10 @@
         <v>5811</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5763,10 +5820,10 @@
         <v>5812</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5774,10 +5831,10 @@
         <v>5813</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5785,10 +5842,10 @@
         <v>5943</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5796,10 +5853,10 @@
         <v>5970</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5807,10 +5864,10 @@
         <v>7011</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5818,10 +5875,10 @@
         <v>7297</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5829,10 +5886,10 @@
         <v>7298</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5840,10 +5897,10 @@
         <v>7392</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5851,10 +5908,10 @@
         <v>7911</v>
       </c>
       <c r="B49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5869,7 +5926,7 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5893,28 +5950,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
         <v>178</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s">
         <v>178</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q1" t="s">
         <v>178</v>
@@ -5931,13 +5988,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -5949,19 +6006,19 @@
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O2" t="s">
         <v>151</v>
@@ -5978,13 +6035,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -5996,19 +6053,19 @@
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O3" t="s">
         <v>153</v>
@@ -6025,13 +6082,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -6043,19 +6100,19 @@
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O4" t="s">
         <v>155</v>
@@ -6072,13 +6129,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -6090,19 +6147,19 @@
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O5" t="s">
         <v>156</v>
@@ -6119,13 +6176,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6137,19 +6194,19 @@
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O6" t="s">
         <v>158</v>
@@ -6166,34 +6223,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O7" t="s">
         <v>160</v>
@@ -6210,31 +6267,31 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O8" t="s">
         <v>162</v>
@@ -6251,19 +6308,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>137</v>
@@ -6272,16 +6329,16 @@
         <v>138</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O9" t="s">
         <v>164</v>
@@ -6298,19 +6355,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>141</v>
@@ -6319,16 +6376,16 @@
         <v>142</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O10" t="s">
         <v>166</v>
@@ -6345,37 +6402,37 @@
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O11" t="s">
         <v>168</v>
@@ -6383,25 +6440,25 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E14" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
         <v>178</v>
@@ -6418,13 +6475,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -6436,19 +6493,19 @@
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O15" t="s">
         <v>151</v>
@@ -6465,13 +6522,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -6483,19 +6540,19 @@
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O16" t="s">
         <v>153</v>
@@ -6512,13 +6569,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -6530,19 +6587,19 @@
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O17" t="s">
         <v>155</v>
@@ -6559,13 +6616,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -6577,19 +6634,19 @@
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O18" t="s">
         <v>156</v>
@@ -6606,13 +6663,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -6624,19 +6681,19 @@
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O19" t="s">
         <v>158</v>
@@ -6653,34 +6710,34 @@
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I20" t="s">
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O20" t="s">
         <v>160</v>
@@ -6697,31 +6754,31 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I21" t="s">
         <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O21" t="s">
         <v>162</v>
@@ -6738,19 +6795,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>137</v>
@@ -6759,16 +6816,16 @@
         <v>138</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O22" t="s">
         <v>164</v>
@@ -6785,19 +6842,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>141</v>
@@ -6806,16 +6863,16 @@
         <v>142</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L23" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O23" t="s">
         <v>166</v>
@@ -6832,37 +6889,37 @@
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O24" t="s">
         <v>168</v>
@@ -6894,7 +6951,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Signature" sheetId="7" r:id="rId6"/>
     <sheet name="Capital" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -400,6 +400,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="D19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1055T:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5813</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0">
       <text>
         <r>
@@ -449,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
   <si>
     <t>日期</t>
   </si>
@@ -1243,6 +1265,9 @@
     <t>皇后酒吧</t>
   </si>
   <si>
+    <t>尊爵酒吧</t>
+  </si>
+  <si>
     <t>歌舞厅</t>
   </si>
   <si>
@@ -1485,12 +1510,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
   <fonts count="34">
@@ -1600,6 +1625,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1612,6 +1645,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1629,6 +1670,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1637,8 +1722,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,66 +1746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1728,9 +1754,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,7 +1797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,7 +1815,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,7 +1899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,13 +1911,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,79 +1953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,37 +1971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,6 +2030,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2020,33 +2087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2058,21 +2098,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2095,145 +2120,145 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2331,25 +2356,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2706,7 +2731,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4855,7 +4880,7 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4911,11 +4936,11 @@
       <c r="B2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>187</v>
@@ -4956,11 +4981,11 @@
       <c r="Q2" t="s">
         <v>187</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5097,7 +5122,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="9" t="s">
         <v>195</v>
       </c>
@@ -5112,16 +5137,32 @@
       <c r="M9" s="29">
         <v>0.25</v>
       </c>
-      <c r="O9" s="28"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9">
+        <v>19</v>
+      </c>
+      <c r="O9" s="28">
+        <v>10</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
         <v>196</v>
       </c>
       <c r="F10" s="28"/>
       <c r="I10" s="28"/>
       <c r="L10" s="28"/>
-      <c r="O10" s="28"/>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10" s="28">
+        <v>3</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="9" t="s">
@@ -5155,10 +5196,10 @@
         <v>0.74</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M12" s="29">
         <v>0.31</v>
@@ -5458,8 +5499,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5657,31 +5698,34 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>256</v>
       </c>
       <c r="C19" t="s">
         <v>257</v>
       </c>
+      <c r="D19" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5689,10 +5733,10 @@
         <v>5094</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" s="20" customFormat="1" spans="1:6">
@@ -5700,13 +5744,13 @@
         <v>5137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5714,10 +5758,10 @@
         <v>5311</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
@@ -5725,10 +5769,10 @@
         <v>5399</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" s="21" customFormat="1" spans="1:6">
@@ -5736,19 +5780,19 @@
         <v>5411</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D35" s="21">
         <v>0.38</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" s="20" customFormat="1" spans="1:6">
@@ -5756,13 +5800,13 @@
         <v>5511</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" s="20" customFormat="1" spans="1:6">
@@ -5770,16 +5814,16 @@
         <v>5541</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D37" s="20">
         <v>0.38</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="1" spans="1:3">
@@ -5787,10 +5831,10 @@
         <v>5611</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="1" spans="1:3">
@@ -5798,10 +5842,10 @@
         <v>5661</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" s="22" customFormat="1" spans="1:3">
@@ -5809,10 +5853,10 @@
         <v>5811</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5820,10 +5864,10 @@
         <v>5812</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5831,10 +5875,10 @@
         <v>5813</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5842,10 +5886,10 @@
         <v>5943</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5853,10 +5897,10 @@
         <v>5970</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5864,10 +5908,10 @@
         <v>7011</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5875,10 +5919,10 @@
         <v>7297</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5886,10 +5930,10 @@
         <v>7298</v>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5897,10 +5941,10 @@
         <v>7392</v>
       </c>
       <c r="B48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5908,10 +5952,10 @@
         <v>7911</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5950,28 +5994,28 @@
   <sheetData>
     <row r="1" spans="3:17">
       <c r="C1" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
         <v>178</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
         <v>178</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q1" t="s">
         <v>178</v>
@@ -5988,13 +6032,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E2" s="9">
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -6006,19 +6050,19 @@
         <v>21</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K2" s="18">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M2">
         <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O2" t="s">
         <v>151</v>
@@ -6035,13 +6079,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E3" s="9">
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -6053,19 +6097,19 @@
         <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K3" s="18">
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M3">
         <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O3" t="s">
         <v>153</v>
@@ -6082,13 +6126,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E4" s="9">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -6100,19 +6144,19 @@
         <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K4" s="18">
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O4" t="s">
         <v>155</v>
@@ -6129,13 +6173,13 @@
         <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E5" s="9">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -6147,19 +6191,19 @@
         <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" s="18">
         <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M5">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O5" t="s">
         <v>156</v>
@@ -6176,13 +6220,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E6" s="9">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -6194,19 +6238,19 @@
         <v>32</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K6" s="18">
         <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M6">
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O6" t="s">
         <v>158</v>
@@ -6223,34 +6267,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E7" s="9">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M7">
         <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O7" t="s">
         <v>160</v>
@@ -6267,31 +6311,31 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E8" s="9">
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G8">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I8" t="s">
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M8">
         <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O8" t="s">
         <v>162</v>
@@ -6308,19 +6352,19 @@
         <v>17</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E9" s="9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>137</v>
@@ -6329,16 +6373,16 @@
         <v>138</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M9">
         <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O9" t="s">
         <v>164</v>
@@ -6355,19 +6399,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E10" s="9">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G10">
         <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>141</v>
@@ -6376,16 +6420,16 @@
         <v>142</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M10">
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O10" t="s">
         <v>166</v>
@@ -6402,37 +6446,37 @@
         <v>28</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E11" s="9">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M11">
         <v>30</v>
       </c>
       <c r="N11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O11" t="s">
         <v>168</v>
@@ -6440,25 +6484,25 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K14" t="s">
         <v>178</v>
@@ -6475,13 +6519,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E15" s="18">
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -6493,19 +6537,19 @@
         <v>34</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" s="9">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M15">
         <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O15" t="s">
         <v>151</v>
@@ -6522,13 +6566,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E16" s="9">
         <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G16">
         <v>12</v>
@@ -6540,19 +6584,19 @@
         <v>6</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="9">
         <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16">
         <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O16" t="s">
         <v>153</v>
@@ -6569,13 +6613,13 @@
         <v>18</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E17" s="18">
         <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G17">
         <v>13</v>
@@ -6587,19 +6631,19 @@
         <v>38</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K17" s="9">
         <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M17">
         <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O17" t="s">
         <v>155</v>
@@ -6616,13 +6660,13 @@
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E18" s="9">
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -6634,19 +6678,19 @@
         <v>26</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K18" s="9">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18">
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O18" t="s">
         <v>156</v>
@@ -6663,13 +6707,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E19" s="9">
         <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -6681,19 +6725,19 @@
         <v>28</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K19" s="9">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M19">
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O19" t="s">
         <v>158</v>
@@ -6710,34 +6754,34 @@
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E20" s="9">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G20">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I20" t="s">
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20">
         <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O20" t="s">
         <v>160</v>
@@ -6754,31 +6798,31 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E21" s="18">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G21">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
         <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M21">
         <v>27</v>
       </c>
       <c r="N21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O21" t="s">
         <v>162</v>
@@ -6795,19 +6839,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" s="18">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G22">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>137</v>
@@ -6816,16 +6860,16 @@
         <v>138</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M22">
         <v>28</v>
       </c>
       <c r="N22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O22" t="s">
         <v>164</v>
@@ -6842,19 +6886,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E23" s="9">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>141</v>
@@ -6863,16 +6907,16 @@
         <v>142</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M23">
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O23" t="s">
         <v>166</v>
@@ -6889,37 +6933,37 @@
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" s="18">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>144</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M24">
         <v>30</v>
       </c>
       <c r="N24" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O24" t="s">
         <v>168</v>
@@ -6951,7 +6995,7 @@
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="6:6">

--- a/credit_card.xlsx
+++ b/credit_card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19590" windowHeight="12630" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="2" r:id="rId1"/>
@@ -422,6 +422,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YWD:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+7911</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0">
       <text>
         <r>
@@ -1052,57 +1074,60 @@
     <t>双11</t>
   </si>
   <si>
+    <t>CGB</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>HXB</t>
+  </si>
+  <si>
+    <t>PAB</t>
+  </si>
+  <si>
+    <t>ECITIC</t>
+  </si>
+  <si>
+    <t>CZB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>BOSH</t>
+  </si>
+  <si>
+    <t>CIB</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>BOC</t>
+  </si>
+  <si>
+    <t>BOCOM</t>
+  </si>
+  <si>
+    <t>PSBC</t>
+  </si>
+  <si>
+    <t>CMBC</t>
+  </si>
+  <si>
+    <t>CCB</t>
+  </si>
+  <si>
+    <t>ICBC</t>
+  </si>
+  <si>
     <t>笔数</t>
   </si>
   <si>
     <t>线下</t>
   </si>
   <si>
-    <t>CGB</t>
-  </si>
-  <si>
-    <t>CEB</t>
-  </si>
-  <si>
-    <t>HXB</t>
-  </si>
-  <si>
-    <t>PAB</t>
-  </si>
-  <si>
-    <t>ECITIC</t>
-  </si>
-  <si>
-    <t>CZB</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>BOSH</t>
-  </si>
-  <si>
-    <t>CIB</t>
-  </si>
-  <si>
-    <t>CMB</t>
-  </si>
-  <si>
-    <t>BOC</t>
-  </si>
-  <si>
-    <t>BOCOM</t>
-  </si>
-  <si>
-    <t>PSBC</t>
-  </si>
-  <si>
-    <t>CMBC</t>
-  </si>
-  <si>
-    <t>CCB</t>
-  </si>
-  <si>
     <t>付临门</t>
   </si>
   <si>
@@ -1449,9 +1474,6 @@
   </si>
   <si>
     <t>QQ金</t>
-  </si>
-  <si>
-    <t>ICBC</t>
   </si>
   <si>
     <t>集气中</t>
@@ -1510,13 +1532,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1625,21 +1647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1648,16 +1655,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1671,7 +1670,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1679,29 +1685,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,23 +1699,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1747,10 +1722,57 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1797,7 +1819,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,115 +1981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme